--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1551658.908979498</v>
+        <v>1566204.356314634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5180438.595118582</v>
+        <v>5180438.595118584</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4689935.220254062</v>
+        <v>4689935.220254065</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>240.6899316306499</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -789,16 +789,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>176.3199958779194</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>57.8262048043397</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,61 +905,61 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>208.0250417001232</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>16.49739483988734</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.5171288722966</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>175.0426595591498</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>119.6291261312459</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>229.7753398494335</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.1341749248157</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>246.403696195054</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>111.9506442323358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I13" t="n">
-        <v>86.35797026270004</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>113.6016919952446</v>
       </c>
       <c r="S13" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>158.7030959793379</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>246.9526444533839</v>
       </c>
       <c r="I14" t="n">
-        <v>88.73176363078355</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>195.366193798069</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.5744636018854</v>
@@ -1783,7 +1783,7 @@
         <v>149.6330596899057</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24.74944789072687</v>
+        <v>92.47280779264557</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>88.87404243939797</v>
+        <v>127.9796032170124</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>88.73176363078355</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>43.72003781035514</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>68.62988212903129</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>286.2417648606778</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2084,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>304.6495896052761</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H20" t="n">
-        <v>307.1341749248157</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>88.73176363078355</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T20" t="n">
         <v>209.272234719421</v>
@@ -2141,13 +2141,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>305.5666002206169</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>113.6016919952446</v>
+        <v>81.05445671172609</v>
       </c>
       <c r="S22" t="n">
-        <v>2.250333869188418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.8932039229227</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>292.5588639680677</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>412.1448586242818</v>
       </c>
       <c r="H23" t="n">
-        <v>79.89929286847719</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I23" t="n">
         <v>88.73176363078355</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.272234719421</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>199.3305916246896</v>
       </c>
       <c r="T25" t="n">
-        <v>22.63143579577842</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U25" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>48.89642082067328</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>138.038009714669</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>412.1448586242818</v>
       </c>
       <c r="H26" t="n">
-        <v>79.89929286847719</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I26" t="n">
         <v>88.73176363078355</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>113.6016919952446</v>
+        <v>110.4747558149229</v>
       </c>
       <c r="S28" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.34864865311795</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>127.4481595643444</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>184.9099765679433</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H29" t="n">
         <v>307.1341749248157</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>10.1670478386219</v>
+        <v>109.8070703662359</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>154.6954880159233</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>412.1448586242818</v>
       </c>
       <c r="H32" t="n">
-        <v>307.1341749248157</v>
+        <v>289.1715275878972</v>
       </c>
       <c r="I32" t="n">
         <v>88.73176363078355</v>
@@ -3080,7 +3080,7 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T32" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.0930225965682</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>36.57633312196509</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>221.8932039229227</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.2452776312384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>268.017743348898</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>412.1448586242818</v>
@@ -3284,7 +3284,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I35" t="n">
-        <v>88.73176363078355</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>111.2932035835692</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>199.3305916246896</v>
+        <v>53.72013462248807</v>
       </c>
       <c r="T37" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>86.97999673353341</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.1448586242818</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I38" t="n">
-        <v>88.73176363078355</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.272234719421</v>
+        <v>123.4701349039587</v>
       </c>
       <c r="U38" t="n">
         <v>251.0930225965682</v>
@@ -3563,13 +3563,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.159637214100339</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>156.3038504084764</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>4.000087715362986</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.1448586242818</v>
+        <v>309.8223516723045</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>86.95338913923409</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.96791860378664</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2417648606778</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>155.0019417599601</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>309.2919578257788</v>
+        <v>212.7472198482407</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>126.6846351163812</v>
+        <v>88.8375999909221</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>135.6539030000527</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>140.2993290820219</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>193.3543979231454</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8302232544513</v>
@@ -4116,7 +4116,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>22.0239617198554</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.7871587471137</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D2" t="n">
-        <v>509.8046290289238</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E2" t="n">
-        <v>509.8046290289238</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F2" t="n">
-        <v>502.8591282797204</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.8733789897854</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="C3" t="n">
-        <v>428.8733789897854</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D3" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>279.9389693285341</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4422,7 +4422,7 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4437,22 +4437,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="W3" t="n">
-        <v>428.8733789897854</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="X3" t="n">
-        <v>428.8733789897854</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="Y3" t="n">
-        <v>428.8733789897854</v>
+        <v>511.3692755768984</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4531,7 +4531,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>488.3135351232606</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>472.856224501912</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>229.407447857812</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>495.259035872464</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>398.0001399844777</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>398.0001399844777</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>947.3931203188308</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>773.9757757694997</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>773.9757757694997</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>773.9757757694997</v>
       </c>
       <c r="V6" t="n">
-        <v>197.3253049269343</v>
+        <v>773.9757757694997</v>
       </c>
       <c r="W6" t="n">
-        <v>197.3253049269343</v>
+        <v>773.9757757694997</v>
       </c>
       <c r="X6" t="n">
-        <v>197.3253049269343</v>
+        <v>773.9757757694997</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>566.2154770045457</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.7059962668447</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>533.7059962668447</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>290.2572196227447</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>290.2572196227447</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>777.1547729109448</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>777.1547729109448</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>777.1547729109448</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>777.1547729109448</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>533.7059962668447</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>843.2196543679636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>843.2196543679636</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>843.2196543679636</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>843.2196543679636</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W9" t="n">
-        <v>599.7708777238635</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>391.9193775183306</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>391.9193775183306</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1141.878035398513</v>
+        <v>1575.695446275411</v>
       </c>
       <c r="C11" t="n">
-        <v>772.9155184581014</v>
+        <v>1206.732929334999</v>
       </c>
       <c r="D11" t="n">
-        <v>772.9155184581014</v>
+        <v>848.467230728249</v>
       </c>
       <c r="E11" t="n">
-        <v>772.9155184581014</v>
+        <v>462.6789781300047</v>
       </c>
       <c r="F11" t="n">
-        <v>361.9296136684939</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="G11" t="n">
-        <v>361.9296136684939</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="H11" t="n">
         <v>51.69307334039718</v>
@@ -5039,52 +5039,52 @@
         <v>51.69307334039718</v>
       </c>
       <c r="J11" t="n">
-        <v>305.2040901567665</v>
+        <v>180.3881123630548</v>
       </c>
       <c r="K11" t="n">
-        <v>484.992234214994</v>
+        <v>360.1762564212822</v>
       </c>
       <c r="L11" t="n">
-        <v>744.9370867323574</v>
+        <v>620.1211089386456</v>
       </c>
       <c r="M11" t="n">
-        <v>1065.845258612969</v>
+        <v>1259.822891526061</v>
       </c>
       <c r="N11" t="n">
-        <v>1418.764134287453</v>
+        <v>1899.524674113476</v>
       </c>
       <c r="O11" t="n">
-        <v>1717.713301281531</v>
+        <v>2198.473841107555</v>
       </c>
       <c r="P11" t="n">
-        <v>2256.939219108369</v>
+        <v>2419.119037844624</v>
       </c>
       <c r="Q11" t="n">
-        <v>2584.653667019859</v>
+        <v>2536.641645002809</v>
       </c>
       <c r="R11" t="n">
         <v>2584.653667019859</v>
       </c>
       <c r="S11" t="n">
-        <v>2446.20931918054</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="T11" t="n">
-        <v>2234.823223504357</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="U11" t="n">
-        <v>1981.193907750248</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="V11" t="n">
-        <v>1981.193907750248</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="W11" t="n">
-        <v>1628.425252480134</v>
+        <v>2335.761044600613</v>
       </c>
       <c r="X11" t="n">
-        <v>1254.959494219054</v>
+        <v>1962.295286339533</v>
       </c>
       <c r="Y11" t="n">
-        <v>1141.878035398513</v>
+        <v>1962.295286339533</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>946.3017627768163</v>
+        <v>946.3017627768158</v>
       </c>
       <c r="C12" t="n">
-        <v>771.8487334956893</v>
+        <v>771.8487334956889</v>
       </c>
       <c r="D12" t="n">
-        <v>622.9143238344379</v>
+        <v>622.9143238344375</v>
       </c>
       <c r="E12" t="n">
-        <v>463.6768688289824</v>
+        <v>463.6768688289819</v>
       </c>
       <c r="F12" t="n">
-        <v>317.1423108558674</v>
+        <v>317.142310855867</v>
       </c>
       <c r="G12" t="n">
-        <v>180.1181664113697</v>
+        <v>180.1181664113693</v>
       </c>
       <c r="H12" t="n">
-        <v>83.23197600446112</v>
+        <v>83.23197600446113</v>
       </c>
       <c r="I12" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J12" t="n">
-        <v>208.9891185488937</v>
+        <v>84.15899356188902</v>
       </c>
       <c r="K12" t="n">
-        <v>604.4539566704916</v>
+        <v>217.8032470410341</v>
       </c>
       <c r="L12" t="n">
-        <v>887.1215366563783</v>
+        <v>738.5121722901822</v>
       </c>
       <c r="M12" t="n">
-        <v>1170.237440019107</v>
+        <v>1378.213954877597</v>
       </c>
       <c r="N12" t="n">
-        <v>1475.25522382193</v>
+        <v>1683.231738680421</v>
       </c>
       <c r="O12" t="n">
-        <v>2114.957006409345</v>
+        <v>2322.933521267837</v>
       </c>
       <c r="P12" t="n">
-        <v>2301.738120355195</v>
+        <v>2509.714635213686</v>
       </c>
       <c r="Q12" t="n">
         <v>2584.653667019859</v>
@@ -5154,7 +5154,7 @@
         <v>2019.518363727315</v>
       </c>
       <c r="V12" t="n">
-        <v>1784.366255495573</v>
+        <v>1784.366255495572</v>
       </c>
       <c r="W12" t="n">
         <v>1530.128898767371</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>285.8132938309338</v>
+        <v>1098.942377361043</v>
       </c>
       <c r="C13" t="n">
-        <v>285.8132938309338</v>
+        <v>930.0061944331358</v>
       </c>
       <c r="D13" t="n">
-        <v>285.8132938309338</v>
+        <v>779.8895550208</v>
       </c>
       <c r="E13" t="n">
-        <v>285.8132938309338</v>
+        <v>631.9764614384069</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9233463330235</v>
+        <v>485.0865139404966</v>
       </c>
       <c r="G13" t="n">
-        <v>138.9233463330235</v>
+        <v>316.8294799991982</v>
       </c>
       <c r="H13" t="n">
-        <v>138.9233463330235</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="I13" t="n">
         <v>51.69307334039718</v>
@@ -5224,25 +5224,25 @@
         <v>1259.248534915929</v>
       </c>
       <c r="S13" t="n">
-        <v>1057.904502971799</v>
+        <v>1259.248534915929</v>
       </c>
       <c r="T13" t="n">
-        <v>1057.904502971799</v>
+        <v>1259.248534915929</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.904502971799</v>
+        <v>1259.248534915929</v>
       </c>
       <c r="V13" t="n">
-        <v>803.2200147659117</v>
+        <v>1259.248534915929</v>
       </c>
       <c r="W13" t="n">
-        <v>513.8028447289512</v>
+        <v>1098.942377361043</v>
       </c>
       <c r="X13" t="n">
-        <v>285.8132938309338</v>
+        <v>1098.942377361043</v>
       </c>
       <c r="Y13" t="n">
-        <v>285.8132938309338</v>
+        <v>1098.942377361043</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.2695391419149</v>
+        <v>1514.222284342053</v>
       </c>
       <c r="C14" t="n">
-        <v>552.3070222015033</v>
+        <v>1514.222284342053</v>
       </c>
       <c r="D14" t="n">
-        <v>552.3070222015033</v>
+        <v>1514.222284342053</v>
       </c>
       <c r="E14" t="n">
-        <v>552.3070222015033</v>
+        <v>1128.434031743808</v>
       </c>
       <c r="F14" t="n">
-        <v>141.3211174118957</v>
+        <v>717.4481269542009</v>
       </c>
       <c r="G14" t="n">
-        <v>141.3211174118957</v>
+        <v>301.1401889498759</v>
       </c>
       <c r="H14" t="n">
-        <v>141.3211174118957</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="I14" t="n">
         <v>51.69307334039718</v>
@@ -5282,46 +5282,46 @@
         <v>317.5865851946411</v>
       </c>
       <c r="L14" t="n">
-        <v>577.5314377120046</v>
+        <v>907.149276659891</v>
       </c>
       <c r="M14" t="n">
-        <v>1217.23322029942</v>
+        <v>1228.057448540502</v>
       </c>
       <c r="N14" t="n">
-        <v>1628.955975040758</v>
+        <v>1558.772058520139</v>
       </c>
       <c r="O14" t="n">
-        <v>1927.905142034837</v>
+        <v>2198.473841107555</v>
       </c>
       <c r="P14" t="n">
-        <v>2467.131059861675</v>
+        <v>2419.119037844624</v>
       </c>
       <c r="Q14" t="n">
-        <v>2584.653667019859</v>
+        <v>2536.641645002809</v>
       </c>
       <c r="R14" t="n">
         <v>2584.653667019859</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.20931918054</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.20931918054</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="U14" t="n">
-        <v>2192.580003426431</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="V14" t="n">
-        <v>1861.51711608286</v>
+        <v>2253.590779676289</v>
       </c>
       <c r="W14" t="n">
-        <v>1508.748460812746</v>
+        <v>1900.822124406174</v>
       </c>
       <c r="X14" t="n">
-        <v>1311.408871117727</v>
+        <v>1900.822124406174</v>
       </c>
       <c r="Y14" t="n">
-        <v>921.2695391419149</v>
+        <v>1900.822124406174</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>317.142310855867</v>
       </c>
       <c r="G15" t="n">
-        <v>180.1181664113693</v>
+        <v>180.1181664113694</v>
       </c>
       <c r="H15" t="n">
-        <v>83.2319760044611</v>
+        <v>83.23197600446112</v>
       </c>
       <c r="I15" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J15" t="n">
-        <v>84.15899356188901</v>
+        <v>84.15899356188902</v>
       </c>
       <c r="K15" t="n">
-        <v>321.7148140141373</v>
+        <v>217.8032470410341</v>
       </c>
       <c r="L15" t="n">
-        <v>547.7385466972563</v>
+        <v>443.8269797241531</v>
       </c>
       <c r="M15" t="n">
-        <v>830.8544500599845</v>
+        <v>1083.528762311568</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.5562326474</v>
+        <v>1683.231738680421</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.258015234815</v>
+        <v>2322.933521267836</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.039129180664</v>
+        <v>2509.714635213686</v>
       </c>
       <c r="Q15" t="n">
-        <v>2579.954675845328</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="R15" t="n">
         <v>2584.653667019859</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>690.1474343592167</v>
+        <v>1098.942377361043</v>
       </c>
       <c r="C16" t="n">
-        <v>521.2112514313098</v>
+        <v>930.0061944331358</v>
       </c>
       <c r="D16" t="n">
-        <v>371.0946120189741</v>
+        <v>779.8895550208</v>
       </c>
       <c r="E16" t="n">
-        <v>371.0946120189741</v>
+        <v>631.9764614384069</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0946120189741</v>
+        <v>485.0865139404966</v>
       </c>
       <c r="G16" t="n">
-        <v>202.8375780776757</v>
+        <v>316.8294799991982</v>
       </c>
       <c r="H16" t="n">
-        <v>51.69307334039718</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="I16" t="n">
         <v>51.69307334039718</v>
@@ -5458,28 +5458,28 @@
         <v>1373.99771874951</v>
       </c>
       <c r="R16" t="n">
-        <v>1259.24853491593</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.24853491593</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="T16" t="n">
-        <v>1259.24853491593</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="U16" t="n">
-        <v>1259.24853491593</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="V16" t="n">
-        <v>1004.564046710043</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="W16" t="n">
-        <v>715.1468766730823</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="X16" t="n">
-        <v>690.1474343592167</v>
+        <v>1280.590842191282</v>
       </c>
       <c r="Y16" t="n">
-        <v>690.1474343592167</v>
+        <v>1280.590842191282</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1802.440671450619</v>
+        <v>539.2310984289784</v>
       </c>
       <c r="C17" t="n">
-        <v>1712.668911410823</v>
+        <v>409.9587719471477</v>
       </c>
       <c r="D17" t="n">
-        <v>1354.403212804073</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="E17" t="n">
-        <v>968.6149602058283</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="F17" t="n">
-        <v>557.6290554162208</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="G17" t="n">
-        <v>141.3211174118957</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="H17" t="n">
-        <v>141.3211174118957</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="I17" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J17" t="n">
-        <v>305.2040901567665</v>
+        <v>137.7984411364135</v>
       </c>
       <c r="K17" t="n">
-        <v>484.9922342149941</v>
+        <v>317.5865851946411</v>
       </c>
       <c r="L17" t="n">
-        <v>938.9147196454489</v>
+        <v>668.1331309556961</v>
       </c>
       <c r="M17" t="n">
-        <v>1259.82289152606</v>
+        <v>1307.834913543111</v>
       </c>
       <c r="N17" t="n">
-        <v>1899.524674113475</v>
+        <v>1947.536696130526</v>
       </c>
       <c r="O17" t="n">
-        <v>2198.473841107554</v>
+        <v>2246.485863124605</v>
       </c>
       <c r="P17" t="n">
-        <v>2419.119037844624</v>
+        <v>2467.131059861675</v>
       </c>
       <c r="Q17" t="n">
-        <v>2536.641645002808</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="R17" t="n">
         <v>2584.653667019859</v>
       </c>
       <c r="S17" t="n">
-        <v>2446.20931918054</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="T17" t="n">
-        <v>2446.20931918054</v>
+        <v>2373.267571343677</v>
       </c>
       <c r="U17" t="n">
-        <v>2192.580003426431</v>
+        <v>2373.267571343677</v>
       </c>
       <c r="V17" t="n">
-        <v>2192.580003426431</v>
+        <v>2042.204684000106</v>
       </c>
       <c r="W17" t="n">
-        <v>2192.580003426431</v>
+        <v>1689.436028729992</v>
       </c>
       <c r="X17" t="n">
-        <v>2192.580003426431</v>
+        <v>1315.970270468912</v>
       </c>
       <c r="Y17" t="n">
-        <v>1802.440671450619</v>
+        <v>925.8309384931001</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>946.3017627768163</v>
+        <v>946.3017627768157</v>
       </c>
       <c r="C18" t="n">
-        <v>771.8487334956893</v>
+        <v>771.8487334956887</v>
       </c>
       <c r="D18" t="n">
-        <v>622.9143238344381</v>
+        <v>622.9143238344375</v>
       </c>
       <c r="E18" t="n">
-        <v>463.6768688289825</v>
+        <v>463.676868828982</v>
       </c>
       <c r="F18" t="n">
-        <v>317.1423108558675</v>
+        <v>317.142310855867</v>
       </c>
       <c r="G18" t="n">
-        <v>180.1181664113699</v>
+        <v>180.1181664113694</v>
       </c>
       <c r="H18" t="n">
-        <v>83.23197600446167</v>
+        <v>83.23197600446112</v>
       </c>
       <c r="I18" t="n">
-        <v>51.69307334039775</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="J18" t="n">
-        <v>84.15899356188957</v>
+        <v>84.15899356188902</v>
       </c>
       <c r="K18" t="n">
-        <v>217.8032470410346</v>
+        <v>217.8032470410341</v>
       </c>
       <c r="L18" t="n">
-        <v>810.9589215745782</v>
+        <v>443.8269797241531</v>
       </c>
       <c r="M18" t="n">
-        <v>1094.074824937306</v>
+        <v>1083.528762311568</v>
       </c>
       <c r="N18" t="n">
-        <v>1733.776607524721</v>
+        <v>1723.230544898983</v>
       </c>
       <c r="O18" t="n">
-        <v>1990.588494444645</v>
+        <v>2322.933521267836</v>
       </c>
       <c r="P18" t="n">
-        <v>2492.647749344032</v>
+        <v>2509.714635213686</v>
       </c>
       <c r="Q18" t="n">
         <v>2584.653667019859</v>
@@ -5628,10 +5628,10 @@
         <v>2019.518363727315</v>
       </c>
       <c r="V18" t="n">
-        <v>1784.366255495573</v>
+        <v>1784.366255495572</v>
       </c>
       <c r="W18" t="n">
-        <v>1530.128898767371</v>
+        <v>1530.12889876737</v>
       </c>
       <c r="X18" t="n">
         <v>1322.277398561838</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.85472769429126</v>
+        <v>289.9523695299519</v>
       </c>
       <c r="C19" t="n">
-        <v>95.85472769429126</v>
+        <v>121.0161866020449</v>
       </c>
       <c r="D19" t="n">
-        <v>51.69307334039718</v>
+        <v>121.0161866020449</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69307334039718</v>
+        <v>121.0161866020449</v>
       </c>
       <c r="F19" t="n">
         <v>51.69307334039718</v>
@@ -5707,16 +5707,16 @@
         <v>544.6368577358387</v>
       </c>
       <c r="V19" t="n">
-        <v>544.6368577358387</v>
+        <v>289.9523695299519</v>
       </c>
       <c r="W19" t="n">
-        <v>544.6368577358387</v>
+        <v>289.9523695299519</v>
       </c>
       <c r="X19" t="n">
-        <v>316.6473068378214</v>
+        <v>289.9523695299519</v>
       </c>
       <c r="Y19" t="n">
-        <v>95.85472769429126</v>
+        <v>289.9523695299519</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1909.307052832645</v>
+        <v>1668.679401562525</v>
       </c>
       <c r="C20" t="n">
-        <v>1540.344535892233</v>
+        <v>1299.716884622113</v>
       </c>
       <c r="D20" t="n">
-        <v>1182.078837285483</v>
+        <v>1299.716884622113</v>
       </c>
       <c r="E20" t="n">
-        <v>796.2905846872386</v>
+        <v>991.9900264349656</v>
       </c>
       <c r="F20" t="n">
-        <v>385.3046798976311</v>
+        <v>581.0041216453579</v>
       </c>
       <c r="G20" t="n">
-        <v>385.3046798976311</v>
+        <v>164.6961836410329</v>
       </c>
       <c r="H20" t="n">
-        <v>75.06813956953441</v>
+        <v>164.6961836410329</v>
       </c>
       <c r="I20" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="J20" t="n">
-        <v>161.1735073655508</v>
+        <v>328.5791563859037</v>
       </c>
       <c r="K20" t="n">
-        <v>661.8656098692314</v>
+        <v>829.2712588895844</v>
       </c>
       <c r="L20" t="n">
-        <v>1113.884086276044</v>
+        <v>1089.216111406948</v>
       </c>
       <c r="M20" t="n">
-        <v>1879.81065631456</v>
+        <v>1855.142681445463</v>
       </c>
       <c r="N20" t="n">
-        <v>2210.525266294197</v>
+        <v>2587.517445744314</v>
       </c>
       <c r="O20" t="n">
-        <v>2886.466612738393</v>
+        <v>2886.466612738392</v>
       </c>
       <c r="P20" t="n">
-        <v>3425.692530565231</v>
+        <v>3425.69253056523</v>
       </c>
       <c r="Q20" t="n">
-        <v>3753.406978476721</v>
+        <v>3753.40697847672</v>
       </c>
       <c r="R20" t="n">
-        <v>3753.406978476721</v>
+        <v>3753.40697847672</v>
       </c>
       <c r="S20" t="n">
-        <v>3753.406978476721</v>
+        <v>3614.962630637401</v>
       </c>
       <c r="T20" t="n">
-        <v>3542.020882800538</v>
+        <v>3403.576534961218</v>
       </c>
       <c r="U20" t="n">
-        <v>3288.391567046428</v>
+        <v>3149.947219207109</v>
       </c>
       <c r="V20" t="n">
-        <v>2957.328679702858</v>
+        <v>2818.884331863538</v>
       </c>
       <c r="W20" t="n">
-        <v>2604.560024432743</v>
+        <v>2818.884331863538</v>
       </c>
       <c r="X20" t="n">
-        <v>2295.906892896767</v>
+        <v>2445.418573602458</v>
       </c>
       <c r="Y20" t="n">
-        <v>2295.906892896767</v>
+        <v>2055.279241626647</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>106.6070422335983</v>
       </c>
       <c r="I21" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="J21" t="n">
         <v>107.5340597910262</v>
       </c>
       <c r="K21" t="n">
-        <v>241.1783132701713</v>
+        <v>502.9988979126241</v>
       </c>
       <c r="L21" t="n">
-        <v>834.3339878037149</v>
+        <v>729.0226305957431</v>
       </c>
       <c r="M21" t="n">
-        <v>1117.449891166443</v>
+        <v>1012.138533958471</v>
       </c>
       <c r="N21" t="n">
-        <v>1491.596489634597</v>
+        <v>1791.705268361413</v>
       </c>
       <c r="O21" t="n">
-        <v>2138.332072638482</v>
+        <v>2048.517155281337</v>
       </c>
       <c r="P21" t="n">
-        <v>2325.113186584332</v>
+        <v>2320.414195409801</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.028733248996</v>
+        <v>2603.329742074465</v>
       </c>
       <c r="R21" t="n">
         <v>2608.028733248996</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.9812331519275</v>
+        <v>3044.958196488153</v>
       </c>
       <c r="C22" t="n">
-        <v>222.9812331519275</v>
+        <v>2876.022013560246</v>
       </c>
       <c r="D22" t="n">
-        <v>222.9812331519275</v>
+        <v>2725.905374147911</v>
       </c>
       <c r="E22" t="n">
-        <v>75.06813956953441</v>
+        <v>2577.992280565517</v>
       </c>
       <c r="F22" t="n">
-        <v>75.06813956953441</v>
+        <v>2431.102333067607</v>
       </c>
       <c r="G22" t="n">
-        <v>75.06813956953441</v>
+        <v>2431.102333067607</v>
       </c>
       <c r="H22" t="n">
-        <v>75.06813956953441</v>
+        <v>2431.102333067607</v>
       </c>
       <c r="I22" t="n">
-        <v>75.06813956953441</v>
+        <v>2431.102333067607</v>
       </c>
       <c r="J22" t="n">
-        <v>81.78873860386618</v>
+        <v>2437.822932101939</v>
       </c>
       <c r="K22" t="n">
-        <v>222.6695840173077</v>
+        <v>2578.70377751538</v>
       </c>
       <c r="L22" t="n">
-        <v>458.4749971720244</v>
+        <v>2814.509190670097</v>
       </c>
       <c r="M22" t="n">
-        <v>717.4878660795936</v>
+        <v>3073.522059577666</v>
       </c>
       <c r="N22" t="n">
-        <v>975.7766043086215</v>
+        <v>3331.810797806694</v>
       </c>
       <c r="O22" t="n">
-        <v>1198.331763792341</v>
+        <v>3554.365957290414</v>
       </c>
       <c r="P22" t="n">
-        <v>1365.245468093651</v>
+        <v>3721.279661591724</v>
       </c>
       <c r="Q22" t="n">
-        <v>1397.372784978647</v>
+        <v>3753.40697847672</v>
       </c>
       <c r="R22" t="n">
-        <v>1282.623601145067</v>
+        <v>3671.533789879017</v>
       </c>
       <c r="S22" t="n">
-        <v>1280.350536630735</v>
+        <v>3671.533789879017</v>
       </c>
       <c r="T22" t="n">
-        <v>1056.215987213641</v>
+        <v>3447.399240461923</v>
       </c>
       <c r="U22" t="n">
-        <v>767.0828913947749</v>
+        <v>3447.399240461923</v>
       </c>
       <c r="V22" t="n">
-        <v>512.3984031888881</v>
+        <v>3447.399240461923</v>
       </c>
       <c r="W22" t="n">
-        <v>222.9812331519275</v>
+        <v>3447.399240461923</v>
       </c>
       <c r="X22" t="n">
-        <v>222.9812331519275</v>
+        <v>3447.399240461923</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.9812331519275</v>
+        <v>3226.606661318393</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2203.463914374825</v>
+        <v>2432.994098270117</v>
       </c>
       <c r="C23" t="n">
-        <v>1834.501397434414</v>
+        <v>2064.031581329705</v>
       </c>
       <c r="D23" t="n">
-        <v>1476.235698827663</v>
+        <v>1705.765882722955</v>
       </c>
       <c r="E23" t="n">
-        <v>1090.447446229419</v>
+        <v>1319.97763012471</v>
       </c>
       <c r="F23" t="n">
-        <v>679.4615414398115</v>
+        <v>908.991725335103</v>
       </c>
       <c r="G23" t="n">
-        <v>263.1536034354865</v>
+        <v>492.6837873307779</v>
       </c>
       <c r="H23" t="n">
         <v>182.4472470026813</v>
@@ -5999,7 +5999,7 @@
         <v>2286.378347212059</v>
       </c>
       <c r="N23" t="n">
-        <v>3050.066412359561</v>
+        <v>3050.06641235956</v>
       </c>
       <c r="O23" t="n">
         <v>3726.007758803757</v>
@@ -6014,25 +6014,25 @@
         <v>4640.960146559135</v>
       </c>
       <c r="S23" t="n">
-        <v>4502.515798719816</v>
+        <v>4640.960146559135</v>
       </c>
       <c r="T23" t="n">
-        <v>4291.129703043634</v>
+        <v>4429.574050882952</v>
       </c>
       <c r="U23" t="n">
-        <v>4037.500387289524</v>
+        <v>4175.944735128843</v>
       </c>
       <c r="V23" t="n">
-        <v>3706.437499945953</v>
+        <v>3844.881847785272</v>
       </c>
       <c r="W23" t="n">
-        <v>3353.668844675839</v>
+        <v>3492.113192515158</v>
       </c>
       <c r="X23" t="n">
-        <v>2980.203086414759</v>
+        <v>3118.647434254078</v>
       </c>
       <c r="Y23" t="n">
-        <v>2590.063754438947</v>
+        <v>2728.508102278266</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>92.8192029311827</v>
       </c>
       <c r="J24" t="n">
-        <v>156.9434930242043</v>
+        <v>125.2851231526745</v>
       </c>
       <c r="K24" t="n">
-        <v>290.5877465033494</v>
+        <v>258.9293766318196</v>
       </c>
       <c r="L24" t="n">
-        <v>516.6114791864684</v>
+        <v>852.0850511653632</v>
       </c>
       <c r="M24" t="n">
-        <v>799.7273825491966</v>
+        <v>1596.248967640591</v>
       </c>
       <c r="N24" t="n">
-        <v>1579.294116952139</v>
+        <v>1901.266751443415</v>
       </c>
       <c r="O24" t="n">
-        <v>1836.106003872062</v>
+        <v>2364.059650858621</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.165258771449</v>
+        <v>2550.840764804471</v>
       </c>
       <c r="Q24" t="n">
-        <v>2621.080805436113</v>
+        <v>2625.779796610644</v>
       </c>
       <c r="R24" t="n">
         <v>2625.779796610644</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>242.9358423435184</v>
+        <v>354.7241984350983</v>
       </c>
       <c r="C25" t="n">
-        <v>242.9358423435184</v>
+        <v>354.7241984350983</v>
       </c>
       <c r="D25" t="n">
-        <v>92.8192029311827</v>
+        <v>354.7241984350983</v>
       </c>
       <c r="E25" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="F25" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="G25" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="H25" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I25" t="n">
         <v>92.8192029311827</v>
@@ -6175,22 +6175,22 @@
         <v>1099.030632562584</v>
       </c>
       <c r="T25" t="n">
-        <v>1076.170596405232</v>
+        <v>874.8960831454906</v>
       </c>
       <c r="U25" t="n">
-        <v>787.0375005863659</v>
+        <v>585.7629873266242</v>
       </c>
       <c r="V25" t="n">
-        <v>532.3530123804791</v>
+        <v>585.7629873266242</v>
       </c>
       <c r="W25" t="n">
-        <v>242.9358423435184</v>
+        <v>536.372663265338</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9358423435184</v>
+        <v>536.372663265338</v>
       </c>
       <c r="Y25" t="n">
-        <v>242.9358423435184</v>
+        <v>536.372663265338</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2203.463914374825</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.501397434414</v>
+        <v>2064.031581329705</v>
       </c>
       <c r="D26" t="n">
-        <v>1476.235698827663</v>
+        <v>1705.765882722955</v>
       </c>
       <c r="E26" t="n">
-        <v>1090.447446229419</v>
+        <v>1319.97763012471</v>
       </c>
       <c r="F26" t="n">
-        <v>679.4615414398115</v>
+        <v>908.991725335103</v>
       </c>
       <c r="G26" t="n">
-        <v>263.1536034354865</v>
+        <v>492.6837873307779</v>
       </c>
       <c r="H26" t="n">
         <v>182.4472470026813</v>
@@ -6306,25 +6306,25 @@
         <v>250.1152481396793</v>
       </c>
       <c r="K27" t="n">
-        <v>503.2632525363709</v>
+        <v>383.7595016188243</v>
       </c>
       <c r="L27" t="n">
-        <v>729.2869852194899</v>
+        <v>609.7832343019434</v>
       </c>
       <c r="M27" t="n">
-        <v>1012.402888582218</v>
+        <v>933.0583422772629</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.96962298516</v>
+        <v>1712.625076680205</v>
       </c>
       <c r="O27" t="n">
-        <v>2048.781509905084</v>
+        <v>2359.36065968409</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.840764804471</v>
+        <v>2546.14177362994</v>
       </c>
       <c r="Q27" t="n">
-        <v>2625.779796610644</v>
+        <v>2621.080805436113</v>
       </c>
       <c r="R27" t="n">
         <v>2625.779796610644</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>261.7553858590896</v>
+        <v>673.1025910291925</v>
       </c>
       <c r="C28" t="n">
-        <v>92.8192029311827</v>
+        <v>673.1025910291925</v>
       </c>
       <c r="D28" t="n">
-        <v>92.8192029311827</v>
+        <v>673.1025910291925</v>
       </c>
       <c r="E28" t="n">
-        <v>92.8192029311827</v>
+        <v>673.1025910291925</v>
       </c>
       <c r="F28" t="n">
-        <v>92.8192029311827</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="G28" t="n">
-        <v>92.8192029311827</v>
+        <v>357.9556095899837</v>
       </c>
       <c r="H28" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I28" t="n">
         <v>92.8192029311827</v>
@@ -6406,28 +6406,28 @@
         <v>1415.123848340296</v>
       </c>
       <c r="R28" t="n">
-        <v>1300.374664506715</v>
+        <v>1303.53318590098</v>
       </c>
       <c r="S28" t="n">
-        <v>1099.030632562584</v>
+        <v>1303.53318590098</v>
       </c>
       <c r="T28" t="n">
-        <v>874.8960831454906</v>
+        <v>1303.53318590098</v>
       </c>
       <c r="U28" t="n">
-        <v>874.8960831454906</v>
+        <v>1303.53318590098</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2115949396037</v>
+        <v>1303.53318590098</v>
       </c>
       <c r="W28" t="n">
-        <v>330.7944249026431</v>
+        <v>1303.53318590098</v>
       </c>
       <c r="X28" t="n">
-        <v>330.7944249026431</v>
+        <v>1075.543635002962</v>
       </c>
       <c r="Y28" t="n">
-        <v>261.7553858590896</v>
+        <v>854.7510558594322</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1834.501397434414</v>
       </c>
       <c r="D29" t="n">
-        <v>1476.235698827663</v>
+        <v>1705.765882722955</v>
       </c>
       <c r="E29" t="n">
-        <v>1090.447446229419</v>
+        <v>1319.97763012471</v>
       </c>
       <c r="F29" t="n">
-        <v>679.4615414398115</v>
+        <v>908.991725335103</v>
       </c>
       <c r="G29" t="n">
         <v>492.6837873307779</v>
@@ -6473,7 +6473,7 @@
         <v>2286.378347212059</v>
       </c>
       <c r="N29" t="n">
-        <v>3050.06641235956</v>
+        <v>3050.066412359561</v>
       </c>
       <c r="O29" t="n">
         <v>3726.007758803757</v>
@@ -6543,22 +6543,22 @@
         <v>125.2851231526745</v>
       </c>
       <c r="K30" t="n">
-        <v>520.7499612742724</v>
+        <v>258.9293766318196</v>
       </c>
       <c r="L30" t="n">
-        <v>746.7736939573915</v>
+        <v>484.9531093149386</v>
       </c>
       <c r="M30" t="n">
-        <v>1029.88959732012</v>
+        <v>1229.117025790167</v>
       </c>
       <c r="N30" t="n">
-        <v>1334.907381122944</v>
+        <v>2008.683760193109</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.642964126829</v>
+        <v>2359.36065968409</v>
       </c>
       <c r="P30" t="n">
-        <v>2338.165258771449</v>
+        <v>2546.14177362994</v>
       </c>
       <c r="Q30" t="n">
         <v>2621.080805436113</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.8192029311827</v>
+        <v>673.7770207753409</v>
       </c>
       <c r="C31" t="n">
-        <v>92.8192029311827</v>
+        <v>504.840837847434</v>
       </c>
       <c r="D31" t="n">
-        <v>92.8192029311827</v>
+        <v>354.7241984350983</v>
       </c>
       <c r="E31" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="F31" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="G31" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="H31" t="n">
-        <v>92.8192029311827</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I31" t="n">
         <v>92.8192029311827</v>
@@ -6643,28 +6643,28 @@
         <v>1415.123848340296</v>
       </c>
       <c r="R31" t="n">
-        <v>1300.374664506715</v>
+        <v>1415.123848340296</v>
       </c>
       <c r="S31" t="n">
-        <v>1099.030632562584</v>
+        <v>1415.123848340296</v>
       </c>
       <c r="T31" t="n">
-        <v>874.8960831454906</v>
+        <v>1415.123848340296</v>
       </c>
       <c r="U31" t="n">
-        <v>585.7629873266242</v>
+        <v>1415.123848340296</v>
       </c>
       <c r="V31" t="n">
-        <v>331.0784991207373</v>
+        <v>1415.123848340296</v>
       </c>
       <c r="W31" t="n">
-        <v>320.8087538292</v>
+        <v>1304.207615647128</v>
       </c>
       <c r="X31" t="n">
-        <v>92.8192029311827</v>
+        <v>1076.218064749111</v>
       </c>
       <c r="Y31" t="n">
-        <v>92.8192029311827</v>
+        <v>855.4254856055807</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2203.463914374825</v>
+        <v>2414.850010051007</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.501397434414</v>
+        <v>2045.887493110596</v>
       </c>
       <c r="D32" t="n">
-        <v>1476.235698827663</v>
+        <v>1687.621794503845</v>
       </c>
       <c r="E32" t="n">
-        <v>1319.97763012471</v>
+        <v>1301.833541905601</v>
       </c>
       <c r="F32" t="n">
-        <v>908.991725335103</v>
+        <v>890.8476371159934</v>
       </c>
       <c r="G32" t="n">
-        <v>492.6837873307779</v>
+        <v>474.5396991116684</v>
       </c>
       <c r="H32" t="n">
-        <v>182.4472470026813</v>
+        <v>182.4472470026812</v>
       </c>
       <c r="I32" t="n">
-        <v>92.8192029311827</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J32" t="n">
         <v>346.3302197475521</v>
@@ -6704,46 +6704,46 @@
         <v>847.0223222512327</v>
       </c>
       <c r="L32" t="n">
-        <v>1520.451777173542</v>
+        <v>1520.451777173543</v>
       </c>
       <c r="M32" t="n">
         <v>2286.378347212058</v>
       </c>
       <c r="N32" t="n">
-        <v>3050.066412359561</v>
+        <v>3050.066412359559</v>
       </c>
       <c r="O32" t="n">
-        <v>3726.007758803757</v>
+        <v>3726.007758803756</v>
       </c>
       <c r="P32" t="n">
-        <v>4265.233676630595</v>
+        <v>4265.233676630593</v>
       </c>
       <c r="Q32" t="n">
-        <v>4592.948124542085</v>
+        <v>4592.948124542084</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.960146559135</v>
+        <v>4640.960146559134</v>
       </c>
       <c r="S32" t="n">
-        <v>4502.515798719816</v>
+        <v>4502.515798719815</v>
       </c>
       <c r="T32" t="n">
-        <v>4291.129703043634</v>
+        <v>4502.515798719815</v>
       </c>
       <c r="U32" t="n">
-        <v>4037.500387289524</v>
+        <v>4248.886482965706</v>
       </c>
       <c r="V32" t="n">
-        <v>3706.437499945953</v>
+        <v>3917.823595622135</v>
       </c>
       <c r="W32" t="n">
-        <v>3353.668844675839</v>
+        <v>3565.054940352021</v>
       </c>
       <c r="X32" t="n">
-        <v>2980.203086414759</v>
+        <v>3191.589182090941</v>
       </c>
       <c r="Y32" t="n">
-        <v>2590.063754438947</v>
+        <v>2801.449850115129</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8029984197675</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2684404466525</v>
+        <v>358.2684404466524</v>
       </c>
       <c r="G33" t="n">
-        <v>221.2442960021549</v>
+        <v>221.2442960021548</v>
       </c>
       <c r="H33" t="n">
         <v>124.3581055952466</v>
       </c>
       <c r="I33" t="n">
-        <v>92.8192029311827</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J33" t="n">
-        <v>156.9434930242043</v>
+        <v>125.2851231526745</v>
       </c>
       <c r="K33" t="n">
-        <v>290.5877465033494</v>
+        <v>258.9293766318196</v>
       </c>
       <c r="L33" t="n">
-        <v>516.6114791864684</v>
+        <v>813.9122397356459</v>
       </c>
       <c r="M33" t="n">
-        <v>799.7273825491966</v>
+        <v>1097.028143098374</v>
       </c>
       <c r="N33" t="n">
-        <v>1579.294116952139</v>
+        <v>1402.045926901198</v>
       </c>
       <c r="O33" t="n">
-        <v>1836.106003872062</v>
+        <v>2048.781509905084</v>
       </c>
       <c r="P33" t="n">
-        <v>2338.165258771449</v>
+        <v>2550.840764804471</v>
       </c>
       <c r="Q33" t="n">
-        <v>2621.080805436113</v>
+        <v>2625.779796610644</v>
       </c>
       <c r="R33" t="n">
         <v>2625.779796610644</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.6684794414828</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="C34" t="n">
-        <v>240.7322965135758</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7322965135758</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="E34" t="n">
-        <v>92.8192029311827</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="F34" t="n">
-        <v>92.8192029311827</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="G34" t="n">
-        <v>92.8192029311827</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="H34" t="n">
-        <v>92.8192029311827</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="I34" t="n">
-        <v>92.8192029311827</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="J34" t="n">
-        <v>99.53980196551447</v>
+        <v>99.53980196551446</v>
       </c>
       <c r="K34" t="n">
         <v>240.420647378956</v>
@@ -6880,28 +6880,28 @@
         <v>1415.123848340296</v>
       </c>
       <c r="R34" t="n">
-        <v>1300.374664506715</v>
+        <v>1415.123848340296</v>
       </c>
       <c r="S34" t="n">
-        <v>1300.374664506715</v>
+        <v>1415.123848340296</v>
       </c>
       <c r="T34" t="n">
-        <v>1076.240115089621</v>
+        <v>1190.989298923202</v>
       </c>
       <c r="U34" t="n">
-        <v>1076.240115089621</v>
+        <v>901.8562031043355</v>
       </c>
       <c r="V34" t="n">
-        <v>821.5556268837346</v>
+        <v>647.1717148984486</v>
       </c>
       <c r="W34" t="n">
-        <v>532.138456846774</v>
+        <v>357.754544861488</v>
       </c>
       <c r="X34" t="n">
-        <v>532.138456846774</v>
+        <v>129.7649939634707</v>
       </c>
       <c r="Y34" t="n">
-        <v>409.6684794414828</v>
+        <v>129.7649939634707</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1902.05555792529</v>
+        <v>1583.725908421272</v>
       </c>
       <c r="C35" t="n">
-        <v>1533.093040984878</v>
+        <v>1583.725908421272</v>
       </c>
       <c r="D35" t="n">
-        <v>1533.093040984878</v>
+        <v>1583.725908421272</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.304788386634</v>
+        <v>1197.937655823027</v>
       </c>
       <c r="F35" t="n">
-        <v>876.5797951049185</v>
+        <v>786.9517510334199</v>
       </c>
       <c r="G35" t="n">
-        <v>460.2718571005935</v>
+        <v>370.6438130290949</v>
       </c>
       <c r="H35" t="n">
-        <v>150.0353167724968</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="I35" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J35" t="n">
-        <v>146.5126404970146</v>
+        <v>313.9182895173676</v>
       </c>
       <c r="K35" t="n">
-        <v>326.3007845552422</v>
+        <v>493.7064335755952</v>
       </c>
       <c r="L35" t="n">
-        <v>586.2456370726056</v>
+        <v>753.6512860929586</v>
       </c>
       <c r="M35" t="n">
-        <v>1333.785636747459</v>
+        <v>1210.702463018557</v>
       </c>
       <c r="N35" t="n">
-        <v>2064.665943070811</v>
+        <v>1958.24246269341</v>
       </c>
       <c r="O35" t="n">
-        <v>2363.61511006489</v>
+        <v>2634.183809137606</v>
       </c>
       <c r="P35" t="n">
-        <v>2902.841027891728</v>
+        <v>2854.829005874676</v>
       </c>
       <c r="Q35" t="n">
-        <v>3020.363635049912</v>
+        <v>2972.35161303286</v>
       </c>
       <c r="R35" t="n">
-        <v>3020.363635049912</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="S35" t="n">
-        <v>2881.919287210593</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="T35" t="n">
-        <v>2881.919287210593</v>
+        <v>2808.977539373728</v>
       </c>
       <c r="U35" t="n">
-        <v>2628.289971456484</v>
+        <v>2808.977539373728</v>
       </c>
       <c r="V35" t="n">
-        <v>2628.289971456484</v>
+        <v>2808.977539373728</v>
       </c>
       <c r="W35" t="n">
-        <v>2275.521316186369</v>
+        <v>2456.208884103614</v>
       </c>
       <c r="X35" t="n">
-        <v>1902.05555792529</v>
+        <v>2082.743125842534</v>
       </c>
       <c r="Y35" t="n">
-        <v>1902.05555792529</v>
+        <v>1970.325748485393</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>472.3910681895831</v>
       </c>
       <c r="F36" t="n">
-        <v>325.8565102164681</v>
+        <v>325.856510216468</v>
       </c>
       <c r="G36" t="n">
         <v>188.8323657719704</v>
       </c>
       <c r="H36" t="n">
-        <v>91.94617536506217</v>
+        <v>91.94617536506215</v>
       </c>
       <c r="I36" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J36" t="n">
-        <v>92.87319292249006</v>
+        <v>92.87319292249005</v>
       </c>
       <c r="K36" t="n">
-        <v>488.338031044088</v>
+        <v>488.3380310440879</v>
       </c>
       <c r="L36" t="n">
-        <v>1081.493705577632</v>
+        <v>714.3617637272069</v>
       </c>
       <c r="M36" t="n">
-        <v>1364.60960894036</v>
+        <v>1458.525680202435</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.627392743184</v>
+        <v>2074.835833708514</v>
       </c>
       <c r="O36" t="n">
-        <v>1926.439279663107</v>
+        <v>2331.647720628437</v>
       </c>
       <c r="P36" t="n">
-        <v>2305.753328541265</v>
+        <v>2518.428834574287</v>
       </c>
       <c r="Q36" t="n">
-        <v>2588.668875205929</v>
+        <v>2593.36786638046</v>
       </c>
       <c r="R36" t="n">
         <v>2593.36786638046</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.523912113334</v>
+        <v>1107.656576721644</v>
       </c>
       <c r="C37" t="n">
-        <v>210.523912113334</v>
+        <v>938.7203937937368</v>
       </c>
       <c r="D37" t="n">
-        <v>60.40727270099824</v>
+        <v>788.603754381401</v>
       </c>
       <c r="E37" t="n">
-        <v>60.40727270099824</v>
+        <v>640.6906607990079</v>
       </c>
       <c r="F37" t="n">
-        <v>60.40727270099824</v>
+        <v>493.8007133010976</v>
       </c>
       <c r="G37" t="n">
-        <v>60.40727270099824</v>
+        <v>325.5436793597992</v>
       </c>
       <c r="H37" t="n">
-        <v>60.40727270099824</v>
+        <v>174.3991746225207</v>
       </c>
       <c r="I37" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J37" t="n">
-        <v>67.12787173533</v>
+        <v>67.12787173532999</v>
       </c>
       <c r="K37" t="n">
         <v>208.0087171487716</v>
@@ -7117,28 +7117,28 @@
         <v>1382.711918110111</v>
       </c>
       <c r="R37" t="n">
-        <v>1267.962734276531</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="S37" t="n">
-        <v>1066.6187023324</v>
+        <v>1328.449155865174</v>
       </c>
       <c r="T37" t="n">
-        <v>842.4841529153061</v>
+        <v>1328.449155865174</v>
       </c>
       <c r="U37" t="n">
-        <v>754.6255703561815</v>
+        <v>1328.449155865174</v>
       </c>
       <c r="V37" t="n">
-        <v>499.9410821502946</v>
+        <v>1328.449155865174</v>
       </c>
       <c r="W37" t="n">
-        <v>210.523912113334</v>
+        <v>1328.449155865174</v>
       </c>
       <c r="X37" t="n">
-        <v>210.523912113334</v>
+        <v>1328.449155865174</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.523912113334</v>
+        <v>1107.656576721644</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>952.1315073750661</v>
+        <v>2310.954123968434</v>
       </c>
       <c r="C38" t="n">
-        <v>952.1315073750661</v>
+        <v>1941.991607028022</v>
       </c>
       <c r="D38" t="n">
-        <v>952.1315073750661</v>
+        <v>1583.725908421272</v>
       </c>
       <c r="E38" t="n">
-        <v>566.3432547768218</v>
+        <v>1197.937655823027</v>
       </c>
       <c r="F38" t="n">
-        <v>566.3432547768218</v>
+        <v>786.9517510334199</v>
       </c>
       <c r="G38" t="n">
-        <v>150.0353167724968</v>
+        <v>370.6438130290949</v>
       </c>
       <c r="H38" t="n">
-        <v>150.0353167724968</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="I38" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J38" t="n">
         <v>146.5126404970146</v>
       </c>
       <c r="K38" t="n">
-        <v>326.3007845552422</v>
+        <v>647.2047430006952</v>
       </c>
       <c r="L38" t="n">
-        <v>999.7302394775515</v>
+        <v>1320.634197923005</v>
       </c>
       <c r="M38" t="n">
-        <v>1425.51482373242</v>
+        <v>1794.328191410585</v>
       </c>
       <c r="N38" t="n">
-        <v>2173.054823407273</v>
+        <v>2125.042801390222</v>
       </c>
       <c r="O38" t="n">
-        <v>2472.003990401352</v>
+        <v>2423.9919683843</v>
       </c>
       <c r="P38" t="n">
-        <v>2692.649187138422</v>
+        <v>2644.63716512137</v>
       </c>
       <c r="Q38" t="n">
-        <v>3020.363635049912</v>
+        <v>2972.35161303286</v>
       </c>
       <c r="R38" t="n">
-        <v>3020.363635049912</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="S38" t="n">
-        <v>2881.919287210593</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.53319153441</v>
+        <v>2895.646327066114</v>
       </c>
       <c r="U38" t="n">
-        <v>2416.903875780301</v>
+        <v>2642.017011312005</v>
       </c>
       <c r="V38" t="n">
-        <v>2085.84098843673</v>
+        <v>2310.954123968434</v>
       </c>
       <c r="W38" t="n">
-        <v>1733.072333166616</v>
+        <v>2310.954123968434</v>
       </c>
       <c r="X38" t="n">
-        <v>1728.870679415</v>
+        <v>2310.954123968434</v>
       </c>
       <c r="Y38" t="n">
-        <v>1338.731347439188</v>
+        <v>2310.954123968434</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>472.3910681895831</v>
       </c>
       <c r="F39" t="n">
-        <v>325.8565102164681</v>
+        <v>325.856510216468</v>
       </c>
       <c r="G39" t="n">
         <v>188.8323657719704</v>
       </c>
       <c r="H39" t="n">
-        <v>91.94617536506217</v>
+        <v>91.94617536506215</v>
       </c>
       <c r="I39" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J39" t="n">
-        <v>92.87319292249006</v>
+        <v>217.7033179094948</v>
       </c>
       <c r="K39" t="n">
-        <v>226.5174464016351</v>
+        <v>351.3475713886398</v>
       </c>
       <c r="L39" t="n">
-        <v>452.5411790847542</v>
+        <v>577.3713040717589</v>
       </c>
       <c r="M39" t="n">
-        <v>1196.705095559982</v>
+        <v>1321.535220546987</v>
       </c>
       <c r="N39" t="n">
-        <v>1501.722879362806</v>
+        <v>1680.213146450021</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.458462366692</v>
+        <v>2326.948729453906</v>
       </c>
       <c r="P39" t="n">
-        <v>2335.239576312541</v>
+        <v>2513.729843399756</v>
       </c>
       <c r="Q39" t="n">
         <v>2588.668875205929</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>233.3839482706859</v>
+        <v>777.2015322954392</v>
       </c>
       <c r="C40" t="n">
-        <v>64.44776534277904</v>
+        <v>619.31885511516</v>
       </c>
       <c r="D40" t="n">
-        <v>64.44776534277904</v>
+        <v>469.2022157028242</v>
       </c>
       <c r="E40" t="n">
-        <v>64.44776534277904</v>
+        <v>321.2891221204311</v>
       </c>
       <c r="F40" t="n">
-        <v>64.44776534277904</v>
+        <v>174.3991746225207</v>
       </c>
       <c r="G40" t="n">
-        <v>60.40727270099824</v>
+        <v>174.3991746225207</v>
       </c>
       <c r="H40" t="n">
-        <v>60.40727270099824</v>
+        <v>174.3991746225207</v>
       </c>
       <c r="I40" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J40" t="n">
-        <v>67.12787173533</v>
+        <v>67.12787173532999</v>
       </c>
       <c r="K40" t="n">
         <v>208.0087171487716</v>
@@ -7363,19 +7363,19 @@
         <v>1066.6187023324</v>
       </c>
       <c r="U40" t="n">
-        <v>777.4856065135334</v>
+        <v>1066.6187023324</v>
       </c>
       <c r="V40" t="n">
-        <v>522.8011183076466</v>
+        <v>1066.6187023324</v>
       </c>
       <c r="W40" t="n">
-        <v>233.3839482706859</v>
+        <v>777.2015322954392</v>
       </c>
       <c r="X40" t="n">
-        <v>233.3839482706859</v>
+        <v>777.2015322954392</v>
       </c>
       <c r="Y40" t="n">
-        <v>233.3839482706859</v>
+        <v>777.2015322954392</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1231.465980243979</v>
+        <v>1539.095817405327</v>
       </c>
       <c r="C41" t="n">
-        <v>862.5034633035675</v>
+        <v>1170.133300464915</v>
       </c>
       <c r="D41" t="n">
-        <v>862.5034633035675</v>
+        <v>1170.133300464915</v>
       </c>
       <c r="E41" t="n">
-        <v>476.7152107053233</v>
+        <v>784.3450478666709</v>
       </c>
       <c r="F41" t="n">
-        <v>476.7152107053233</v>
+        <v>373.3591430770634</v>
       </c>
       <c r="G41" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="H41" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="I41" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J41" t="n">
-        <v>146.5126404970146</v>
+        <v>313.9182895173676</v>
       </c>
       <c r="K41" t="n">
-        <v>326.3007845552422</v>
+        <v>786.8433392183688</v>
       </c>
       <c r="L41" t="n">
-        <v>586.2456370726056</v>
+        <v>1046.788191735732</v>
       </c>
       <c r="M41" t="n">
-        <v>1333.785636747459</v>
+        <v>1794.328191410585</v>
       </c>
       <c r="N41" t="n">
-        <v>2081.325636422312</v>
+        <v>2125.042801390222</v>
       </c>
       <c r="O41" t="n">
-        <v>2380.274803416391</v>
+        <v>2423.9919683843</v>
       </c>
       <c r="P41" t="n">
-        <v>2902.841027891728</v>
+        <v>2644.63716512137</v>
       </c>
       <c r="Q41" t="n">
-        <v>3020.363635049912</v>
+        <v>2972.35161303286</v>
       </c>
       <c r="R41" t="n">
-        <v>3020.363635049912</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="S41" t="n">
-        <v>3020.363635049912</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="T41" t="n">
-        <v>2932.531928848665</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="U41" t="n">
-        <v>2678.902613094556</v>
+        <v>3020.363635049911</v>
       </c>
       <c r="V41" t="n">
-        <v>2347.839725750985</v>
+        <v>2689.30074770634</v>
       </c>
       <c r="W41" t="n">
-        <v>1995.071070480871</v>
+        <v>2689.30074770634</v>
       </c>
       <c r="X41" t="n">
-        <v>1621.605312219791</v>
+        <v>2315.83498944526</v>
       </c>
       <c r="Y41" t="n">
-        <v>1231.465980243979</v>
+        <v>1925.695657469449</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>472.3910681895831</v>
       </c>
       <c r="F42" t="n">
-        <v>325.8565102164681</v>
+        <v>325.856510216468</v>
       </c>
       <c r="G42" t="n">
         <v>188.8323657719704</v>
       </c>
       <c r="H42" t="n">
-        <v>91.94617536506217</v>
+        <v>91.94617536506215</v>
       </c>
       <c r="I42" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J42" t="n">
-        <v>92.87319292249006</v>
+        <v>92.87319292249005</v>
       </c>
       <c r="K42" t="n">
         <v>226.5174464016351</v>
       </c>
       <c r="L42" t="n">
-        <v>728.9017897173945</v>
+        <v>819.6731209351788</v>
       </c>
       <c r="M42" t="n">
-        <v>1012.017693080123</v>
+        <v>1102.789024297907</v>
       </c>
       <c r="N42" t="n">
-        <v>1759.557692754976</v>
+        <v>1472.23663159153</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.369579674899</v>
+        <v>2118.972214595416</v>
       </c>
       <c r="P42" t="n">
-        <v>2518.428834574287</v>
+        <v>2305.753328541265</v>
       </c>
       <c r="Q42" t="n">
-        <v>2593.36786638046</v>
+        <v>2588.668875205929</v>
       </c>
       <c r="R42" t="n">
         <v>2593.36786638046</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.40727270099824</v>
+        <v>527.373188623634</v>
       </c>
       <c r="C43" t="n">
-        <v>60.40727270099824</v>
+        <v>358.4370056957271</v>
       </c>
       <c r="D43" t="n">
-        <v>60.40727270099824</v>
+        <v>208.3203662833913</v>
       </c>
       <c r="E43" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="F43" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="G43" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="H43" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="I43" t="n">
-        <v>60.40727270099824</v>
+        <v>60.40727270099822</v>
       </c>
       <c r="J43" t="n">
-        <v>67.12787173533</v>
+        <v>67.12787173532999</v>
       </c>
       <c r="K43" t="n">
         <v>208.0087171487716</v>
@@ -7591,28 +7591,28 @@
         <v>1382.711918110111</v>
       </c>
       <c r="R43" t="n">
-        <v>1267.962734276531</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="S43" t="n">
-        <v>1066.6187023324</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="T43" t="n">
-        <v>1041.398582530595</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="U43" t="n">
-        <v>752.2654867117287</v>
+        <v>1093.578822291245</v>
       </c>
       <c r="V43" t="n">
-        <v>752.2654867117287</v>
+        <v>1093.578822291245</v>
       </c>
       <c r="W43" t="n">
-        <v>462.8483166747681</v>
+        <v>937.011204351891</v>
       </c>
       <c r="X43" t="n">
-        <v>462.8483166747681</v>
+        <v>709.0216534538737</v>
       </c>
       <c r="Y43" t="n">
-        <v>242.055737531238</v>
+        <v>709.0216534538737</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.8204590701052</v>
+        <v>1250.114301864038</v>
       </c>
       <c r="C44" t="n">
-        <v>422.8204590701052</v>
+        <v>1250.114301864038</v>
       </c>
       <c r="D44" t="n">
-        <v>422.8204590701052</v>
+        <v>1250.114301864038</v>
       </c>
       <c r="E44" t="n">
-        <v>37.03220647186098</v>
+        <v>864.3260492657936</v>
       </c>
       <c r="F44" t="n">
-        <v>37.03220647186098</v>
+        <v>453.340144476186</v>
       </c>
       <c r="G44" t="n">
         <v>37.03220647186098</v>
@@ -7682,16 +7682,16 @@
         <v>1851.610323593049</v>
       </c>
       <c r="V44" t="n">
-        <v>1539.194204577111</v>
+        <v>1636.71414192816</v>
       </c>
       <c r="W44" t="n">
-        <v>1186.425549306997</v>
+        <v>1636.71414192816</v>
       </c>
       <c r="X44" t="n">
-        <v>812.959791045917</v>
+        <v>1636.71414192816</v>
       </c>
       <c r="Y44" t="n">
-        <v>422.8204590701052</v>
+        <v>1636.71414192816</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>507.7468352029412</v>
+        <v>628.7627735561805</v>
       </c>
       <c r="C45" t="n">
-        <v>333.2938059218141</v>
+        <v>628.7627735561805</v>
       </c>
       <c r="D45" t="n">
-        <v>333.2938059218141</v>
+        <v>479.8283638949292</v>
       </c>
       <c r="E45" t="n">
-        <v>174.0563509163586</v>
+        <v>320.5909088894737</v>
       </c>
       <c r="F45" t="n">
         <v>174.0563509163586</v>
@@ -7740,10 +7740,10 @@
         <v>1017.299800021169</v>
       </c>
       <c r="O45" t="n">
-        <v>1475.573355110449</v>
+        <v>1381.913662982536</v>
       </c>
       <c r="P45" t="n">
-        <v>1662.354469056298</v>
+        <v>1568.694776928385</v>
       </c>
       <c r="Q45" t="n">
         <v>1851.610323593049</v>
@@ -7752,25 +7752,25 @@
         <v>1851.610323593049</v>
       </c>
       <c r="S45" t="n">
-        <v>1709.893829570805</v>
+        <v>1851.610323593049</v>
       </c>
       <c r="T45" t="n">
-        <v>1514.586356921163</v>
+        <v>1851.610323593049</v>
       </c>
       <c r="U45" t="n">
-        <v>1286.475020300505</v>
+        <v>1623.498986972391</v>
       </c>
       <c r="V45" t="n">
-        <v>1051.322912068762</v>
+        <v>1388.346878740649</v>
       </c>
       <c r="W45" t="n">
-        <v>1051.322912068762</v>
+        <v>1134.109522012447</v>
       </c>
       <c r="X45" t="n">
-        <v>843.4714118632296</v>
+        <v>926.2580218069143</v>
       </c>
       <c r="Y45" t="n">
-        <v>635.7111130982757</v>
+        <v>718.4977230419604</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>298.0449658307762</v>
+        <v>621.42162602056</v>
       </c>
       <c r="C46" t="n">
-        <v>298.0449658307762</v>
+        <v>599.1752000409081</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9283264184404</v>
+        <v>449.0585606285723</v>
       </c>
       <c r="E46" t="n">
-        <v>147.9283264184404</v>
+        <v>449.0585606285723</v>
       </c>
       <c r="F46" t="n">
-        <v>37.03220647186098</v>
+        <v>302.1686131306619</v>
       </c>
       <c r="G46" t="n">
-        <v>37.03220647186098</v>
+        <v>302.1686131306619</v>
       </c>
       <c r="H46" t="n">
-        <v>37.03220647186098</v>
+        <v>151.0241083933835</v>
       </c>
       <c r="I46" t="n">
         <v>37.03220647186098</v>
@@ -7828,28 +7828,28 @@
         <v>1359.336851880974</v>
       </c>
       <c r="R46" t="n">
-        <v>1244.587668047393</v>
+        <v>1359.336851880974</v>
       </c>
       <c r="S46" t="n">
-        <v>1244.587668047393</v>
+        <v>1359.336851880974</v>
       </c>
       <c r="T46" t="n">
-        <v>1244.587668047393</v>
+        <v>1359.336851880974</v>
       </c>
       <c r="U46" t="n">
-        <v>1244.587668047393</v>
+        <v>1070.203756062107</v>
       </c>
       <c r="V46" t="n">
-        <v>989.9031798415066</v>
+        <v>1070.203756062107</v>
       </c>
       <c r="W46" t="n">
-        <v>700.486009804546</v>
+        <v>1070.203756062107</v>
       </c>
       <c r="X46" t="n">
-        <v>700.486009804546</v>
+        <v>842.2142051640901</v>
       </c>
       <c r="Y46" t="n">
-        <v>479.6934306610159</v>
+        <v>621.42162602056</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>43.01986992590025</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,22 +8696,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>322.0137481886909</v>
       </c>
       <c r="N11" t="n">
-        <v>22.42855120691638</v>
+        <v>312.1082551593721</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17.21942793656771</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>57.21600737653307</v>
+        <v>297.6618106727566</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>360.1877567926131</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>386.7574703712039</v>
+        <v>386.757470371204</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>40.77521407947124</v>
@@ -8930,25 +8930,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>332.9473120685722</v>
       </c>
       <c r="M14" t="n">
-        <v>322.0137481886907</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>81.82640885020345</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.1945612053904</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17.21942793656768</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>104.9611787607103</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>360.1877567926131</v>
       </c>
       <c r="N15" t="n">
-        <v>338.0646452369606</v>
+        <v>297.6618106727561</v>
       </c>
       <c r="O15" t="n">
-        <v>386.7574703712038</v>
+        <v>386.7574703712039</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>40.77521407947123</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>195.9370029425165</v>
+        <v>91.51686186231461</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>322.0137481886908</v>
       </c>
       <c r="N17" t="n">
-        <v>312.1082551593718</v>
+        <v>312.108255159372</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>17.21942793656768</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>360.1877567926131</v>
       </c>
       <c r="N18" t="n">
-        <v>338.0646452369606</v>
+        <v>338.0646452369607</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>346.3546358069993</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>17.23927865621566</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>40.77521407947123</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>194.0137615044944</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>405.7173275951648</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>69.82708552053481</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.97568301274197</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>40.77521407947123</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>31.9781513853836</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>208.061628783114</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>40.77521407947123</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>120.7108595126733</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>40.5648531440317</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.77521407947123</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>94.81314401117004</v>
       </c>
       <c r="P30" t="n">
-        <v>171.4557380795662</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.346924411986</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>31.9781513853836</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>332.2819499199064</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>40.77521407947123</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>430.9412401962039</v>
+        <v>137.5181869141279</v>
       </c>
       <c r="N35" t="n">
-        <v>404.2077740845613</v>
+        <v>421.0357471668849</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>17.21942793656768</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>314.4367370739945</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>194.4777120528366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>40.77521407947123</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>105.9357700750074</v>
+        <v>154.3291127343123</v>
       </c>
       <c r="N38" t="n">
-        <v>421.0357471668851</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>17.21942793656768</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>54.20216373758541</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.2931990779942</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>296.0978844876501</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>430.9412401962039</v>
+        <v>430.9412401962037</v>
       </c>
       <c r="N41" t="n">
-        <v>421.0357471668851</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>304.9707350891588</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>17.21942793656768</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>279.152131952162</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>446.9921372444738</v>
+        <v>65.08062978868594</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>40.77521407947123</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>203.4966345145014</v>
+        <v>108.8908848903467</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.4715381116944</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>40.77521407947123</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>412.1448586242818</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I11" t="n">
         <v>88.73176363078356</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>102.8372725223591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.2872944237178</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>26.49401263960723</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T13" t="n">
         <v>221.8932039229227</v>
@@ -23473,13 +23473,13 @@
         <v>286.2417648606778</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>127.8199023572531</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.1341749248157</v>
+        <v>60.18153047143176</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>88.73176363078355</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T14" t="n">
         <v>209.272234719421</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>174.3649068804</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S16" t="n">
         <v>199.3305916246896</v>
@@ -23710,13 +23710,13 @@
         <v>286.2417648606778</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>200.9602074983103</v>
+        <v>133.2368475963916</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>276.3988493316096</v>
+        <v>237.2932885539952</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H17" t="n">
         <v>307.1341749248157</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>88.73176363078355</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T17" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>104.8954352078572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>76.79116589389996</v>
       </c>
       <c r="G19" t="n">
         <v>166.5744636018854</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23972,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>77.28078046698568</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I20" t="n">
-        <v>88.73176363078355</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>64.16450045785217</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.5744636018854</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>32.54723528351849</v>
       </c>
       <c r="S22" t="n">
-        <v>197.0802577555012</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>90.17497769541291</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>227.2348820563385</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>149.6330596899057</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>199.2617681271443</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>237.6265775159177</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>227.2348820563385</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>227.2348820563385</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.126936180321721</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U28" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.2360046989768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>227.2348820563385</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>227.2348820563385</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>149.6330596899057</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>276.3559504979691</v>
+        <v>176.7159279703551</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>227.2348820563384</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>17.96264733691845</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>143.2556470599722</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S34" t="n">
         <v>199.3305916246896</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.33937572085644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>138.8583023928135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>88.73176363078355</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T35" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>274.9447350724844</v>
       </c>
     </row>
     <row r="36">
@@ -25312,25 +25312,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6104570022015</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U37" t="n">
-        <v>199.2617681271444</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.1341749248157</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>88.73176363078355</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>85.8020998154623</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25451,13 +25451,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>365.5714634643687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,25 +25549,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>10.94297069015144</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>162.5743758865224</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H40" t="n">
         <v>149.6330596899057</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>221.8932039229227</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>102.3225069519773</v>
       </c>
       <c r="H41" t="n">
         <v>307.1341749248157</v>
@@ -25679,16 +25679,16 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T41" t="n">
-        <v>122.3188455801869</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T43" t="n">
-        <v>196.925285319136</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>131.5210565766309</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.1341749248157</v>
@@ -25922,16 +25922,16 @@
         <v>251.0930225965682</v>
       </c>
       <c r="V44" t="n">
-        <v>18.4603006443561</v>
+        <v>115.0050386218942</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.84854853348611</v>
+        <v>77.69558365894524</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25992,10 +25992,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>140.2993290820219</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>193.3543979231454</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26004,7 +26004,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>145.2228593787724</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>35.63388927581758</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H46" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S46" t="n">
         <v>199.3305916246896</v>
@@ -26077,16 +26077,16 @@
         <v>221.8932039229227</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677548.0806620307</v>
+        <v>677548.0806620308</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677548.0806620308</v>
+        <v>677548.0806620307</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>884719.1178943769</v>
+        <v>884719.1178943766</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>884719.1178943769</v>
+        <v>884719.1178943766</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721445.4699410271</v>
+        <v>721445.469941027</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>564355.5906293945</v>
+        <v>564355.5906293947</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26314,31 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>407073.8804455978</v>
+        <v>407073.8804455979</v>
       </c>
       <c r="F2" t="n">
-        <v>407073.8804455978</v>
+        <v>407073.8804455979</v>
       </c>
       <c r="G2" t="n">
-        <v>407073.8804455977</v>
+        <v>407073.8804455979</v>
       </c>
       <c r="H2" t="n">
-        <v>467999.6418305225</v>
+        <v>467999.6418305224</v>
       </c>
       <c r="I2" t="n">
+        <v>514266.7642463029</v>
+      </c>
+      <c r="J2" t="n">
         <v>514266.7642463028</v>
       </c>
-      <c r="J2" t="n">
-        <v>514266.7642463029</v>
-      </c>
       <c r="K2" t="n">
-        <v>514266.7642463027</v>
+        <v>514266.7642463028</v>
       </c>
       <c r="L2" t="n">
         <v>514266.7642463027</v>
@@ -26347,10 +26347,10 @@
         <v>429786.9382697014</v>
       </c>
       <c r="N2" t="n">
-        <v>429786.9382697012</v>
+        <v>429786.9382697013</v>
       </c>
       <c r="O2" t="n">
-        <v>429786.9382697012</v>
+        <v>429786.9382697011</v>
       </c>
       <c r="P2" t="n">
         <v>348506.6714704696</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>78835.04055271615</v>
+        <v>78835.04055271608</v>
       </c>
       <c r="I3" t="n">
-        <v>59004.7565024109</v>
+        <v>59004.75650241099</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="C4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="D4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769092</v>
       </c>
       <c r="E4" t="n">
-        <v>30707.28985903347</v>
+        <v>29761.53175965931</v>
       </c>
       <c r="F4" t="n">
-        <v>30707.28985903345</v>
+        <v>29761.53175965928</v>
       </c>
       <c r="G4" t="n">
-        <v>30707.28985903344</v>
+        <v>29761.53175965929</v>
       </c>
       <c r="H4" t="n">
-        <v>52236.45490473325</v>
+        <v>50620.6050268398</v>
       </c>
       <c r="I4" t="n">
-        <v>68585.73790155434</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="J4" t="n">
-        <v>68585.73790155433</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="K4" t="n">
-        <v>68585.73790155433</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="L4" t="n">
-        <v>68585.73790155437</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="M4" t="n">
-        <v>38733.33925869911</v>
+        <v>37537.77167041584</v>
       </c>
       <c r="N4" t="n">
-        <v>38733.33925869911</v>
+        <v>37537.77167041585</v>
       </c>
       <c r="O4" t="n">
-        <v>38733.33925869911</v>
+        <v>37537.77167041585</v>
       </c>
       <c r="P4" t="n">
-        <v>10011.55984878009</v>
+        <v>9709.952997300932</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>56411.12349407664</v>
+        <v>56411.12349407666</v>
       </c>
       <c r="F5" t="n">
-        <v>56411.12349407665</v>
+        <v>56411.12349407666</v>
       </c>
       <c r="G5" t="n">
-        <v>56411.12349407665</v>
+        <v>56411.12349407666</v>
       </c>
       <c r="H5" t="n">
-        <v>74176.17382822096</v>
+        <v>74176.17382822094</v>
       </c>
       <c r="I5" t="n">
         <v>87666.98198307365</v>
@@ -26497,16 +26497,16 @@
         <v>87666.98198307365</v>
       </c>
       <c r="L5" t="n">
-        <v>87666.98198307365</v>
+        <v>87666.98198307364</v>
       </c>
       <c r="M5" t="n">
-        <v>63033.91500813346</v>
+        <v>63033.91500813344</v>
       </c>
       <c r="N5" t="n">
-        <v>63033.91500813346</v>
+        <v>63033.91500813344</v>
       </c>
       <c r="O5" t="n">
-        <v>63033.91500813346</v>
+        <v>63033.91500813344</v>
       </c>
       <c r="P5" t="n">
         <v>45268.86467398915</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68283.84404933063</v>
+        <v>70719.22708617267</v>
       </c>
       <c r="C6" t="n">
-        <v>149053.2755808784</v>
+        <v>151488.6586177202</v>
       </c>
       <c r="D6" t="n">
-        <v>149053.2755808783</v>
+        <v>151488.6586177203</v>
       </c>
       <c r="E6" t="n">
-        <v>-432104.1811297332</v>
+        <v>-431158.4230303589</v>
       </c>
       <c r="F6" t="n">
-        <v>319955.4670924877</v>
+        <v>320901.225191862</v>
       </c>
       <c r="G6" t="n">
-        <v>319955.4670924876</v>
+        <v>320901.2251918619</v>
       </c>
       <c r="H6" t="n">
-        <v>262751.9725448522</v>
+        <v>264367.8224227456</v>
       </c>
       <c r="I6" t="n">
-        <v>299009.2878592639</v>
+        <v>301134.0065250365</v>
       </c>
       <c r="J6" t="n">
-        <v>294954.1017625687</v>
+        <v>297078.8204283411</v>
       </c>
       <c r="K6" t="n">
-        <v>358014.0443616748</v>
+        <v>360138.7630274473</v>
       </c>
       <c r="L6" t="n">
-        <v>358014.0443616746</v>
+        <v>360138.7630274472</v>
       </c>
       <c r="M6" t="n">
-        <v>328019.6840028688</v>
+        <v>329215.2515911522</v>
       </c>
       <c r="N6" t="n">
-        <v>328019.6840028687</v>
+        <v>329215.251591152</v>
       </c>
       <c r="O6" t="n">
-        <v>328019.6840028687</v>
+        <v>329215.2515911519</v>
       </c>
       <c r="P6" t="n">
-        <v>293226.2469477003</v>
+        <v>293527.8537991795</v>
       </c>
     </row>
   </sheetData>
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="F4" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="G4" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="H4" t="n">
-        <v>938.3517446191802</v>
+        <v>938.35174461918</v>
       </c>
       <c r="I4" t="n">
         <v>1160.240036639784</v>
@@ -26820,13 +26820,13 @@
         <v>1160.240036639784</v>
       </c>
       <c r="M4" t="n">
-        <v>755.090908762478</v>
+        <v>755.0909087624777</v>
       </c>
       <c r="N4" t="n">
-        <v>755.090908762478</v>
+        <v>755.0909087624777</v>
       </c>
       <c r="O4" t="n">
-        <v>755.090908762478</v>
+        <v>755.0909087624777</v>
       </c>
       <c r="P4" t="n">
         <v>462.9025808982623</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>405.1491278773056</v>
+        <v>405.1491278773057</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>292.1883278642156</v>
+        <v>292.1883278642153</v>
       </c>
       <c r="I4" t="n">
-        <v>221.8882920206035</v>
+        <v>221.8882920206038</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>405.1491278773056</v>
+        <v>405.1491278773057</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>292.1883278642156</v>
+        <v>292.1883278642153</v>
       </c>
     </row>
   </sheetData>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27436,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>87.06232683948505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>165.3541422745157</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,16 +27509,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>49.62138620305538</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>193.8687783565799</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>2.450847870282672</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,28 +27658,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>287.2759793369997</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>83.66043931275578</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.16556690500781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>310.9156916318736</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>76.30299334868673</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27947,10 +27947,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>52.05404497259192</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>21.91964331148608</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34790,10 +34790,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.0717341579489</v>
+        <v>129.9949889117754</v>
       </c>
       <c r="K11" t="n">
         <v>181.6041859174015</v>
@@ -35416,22 +35416,22 @@
         <v>262.5705580983469</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1496685662739</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="N11" t="n">
-        <v>356.4837128025092</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="O11" t="n">
         <v>301.9688555495743</v>
       </c>
       <c r="P11" t="n">
-        <v>544.6726442695331</v>
+        <v>222.8739360980504</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.0246948600908</v>
+        <v>118.7097042001861</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>48.49699193641473</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>158.8848941499965</v>
+        <v>32.7938588095877</v>
       </c>
       <c r="K12" t="n">
-        <v>399.4594324460585</v>
+        <v>134.9941954334799</v>
       </c>
       <c r="L12" t="n">
-        <v>285.5228080665523</v>
+        <v>525.9686113627758</v>
       </c>
       <c r="M12" t="n">
-        <v>285.9756599623516</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="N12" t="n">
         <v>308.098771518004</v>
       </c>
       <c r="O12" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="P12" t="n">
         <v>188.6677918644945</v>
       </c>
       <c r="Q12" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340736</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>181.6041859174016</v>
       </c>
       <c r="L14" t="n">
-        <v>262.570558098347</v>
+        <v>595.5178701669191</v>
       </c>
       <c r="M14" t="n">
-        <v>646.1634167549647</v>
+        <v>324.149668566274</v>
       </c>
       <c r="N14" t="n">
-        <v>415.8815704457963</v>
+        <v>334.0551615955929</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9688555495744</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="P14" t="n">
-        <v>544.6726442695331</v>
+        <v>222.8739360980504</v>
       </c>
       <c r="Q14" t="n">
         <v>118.7097042001862</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>48.49699193641476</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K15" t="n">
-        <v>239.9553741941902</v>
+        <v>134.9941954334799</v>
       </c>
       <c r="L15" t="n">
         <v>228.3068006900192</v>
       </c>
       <c r="M15" t="n">
-        <v>285.9756599623517</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="N15" t="n">
-        <v>646.1634167549647</v>
+        <v>605.7605821907603</v>
       </c>
       <c r="O15" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="P15" t="n">
         <v>188.6677918644945</v>
       </c>
       <c r="Q15" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R15" t="n">
-        <v>4.746455731849593</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.0717341579489</v>
+        <v>86.9751189858751</v>
       </c>
       <c r="K17" t="n">
         <v>181.6041859174016</v>
       </c>
       <c r="L17" t="n">
-        <v>458.5075610408634</v>
+        <v>354.0874199606616</v>
       </c>
       <c r="M17" t="n">
-        <v>324.149668566274</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="N17" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="O17" t="n">
         <v>301.9688555495744</v>
@@ -35905,7 +35905,7 @@
         <v>118.7097042001862</v>
       </c>
       <c r="R17" t="n">
-        <v>48.49699193641476</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>134.9941954334799</v>
       </c>
       <c r="L18" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900192</v>
       </c>
       <c r="M18" t="n">
-        <v>285.9756599623517</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="N18" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="O18" t="n">
-        <v>259.4059463837609</v>
+        <v>605.7605821907603</v>
       </c>
       <c r="P18" t="n">
-        <v>507.1305605044317</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.93527037962305</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.9751189858751</v>
+        <v>256.0717341579489</v>
       </c>
       <c r="K20" t="n">
         <v>505.7495984885663</v>
       </c>
       <c r="L20" t="n">
-        <v>456.5843196028414</v>
+        <v>262.570558098347</v>
       </c>
       <c r="M20" t="n">
         <v>773.6632020591065</v>
       </c>
       <c r="N20" t="n">
-        <v>334.0551615955929</v>
+        <v>739.7724891907577</v>
       </c>
       <c r="O20" t="n">
-        <v>682.7690368123198</v>
+        <v>301.9688555495744</v>
       </c>
       <c r="P20" t="n">
         <v>544.6726442695331</v>
@@ -36200,28 +36200,28 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K21" t="n">
-        <v>134.9941954334799</v>
+        <v>399.4594324460585</v>
       </c>
       <c r="L21" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900192</v>
       </c>
       <c r="M21" t="n">
         <v>285.9756599623517</v>
       </c>
       <c r="N21" t="n">
-        <v>377.9258570385389</v>
+        <v>787.4411458615576</v>
       </c>
       <c r="O21" t="n">
-        <v>653.2682656604904</v>
+        <v>259.4059463837609</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6677918644945</v>
+        <v>274.6434748772365</v>
       </c>
       <c r="Q21" t="n">
         <v>285.7732794592565</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>4.746455731849593</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.7720101949713</v>
+        <v>32.7938588095877</v>
       </c>
       <c r="K24" t="n">
         <v>134.9941954334799</v>
       </c>
       <c r="L24" t="n">
-        <v>228.3068006900192</v>
+        <v>599.1471459934784</v>
       </c>
       <c r="M24" t="n">
-        <v>285.9756599623517</v>
+        <v>751.6807237123517</v>
       </c>
       <c r="N24" t="n">
-        <v>787.4411458615576</v>
+        <v>308.0987715180041</v>
       </c>
       <c r="O24" t="n">
-        <v>259.4059463837609</v>
+        <v>467.467575166875</v>
       </c>
       <c r="P24" t="n">
-        <v>507.1305605044317</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q24" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R24" t="n">
-        <v>4.746455731849593</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>158.8848941499965</v>
       </c>
       <c r="K27" t="n">
-        <v>255.7050549461532</v>
+        <v>134.9941954334799</v>
       </c>
       <c r="L27" t="n">
         <v>228.3068006900192</v>
       </c>
       <c r="M27" t="n">
-        <v>285.9756599623517</v>
+        <v>326.5405131063834</v>
       </c>
       <c r="N27" t="n">
         <v>787.4411458615576</v>
       </c>
       <c r="O27" t="n">
-        <v>259.4059463837609</v>
+        <v>653.2682656604904</v>
       </c>
       <c r="P27" t="n">
-        <v>507.1305605044317</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q27" t="n">
         <v>75.69599172340739</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>4.746455731849593</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>32.7938588095877</v>
       </c>
       <c r="K30" t="n">
-        <v>399.4594324460585</v>
+        <v>134.9941954334799</v>
       </c>
       <c r="L30" t="n">
         <v>228.3068006900192</v>
       </c>
       <c r="M30" t="n">
-        <v>285.9756599623517</v>
+        <v>751.6807237123517</v>
       </c>
       <c r="N30" t="n">
-        <v>308.0987715180041</v>
+        <v>787.4411458615576</v>
       </c>
       <c r="O30" t="n">
-        <v>653.2682656604904</v>
+        <v>354.219090394931</v>
       </c>
       <c r="P30" t="n">
-        <v>360.1235299440607</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q30" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R30" t="n">
         <v>4.746455731849593</v>
@@ -37078,7 +37078,7 @@
         <v>773.6632020591065</v>
       </c>
       <c r="N32" t="n">
-        <v>771.4020860075789</v>
+        <v>771.4020860075771</v>
       </c>
       <c r="O32" t="n">
         <v>682.7690368123198</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.7720101949713</v>
+        <v>32.7938588095877</v>
       </c>
       <c r="K33" t="n">
         <v>134.9941954334799</v>
       </c>
       <c r="L33" t="n">
-        <v>228.3068006900192</v>
+        <v>560.5887506099256</v>
       </c>
       <c r="M33" t="n">
         <v>285.9756599623517</v>
       </c>
       <c r="N33" t="n">
-        <v>787.4411458615576</v>
+        <v>308.0987715180041</v>
       </c>
       <c r="O33" t="n">
-        <v>259.4059463837609</v>
+        <v>653.2682656604904</v>
       </c>
       <c r="P33" t="n">
         <v>507.1305605044317</v>
       </c>
       <c r="Q33" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R33" t="n">
-        <v>4.746455731849593</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>86.9751189858751</v>
+        <v>256.0717341579489</v>
       </c>
       <c r="K35" t="n">
         <v>181.6041859174016</v>
@@ -37312,22 +37312,22 @@
         <v>262.570558098347</v>
       </c>
       <c r="M35" t="n">
-        <v>755.090908762478</v>
+        <v>461.667855480402</v>
       </c>
       <c r="N35" t="n">
-        <v>738.2629356801542</v>
+        <v>755.0909087624777</v>
       </c>
       <c r="O35" t="n">
-        <v>301.9688555495744</v>
+        <v>682.7690368123198</v>
       </c>
       <c r="P35" t="n">
-        <v>544.6726442695331</v>
+        <v>222.8739360980504</v>
       </c>
       <c r="Q35" t="n">
         <v>118.7097042001862</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>48.49699193641476</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>399.4594324460585</v>
       </c>
       <c r="L36" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900192</v>
       </c>
       <c r="M36" t="n">
-        <v>285.9756599623517</v>
+        <v>751.6807237123517</v>
       </c>
       <c r="N36" t="n">
-        <v>308.0987715180041</v>
+        <v>622.5355085919987</v>
       </c>
       <c r="O36" t="n">
         <v>259.4059463837609</v>
       </c>
       <c r="P36" t="n">
-        <v>383.1455039173311</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q36" t="n">
-        <v>285.7732794592565</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R36" t="n">
-        <v>4.746455731849593</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>86.9751189858751</v>
       </c>
       <c r="K38" t="n">
-        <v>181.6041859174016</v>
+        <v>505.7495984885663</v>
       </c>
       <c r="L38" t="n">
         <v>680.2317726487975</v>
       </c>
       <c r="M38" t="n">
-        <v>430.0854386412814</v>
+        <v>478.4787813005863</v>
       </c>
       <c r="N38" t="n">
-        <v>755.090908762478</v>
+        <v>334.0551615955929</v>
       </c>
       <c r="O38" t="n">
         <v>301.9688555495744</v>
@@ -37564,7 +37564,7 @@
         <v>331.0246948600908</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>48.49699193641476</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>32.7938588095877</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K39" t="n">
         <v>134.9941954334799</v>
@@ -37631,7 +37631,7 @@
         <v>751.6807237123517</v>
       </c>
       <c r="N39" t="n">
-        <v>308.0987715180041</v>
+        <v>362.3009352555895</v>
       </c>
       <c r="O39" t="n">
         <v>653.2682656604904</v>
@@ -37640,7 +37640,7 @@
         <v>188.6677918644945</v>
       </c>
       <c r="Q39" t="n">
-        <v>255.9891908014016</v>
+        <v>75.69599172340739</v>
       </c>
       <c r="R39" t="n">
         <v>4.746455731849593</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>86.9751189858751</v>
+        <v>256.0717341579489</v>
       </c>
       <c r="K41" t="n">
-        <v>181.6041859174016</v>
+        <v>477.7020704050517</v>
       </c>
       <c r="L41" t="n">
         <v>262.570558098347</v>
       </c>
       <c r="M41" t="n">
-        <v>755.090908762478</v>
+        <v>755.0909087624777</v>
       </c>
       <c r="N41" t="n">
-        <v>755.090908762478</v>
+        <v>334.0551615955929</v>
       </c>
       <c r="O41" t="n">
         <v>301.9688555495744</v>
       </c>
       <c r="P41" t="n">
-        <v>527.8446711872092</v>
+        <v>222.8739360980504</v>
       </c>
       <c r="Q41" t="n">
-        <v>118.7097042001862</v>
+        <v>331.0246948600908</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>48.49699193641476</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>134.9941954334799</v>
       </c>
       <c r="L42" t="n">
-        <v>507.4589326421812</v>
+        <v>599.1471459934784</v>
       </c>
       <c r="M42" t="n">
         <v>285.9756599623517</v>
       </c>
       <c r="N42" t="n">
-        <v>755.090908762478</v>
+        <v>373.1794013066901</v>
       </c>
       <c r="O42" t="n">
-        <v>259.4059463837609</v>
+        <v>653.2682656604904</v>
       </c>
       <c r="P42" t="n">
-        <v>507.1305605044317</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.69599172340739</v>
+        <v>285.7732794592565</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>4.746455731849593</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>308.0987715180041</v>
       </c>
       <c r="O45" t="n">
-        <v>462.9025808982623</v>
+        <v>368.2968312741076</v>
       </c>
       <c r="P45" t="n">
         <v>188.6677918644945</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.1675298351018</v>
+        <v>285.7732794592565</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1625786.972239475</v>
+        <v>1602158.439738307</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5154436.370407495</v>
+        <v>5154436.370407498</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4555989.702958407</v>
+        <v>4555989.702958406</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.29171516770224</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -712,7 +712,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>82.46119763909357</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>51.12024601807692</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>83.58122284458935</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>48.83589518354175</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.55722408766215</v>
+        <v>61.6164265404264</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G8" t="n">
-        <v>190.3453970742847</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>88.95742251506752</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>93.26912801052356</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.120616243357</v>
+        <v>69.80675043588448</v>
       </c>
       <c r="H11" t="n">
         <v>306.8859026411703</v>
       </c>
       <c r="I11" t="n">
-        <v>70.05138440791029</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.0910832060943</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.6409321827494</v>
       </c>
       <c r="H12" t="n">
-        <v>95.79205771467343</v>
+        <v>95.79205771467342</v>
       </c>
       <c r="I12" t="n">
-        <v>30.77693067325394</v>
+        <v>30.77693067325392</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.5249631190347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.4478913812071</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.4732377613744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>308.3700075809571</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>306.8859026411703</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>126.1727532681048</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>30.30963243221099</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>112.5249631190347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>194.5191635134663</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>234.4600444693438</v>
+        <v>242.0207125510855</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.18924267037131</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>50.45133033366034</v>
       </c>
       <c r="T19" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2411717171773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>227.0526323089313</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H20" t="n">
         <v>306.8859026411703</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.166113696923</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0910832060943</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>116.9623858025734</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.1275876548675</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U22" t="n">
         <v>286.2411717171773</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>70.18413475579213</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>273.8420794266306</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>306.8859026411703</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.166113696923</v>
+        <v>148.9846733254917</v>
       </c>
       <c r="U23" t="n">
         <v>251.0910832060943</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>87.80385874297856</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>226.8297022027826</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>412.120616243357</v>
       </c>
       <c r="H26" t="n">
-        <v>197.9941404043194</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>173.0421792014359</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>50.15982611068556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2411717171773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.18924267037118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>306.8859026411703</v>
       </c>
       <c r="I29" t="n">
-        <v>87.79715924018303</v>
+        <v>27.61571886875214</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.166113696923</v>
       </c>
       <c r="U29" t="n">
-        <v>54.40216172906026</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.5249631190347</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.67765837158251</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>87.80385874297858</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>412.120616243357</v>
       </c>
       <c r="H32" t="n">
-        <v>306.8859026411703</v>
+        <v>197.9941404043194</v>
       </c>
       <c r="I32" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T32" t="n">
         <v>209.166113696923</v>
@@ -3088,7 +3088,7 @@
         <v>251.0910832060943</v>
       </c>
       <c r="V32" t="n">
-        <v>267.5708180987041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>24.02463292927834</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>113.1127440363371</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>174.6889870788773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>340.7442470438155</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>412.120616243357</v>
       </c>
       <c r="H35" t="n">
-        <v>77.45389444392822</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0910832060943</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>50.45133033366034</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.5249631190347</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>113.1127440363371</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V37" t="n">
-        <v>70.39895706505857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>387.4932804600837</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>306.8859026411703</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>130.1230148915398</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.18924267037116</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T40" t="n">
         <v>221.8467410153839</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>193.4353981959275</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>293.5010627888867</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.120616243357</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>306.8859026411703</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>18.33537042086859</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>24.64655662808689</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>113.1127440363371</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.08782051502678</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>74.13018985594505</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0910832060943</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>275.5013703673738</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>268.7795396204428</v>
       </c>
       <c r="V46" t="n">
-        <v>128.6386000577633</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>82.15084464790441</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
         <v>20.03527576299844</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>376.8211856297825</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>168.9696854242497</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.9696854242497</v>
+        <v>71.67188790247008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4652,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X6" t="n">
-        <v>411.587349213889</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.827050448935</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>485.4562706347935</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C9" t="n">
-        <v>485.4562706347935</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D9" t="n">
-        <v>485.4562706347935</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E9" t="n">
-        <v>485.4562706347935</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>338.9217126616785</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>200.190887244294</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X9" t="n">
-        <v>485.4562706347935</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y9" t="n">
-        <v>485.4562706347935</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
         <v>41.77557929797318</v>
@@ -5001,13 +5001,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1259.689045635221</v>
+        <v>1587.212441067102</v>
       </c>
       <c r="C11" t="n">
-        <v>1259.689045635221</v>
+        <v>1587.212441067102</v>
       </c>
       <c r="D11" t="n">
-        <v>1259.689045635221</v>
+        <v>1228.946742460352</v>
       </c>
       <c r="E11" t="n">
-        <v>1259.689045635221</v>
+        <v>843.1584898621072</v>
       </c>
       <c r="F11" t="n">
-        <v>848.7031408456137</v>
+        <v>432.1725850724997</v>
       </c>
       <c r="G11" t="n">
-        <v>432.419690094748</v>
+        <v>361.6607159453436</v>
       </c>
       <c r="H11" t="n">
-        <v>122.4339298511416</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="I11" t="n">
         <v>51.67495570173721</v>
       </c>
       <c r="J11" t="n">
-        <v>139.8172898579834</v>
+        <v>307.2229388783365</v>
       </c>
       <c r="K11" t="n">
-        <v>643.5622769065922</v>
+        <v>490.0639674814923</v>
       </c>
       <c r="L11" t="n">
-        <v>907.2945026564566</v>
+        <v>753.7961932313569</v>
       </c>
       <c r="M11" t="n">
-        <v>1232.416857006921</v>
+        <v>1078.918547581822</v>
       </c>
       <c r="N11" t="n">
-        <v>1567.413839334566</v>
+        <v>1413.915529909466</v>
       </c>
       <c r="O11" t="n">
-        <v>1870.406729103085</v>
+        <v>1716.908419677986</v>
       </c>
       <c r="P11" t="n">
-        <v>2253.441611806416</v>
+        <v>2203.92200248321</v>
       </c>
       <c r="Q11" t="n">
-        <v>2583.74778508686</v>
+        <v>2534.228175763655</v>
       </c>
       <c r="R11" t="n">
         <v>2583.74778508686</v>
@@ -5077,16 +5077,16 @@
         <v>2330.120428313028</v>
       </c>
       <c r="V11" t="n">
-        <v>1999.057540969457</v>
+        <v>2330.120428313028</v>
       </c>
       <c r="W11" t="n">
-        <v>1646.288885699343</v>
+        <v>1977.351773042914</v>
       </c>
       <c r="X11" t="n">
-        <v>1646.288885699343</v>
+        <v>1977.351773042914</v>
       </c>
       <c r="Y11" t="n">
-        <v>1646.288885699343</v>
+        <v>1587.212441067102</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>51.67495570173721</v>
       </c>
       <c r="J12" t="n">
-        <v>85.35407913276538</v>
+        <v>85.35407913276543</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0718901331722</v>
+        <v>482.8924747756251</v>
       </c>
       <c r="L12" t="n">
-        <v>449.8837767965196</v>
+        <v>1078.836303289397</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.361353605517</v>
+        <v>1365.205850838325</v>
       </c>
       <c r="N12" t="n">
-        <v>1728.838930414515</v>
+        <v>1673.563393107436</v>
       </c>
       <c r="O12" t="n">
-        <v>2317.936394381161</v>
+        <v>1933.430506549235</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.169596964344</v>
+        <v>2437.941850085956</v>
       </c>
       <c r="Q12" t="n">
         <v>2583.74778508686</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.485293589694</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.5491106617868</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="D13" t="n">
-        <v>779.4324712494511</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="E13" t="n">
-        <v>631.5193776670579</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="F13" t="n">
-        <v>484.6294301691476</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="G13" t="n">
-        <v>316.3833803667472</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="H13" t="n">
-        <v>165.3365346098531</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="I13" t="n">
         <v>51.67495570173721</v>
       </c>
       <c r="J13" t="n">
-        <v>59.15667944162079</v>
+        <v>59.15667944162082</v>
       </c>
       <c r="K13" t="n">
-        <v>201.2882865545547</v>
+        <v>201.2882865545548</v>
       </c>
       <c r="L13" t="n">
-        <v>438.6942440624403</v>
+        <v>438.6942440624405</v>
       </c>
       <c r="M13" t="n">
-        <v>699.3946625775484</v>
+        <v>699.3946625775486</v>
       </c>
       <c r="N13" t="n">
-        <v>959.3308242563066</v>
+        <v>959.330824256307</v>
       </c>
       <c r="O13" t="n">
         <v>1183.407645939065</v>
       </c>
       <c r="P13" t="n">
-        <v>1351.62339512692</v>
+        <v>1351.623395126921</v>
       </c>
       <c r="Q13" t="n">
         <v>1384.65218040112</v>
@@ -5226,25 +5226,25 @@
         <v>1384.65218040112</v>
       </c>
       <c r="S13" t="n">
-        <v>1384.65218040112</v>
+        <v>1183.49957204124</v>
       </c>
       <c r="T13" t="n">
-        <v>1384.65218040112</v>
+        <v>1079.006752464263</v>
       </c>
       <c r="U13" t="n">
-        <v>1384.65218040112</v>
+        <v>789.8742557802452</v>
       </c>
       <c r="V13" t="n">
-        <v>1384.65218040112</v>
+        <v>789.8742557802452</v>
       </c>
       <c r="W13" t="n">
-        <v>1384.65218040112</v>
+        <v>500.4570857432847</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.65218040112</v>
+        <v>272.4675348452673</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.133758419933</v>
+        <v>51.67495570173721</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2197.147945022738</v>
+        <v>1306.095629262509</v>
       </c>
       <c r="C14" t="n">
-        <v>1828.185428082327</v>
+        <v>937.1331123220971</v>
       </c>
       <c r="D14" t="n">
-        <v>1469.919729475576</v>
+        <v>937.1331123220971</v>
       </c>
       <c r="E14" t="n">
-        <v>1084.131476877332</v>
+        <v>551.3448597238529</v>
       </c>
       <c r="F14" t="n">
-        <v>673.1455720877245</v>
+        <v>140.3589549342453</v>
       </c>
       <c r="G14" t="n">
-        <v>361.6607159453436</v>
+        <v>140.3589549342453</v>
       </c>
       <c r="H14" t="n">
-        <v>51.67495570173721</v>
+        <v>140.3589549342453</v>
       </c>
       <c r="I14" t="n">
         <v>51.67495570173721</v>
       </c>
       <c r="J14" t="n">
-        <v>139.8172898579834</v>
+        <v>307.2229388783364</v>
       </c>
       <c r="K14" t="n">
-        <v>322.6583184611391</v>
+        <v>490.0639674814921</v>
       </c>
       <c r="L14" t="n">
-        <v>957.8440844531033</v>
+        <v>753.7961932313565</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.966438803568</v>
+        <v>1078.918547581821</v>
       </c>
       <c r="N14" t="n">
-        <v>1617.963421131212</v>
+        <v>1413.915529909466</v>
       </c>
       <c r="O14" t="n">
-        <v>1920.956310899732</v>
+        <v>1716.908419677985</v>
       </c>
       <c r="P14" t="n">
-        <v>2463.633452559722</v>
+        <v>2203.922002483211</v>
       </c>
       <c r="Q14" t="n">
-        <v>2583.74778508686</v>
+        <v>2534.228175763655</v>
       </c>
       <c r="R14" t="n">
         <v>2583.74778508686</v>
@@ -5311,19 +5311,19 @@
         <v>2583.74778508686</v>
       </c>
       <c r="U14" t="n">
-        <v>2583.74778508686</v>
+        <v>2456.300559563522</v>
       </c>
       <c r="V14" t="n">
-        <v>2583.74778508686</v>
+        <v>2456.300559563522</v>
       </c>
       <c r="W14" t="n">
-        <v>2583.74778508686</v>
+        <v>2456.300559563522</v>
       </c>
       <c r="X14" t="n">
-        <v>2583.74778508686</v>
+        <v>2082.834801302442</v>
       </c>
       <c r="Y14" t="n">
-        <v>2583.74778508686</v>
+        <v>1692.69546932663</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>945.6929132496322</v>
+        <v>945.6929132496325</v>
       </c>
       <c r="C15" t="n">
-        <v>771.2398839685052</v>
+        <v>771.2398839685055</v>
       </c>
       <c r="D15" t="n">
-        <v>622.3054743072539</v>
+        <v>622.3054743072541</v>
       </c>
       <c r="E15" t="n">
-        <v>463.0680193017985</v>
+        <v>463.0680193017986</v>
       </c>
       <c r="F15" t="n">
-        <v>316.5334613286835</v>
+        <v>316.5334613286836</v>
       </c>
       <c r="G15" t="n">
-        <v>179.5224187198457</v>
+        <v>179.522418719846</v>
       </c>
       <c r="H15" t="n">
         <v>82.76276446259978</v>
@@ -5372,28 +5372,28 @@
         <v>1431.261576244016</v>
       </c>
       <c r="O15" t="n">
-        <v>1794.681738569132</v>
+        <v>1789.185472215446</v>
       </c>
       <c r="P15" t="n">
-        <v>2299.193082105853</v>
+        <v>2293.696815752166</v>
       </c>
       <c r="Q15" t="n">
-        <v>2583.747785086859</v>
+        <v>2578.251518733173</v>
       </c>
       <c r="R15" t="n">
-        <v>2583.747785086859</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="S15" t="n">
-        <v>2442.274651915578</v>
+        <v>2442.274651915579</v>
       </c>
       <c r="T15" t="n">
-        <v>2247.019988857916</v>
+        <v>2247.019988857917</v>
       </c>
       <c r="U15" t="n">
-        <v>2018.909514200131</v>
+        <v>2018.909514200132</v>
       </c>
       <c r="V15" t="n">
-        <v>1783.757405968388</v>
+        <v>1783.757405968389</v>
       </c>
       <c r="W15" t="n">
         <v>1529.520049240187</v>
@@ -5402,7 +5402,7 @@
         <v>1321.668549034654</v>
       </c>
       <c r="Y15" t="n">
-        <v>1113.9082502697</v>
+        <v>1113.908250269701</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.21113642735</v>
+        <v>496.5946361943764</v>
       </c>
       <c r="C16" t="n">
-        <v>813.2749534994431</v>
+        <v>496.5946361943764</v>
       </c>
       <c r="D16" t="n">
-        <v>663.1583140871073</v>
+        <v>346.4779967820407</v>
       </c>
       <c r="E16" t="n">
-        <v>515.2452205047142</v>
+        <v>198.5649031996476</v>
       </c>
       <c r="F16" t="n">
-        <v>484.6294301691476</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="G16" t="n">
-        <v>316.3833803667472</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="H16" t="n">
-        <v>165.3365346098531</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="I16" t="n">
         <v>51.67495570173721</v>
@@ -5469,19 +5469,19 @@
         <v>1384.65218040112</v>
       </c>
       <c r="U16" t="n">
-        <v>1384.65218040112</v>
+        <v>1095.519683717102</v>
       </c>
       <c r="V16" t="n">
-        <v>1384.65218040112</v>
+        <v>1095.519683717102</v>
       </c>
       <c r="W16" t="n">
-        <v>1384.65218040112</v>
+        <v>1095.519683717102</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.65218040112</v>
+        <v>899.0356801681463</v>
       </c>
       <c r="Y16" t="n">
-        <v>1163.85960125759</v>
+        <v>678.2431010246162</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1454.239957776813</v>
+        <v>1820.142694849969</v>
       </c>
       <c r="C17" t="n">
-        <v>1085.277440836401</v>
+        <v>1451.180177909557</v>
       </c>
       <c r="D17" t="n">
-        <v>1085.277440836401</v>
+        <v>1092.914479302807</v>
       </c>
       <c r="E17" t="n">
-        <v>699.4891882381567</v>
+        <v>707.1262267045624</v>
       </c>
       <c r="F17" t="n">
-        <v>288.5032834485491</v>
+        <v>296.1403219149549</v>
       </c>
       <c r="G17" t="n">
         <v>51.67495570173721</v>
@@ -5518,25 +5518,25 @@
         <v>139.8172898579834</v>
       </c>
       <c r="K17" t="n">
-        <v>643.5622769065922</v>
+        <v>434.4004086267278</v>
       </c>
       <c r="L17" t="n">
-        <v>907.2945026564566</v>
+        <v>698.1326343765923</v>
       </c>
       <c r="M17" t="n">
-        <v>1232.416857006921</v>
+        <v>1023.254988727057</v>
       </c>
       <c r="N17" t="n">
-        <v>1567.413839334566</v>
+        <v>1358.251971054701</v>
       </c>
       <c r="O17" t="n">
-        <v>1870.406729103085</v>
+        <v>1661.244860823221</v>
       </c>
       <c r="P17" t="n">
-        <v>2413.083870763076</v>
+        <v>2203.922002483211</v>
       </c>
       <c r="Q17" t="n">
-        <v>2583.74778508686</v>
+        <v>2534.228175763655</v>
       </c>
       <c r="R17" t="n">
         <v>2583.74778508686</v>
@@ -5554,13 +5554,13 @@
         <v>2583.74778508686</v>
       </c>
       <c r="W17" t="n">
-        <v>2230.979129816746</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="X17" t="n">
-        <v>2230.979129816746</v>
+        <v>2210.282026825781</v>
       </c>
       <c r="Y17" t="n">
-        <v>1840.839797840934</v>
+        <v>1820.142694849969</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>51.67495570173721</v>
       </c>
       <c r="J18" t="n">
-        <v>85.35407913276538</v>
+        <v>210.1842041197701</v>
       </c>
       <c r="K18" t="n">
-        <v>482.892474775625</v>
+        <v>607.7225997626298</v>
       </c>
       <c r="L18" t="n">
-        <v>1078.836303289397</v>
+        <v>836.5344864259771</v>
       </c>
       <c r="M18" t="n">
-        <v>1365.205850838324</v>
+        <v>1122.904033974904</v>
       </c>
       <c r="N18" t="n">
-        <v>1673.563393107435</v>
+        <v>1431.261576244016</v>
       </c>
       <c r="O18" t="n">
-        <v>1933.430506549234</v>
+        <v>1794.681738569132</v>
       </c>
       <c r="P18" t="n">
-        <v>2437.941850085954</v>
+        <v>2299.193082105853</v>
       </c>
       <c r="Q18" t="n">
         <v>2583.747785086859</v>
@@ -5700,25 +5700,25 @@
         <v>1384.65218040112</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.65218040112</v>
+        <v>1333.69124067015</v>
       </c>
       <c r="T19" t="n">
-        <v>1160.564563213863</v>
+        <v>1333.69124067015</v>
       </c>
       <c r="U19" t="n">
-        <v>871.4320665298458</v>
+        <v>1044.558743986132</v>
       </c>
       <c r="V19" t="n">
-        <v>616.7475783239589</v>
+        <v>789.8742557802452</v>
       </c>
       <c r="W19" t="n">
-        <v>327.3304082869983</v>
+        <v>500.4570857432847</v>
       </c>
       <c r="X19" t="n">
-        <v>99.34085738898096</v>
+        <v>272.4675348452673</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.34085738898096</v>
+        <v>51.67495570173721</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1141.609137675363</v>
+        <v>1454.239957776813</v>
       </c>
       <c r="C20" t="n">
-        <v>772.6466207349512</v>
+        <v>1224.893864535468</v>
       </c>
       <c r="D20" t="n">
-        <v>772.6466207349512</v>
+        <v>866.6281659287174</v>
       </c>
       <c r="E20" t="n">
-        <v>772.6466207349512</v>
+        <v>866.6281659287174</v>
       </c>
       <c r="F20" t="n">
-        <v>361.6607159453436</v>
+        <v>866.6281659287174</v>
       </c>
       <c r="G20" t="n">
-        <v>361.6607159453436</v>
+        <v>450.3447151778518</v>
       </c>
       <c r="H20" t="n">
-        <v>51.67495570173721</v>
+        <v>140.3589549342453</v>
       </c>
       <c r="I20" t="n">
         <v>51.67495570173721</v>
       </c>
       <c r="J20" t="n">
-        <v>139.8172898579834</v>
+        <v>307.2229388783364</v>
       </c>
       <c r="K20" t="n">
-        <v>322.6583184611391</v>
+        <v>490.0639674814921</v>
       </c>
       <c r="L20" t="n">
-        <v>939.9401185023921</v>
+        <v>753.7961932313565</v>
       </c>
       <c r="M20" t="n">
-        <v>1265.062472852857</v>
+        <v>1078.918547581821</v>
       </c>
       <c r="N20" t="n">
-        <v>1600.059455180502</v>
+        <v>1413.915529909466</v>
       </c>
       <c r="O20" t="n">
-        <v>2239.5370319895</v>
+        <v>1716.908419677985</v>
       </c>
       <c r="P20" t="n">
-        <v>2463.633452559722</v>
+        <v>2203.922002483211</v>
       </c>
       <c r="Q20" t="n">
-        <v>2583.74778508686</v>
+        <v>2534.228175763655</v>
       </c>
       <c r="R20" t="n">
         <v>2583.74778508686</v>
       </c>
       <c r="S20" t="n">
-        <v>2445.861440535746</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="T20" t="n">
-        <v>2234.582537811581</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="U20" t="n">
-        <v>1980.955181037749</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="V20" t="n">
-        <v>1649.892293694178</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="W20" t="n">
-        <v>1531.748469651175</v>
+        <v>2230.979129816746</v>
       </c>
       <c r="X20" t="n">
-        <v>1531.748469651175</v>
+        <v>2230.979129816746</v>
       </c>
       <c r="Y20" t="n">
-        <v>1141.609137675363</v>
+        <v>1840.839797840934</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>51.67495570173721</v>
       </c>
       <c r="J21" t="n">
-        <v>85.35407913276538</v>
+        <v>210.1842041197701</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0718901331722</v>
+        <v>607.7225997626298</v>
       </c>
       <c r="L21" t="n">
-        <v>817.015718646944</v>
+        <v>940.087535309295</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.385266195871</v>
+        <v>1226.457082858222</v>
       </c>
       <c r="N21" t="n">
-        <v>1411.742808464983</v>
+        <v>1534.814625127334</v>
       </c>
       <c r="O21" t="n">
-        <v>2002.658253427623</v>
+        <v>1794.681738569132</v>
       </c>
       <c r="P21" t="n">
-        <v>2507.169596964343</v>
+        <v>2299.193082105853</v>
       </c>
       <c r="Q21" t="n">
         <v>2583.747785086859</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>367.5010861275545</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="C22" t="n">
-        <v>198.5649031996476</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="D22" t="n">
-        <v>198.5649031996476</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="E22" t="n">
-        <v>198.5649031996476</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="F22" t="n">
         <v>51.67495570173721</v>
@@ -5937,25 +5937,25 @@
         <v>1384.65218040112</v>
       </c>
       <c r="S22" t="n">
-        <v>1384.65218040112</v>
+        <v>1268.361687820445</v>
       </c>
       <c r="T22" t="n">
-        <v>1384.65218040112</v>
+        <v>1044.274070633189</v>
       </c>
       <c r="U22" t="n">
-        <v>1095.519683717102</v>
+        <v>755.1415739491715</v>
       </c>
       <c r="V22" t="n">
-        <v>840.8351955112154</v>
+        <v>500.4570857432847</v>
       </c>
       <c r="W22" t="n">
-        <v>840.8351955112154</v>
+        <v>500.4570857432847</v>
       </c>
       <c r="X22" t="n">
-        <v>769.9421301013243</v>
+        <v>272.4675348452673</v>
       </c>
       <c r="Y22" t="n">
-        <v>549.1495509577942</v>
+        <v>51.67495570173721</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2343.68197131451</v>
+        <v>2432.365970547018</v>
       </c>
       <c r="C23" t="n">
-        <v>1974.719454374098</v>
+        <v>2063.403453606606</v>
       </c>
       <c r="D23" t="n">
-        <v>1616.453755767348</v>
+        <v>1705.137754999856</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.665503169104</v>
+        <v>1319.349502401612</v>
       </c>
       <c r="F23" t="n">
-        <v>819.6795983794962</v>
+        <v>908.3635976120042</v>
       </c>
       <c r="G23" t="n">
-        <v>403.3961476286304</v>
+        <v>492.0801468611385</v>
       </c>
       <c r="H23" t="n">
-        <v>93.41038738502397</v>
+        <v>182.0943866175321</v>
       </c>
       <c r="I23" t="n">
-        <v>93.41038738502397</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="J23" t="n">
-        <v>348.9583705616242</v>
+        <v>348.9583705616232</v>
       </c>
       <c r="K23" t="n">
-        <v>852.7033576102335</v>
+        <v>852.7033576102319</v>
       </c>
       <c r="L23" t="n">
-        <v>1529.920185765044</v>
+        <v>1529.920185765042</v>
       </c>
       <c r="M23" t="n">
-        <v>2300.060938273413</v>
+        <v>2300.060938273411</v>
       </c>
       <c r="N23" t="n">
-        <v>3068.031375768922</v>
+        <v>3068.03137576892</v>
       </c>
       <c r="O23" t="n">
-        <v>3748.016444987559</v>
+        <v>3748.016444987557</v>
       </c>
       <c r="P23" t="n">
-        <v>4290.693586647549</v>
+        <v>4290.693586647548</v>
       </c>
       <c r="Q23" t="n">
-        <v>4620.999759927992</v>
+        <v>4620.999759927991</v>
       </c>
       <c r="R23" t="n">
         <v>4670.519369251198</v>
       </c>
       <c r="S23" t="n">
-        <v>4532.633024700084</v>
+        <v>4670.519369251198</v>
       </c>
       <c r="T23" t="n">
-        <v>4321.35412197592</v>
+        <v>4520.029800235549</v>
       </c>
       <c r="U23" t="n">
-        <v>4067.726765202087</v>
+        <v>4266.402443461717</v>
       </c>
       <c r="V23" t="n">
-        <v>3736.663877858517</v>
+        <v>3935.339556118146</v>
       </c>
       <c r="W23" t="n">
-        <v>3383.895222588402</v>
+        <v>3582.570900848032</v>
       </c>
       <c r="X23" t="n">
-        <v>3010.429464327322</v>
+        <v>3209.105142586952</v>
       </c>
       <c r="Y23" t="n">
-        <v>2620.290132351511</v>
+        <v>2818.96581061114</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>664.0409059905408</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8034509850853</v>
+        <v>504.8034509850852</v>
       </c>
       <c r="F24" t="n">
         <v>358.2688930119702</v>
@@ -6065,28 +6065,28 @@
         <v>124.4981961458865</v>
       </c>
       <c r="I24" t="n">
-        <v>93.41038738502397</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="J24" t="n">
-        <v>127.0895108160521</v>
+        <v>251.9196358030568</v>
       </c>
       <c r="K24" t="n">
-        <v>262.807321816459</v>
+        <v>649.4580314459165</v>
       </c>
       <c r="L24" t="n">
-        <v>491.6192084798063</v>
+        <v>981.8229669925821</v>
       </c>
       <c r="M24" t="n">
-        <v>926.9745236694574</v>
+        <v>1268.192514541509</v>
       </c>
       <c r="N24" t="n">
-        <v>1709.881016538687</v>
+        <v>1576.550056810621</v>
       </c>
       <c r="O24" t="n">
-        <v>2359.671826064447</v>
+        <v>1836.417170252419</v>
       </c>
       <c r="P24" t="n">
-        <v>2548.90502864763</v>
+        <v>2340.92851378914</v>
       </c>
       <c r="Q24" t="n">
         <v>2625.483216770147</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>243.5270267973597</v>
+        <v>795.9570172126191</v>
       </c>
       <c r="C25" t="n">
-        <v>243.5270267973597</v>
+        <v>627.0208342847122</v>
       </c>
       <c r="D25" t="n">
-        <v>93.41038738502397</v>
+        <v>476.9041948723765</v>
       </c>
       <c r="E25" t="n">
-        <v>93.41038738502397</v>
+        <v>328.9911012899834</v>
       </c>
       <c r="F25" t="n">
-        <v>93.41038738502397</v>
+        <v>182.101153792073</v>
       </c>
       <c r="G25" t="n">
-        <v>93.41038738502397</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="H25" t="n">
-        <v>93.41038738502397</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="I25" t="n">
-        <v>93.41038738502397</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="J25" t="n">
         <v>100.8921111249075</v>
@@ -6180,19 +6180,19 @@
         <v>1426.387612084406</v>
       </c>
       <c r="U25" t="n">
-        <v>1197.266700768464</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="V25" t="n">
-        <v>942.5822125625773</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="W25" t="n">
-        <v>653.1650425256167</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="X25" t="n">
-        <v>425.1754916275994</v>
+        <v>1198.398061186389</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.1754916275994</v>
+        <v>977.6054820428589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2233.690292287388</v>
+        <v>2432.365970547018</v>
       </c>
       <c r="C26" t="n">
-        <v>1864.727775346976</v>
+        <v>2063.403453606606</v>
       </c>
       <c r="D26" t="n">
-        <v>1506.462076740226</v>
+        <v>1705.137754999856</v>
       </c>
       <c r="E26" t="n">
-        <v>1120.673824141981</v>
+        <v>1319.349502401612</v>
       </c>
       <c r="F26" t="n">
-        <v>709.6879193523739</v>
+        <v>908.3635976120042</v>
       </c>
       <c r="G26" t="n">
-        <v>293.4044686015082</v>
+        <v>492.0801468611385</v>
       </c>
       <c r="H26" t="n">
-        <v>93.41038738502395</v>
+        <v>182.0943866175321</v>
       </c>
       <c r="I26" t="n">
-        <v>93.41038738502395</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="J26" t="n">
-        <v>348.9583705616232</v>
+        <v>348.9583705616242</v>
       </c>
       <c r="K26" t="n">
-        <v>852.7033576102319</v>
+        <v>852.7033576102335</v>
       </c>
       <c r="L26" t="n">
-        <v>1529.920185765042</v>
+        <v>1529.920185765044</v>
       </c>
       <c r="M26" t="n">
-        <v>2300.060938273411</v>
+        <v>2300.060938273413</v>
       </c>
       <c r="N26" t="n">
-        <v>3068.03137576892</v>
+        <v>3068.031375768922</v>
       </c>
       <c r="O26" t="n">
-        <v>3748.016444987557</v>
+        <v>3748.016444987559</v>
       </c>
       <c r="P26" t="n">
-        <v>4290.693586647548</v>
+        <v>4290.693586647549</v>
       </c>
       <c r="Q26" t="n">
-        <v>4620.999759927991</v>
+        <v>4620.999759927992</v>
       </c>
       <c r="R26" t="n">
         <v>4670.519369251198</v>
       </c>
       <c r="S26" t="n">
-        <v>4532.633024700083</v>
+        <v>4532.633024700084</v>
       </c>
       <c r="T26" t="n">
-        <v>4321.354121975919</v>
+        <v>4321.35412197592</v>
       </c>
       <c r="U26" t="n">
-        <v>4067.726765202086</v>
+        <v>4067.726765202087</v>
       </c>
       <c r="V26" t="n">
-        <v>3736.663877858516</v>
+        <v>3736.663877858517</v>
       </c>
       <c r="W26" t="n">
-        <v>3383.895222588401</v>
+        <v>3383.895222588402</v>
       </c>
       <c r="X26" t="n">
-        <v>3010.429464327322</v>
+        <v>3209.105142586952</v>
       </c>
       <c r="Y26" t="n">
-        <v>2620.29013235151</v>
+        <v>2818.96581061114</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>664.0409059905408</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8034509850852</v>
+        <v>504.8034509850853</v>
       </c>
       <c r="F27" t="n">
         <v>358.2688930119702</v>
@@ -6302,7 +6302,7 @@
         <v>124.4981961458865</v>
       </c>
       <c r="I27" t="n">
-        <v>93.41038738502395</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="J27" t="n">
         <v>127.0895108160521</v>
@@ -6311,16 +6311,16 @@
         <v>262.807321816459</v>
       </c>
       <c r="L27" t="n">
-        <v>491.6192084798063</v>
+        <v>858.7511503302308</v>
       </c>
       <c r="M27" t="n">
-        <v>1239.036769141233</v>
+        <v>1145.120697879158</v>
       </c>
       <c r="N27" t="n">
-        <v>2021.943262010463</v>
+        <v>1453.478240148269</v>
       </c>
       <c r="O27" t="n">
-        <v>2359.671826064447</v>
+        <v>2103.26904967403</v>
       </c>
       <c r="P27" t="n">
         <v>2548.90502864763</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.41038738502395</v>
+        <v>593.1534571575414</v>
       </c>
       <c r="C28" t="n">
-        <v>93.41038738502395</v>
+        <v>593.1534571575414</v>
       </c>
       <c r="D28" t="n">
-        <v>93.41038738502395</v>
+        <v>443.0368177452057</v>
       </c>
       <c r="E28" t="n">
-        <v>93.41038738502395</v>
+        <v>295.1237241628126</v>
       </c>
       <c r="F28" t="n">
-        <v>93.41038738502395</v>
+        <v>295.1237241628126</v>
       </c>
       <c r="G28" t="n">
-        <v>93.41038738502395</v>
+        <v>295.1237241628126</v>
       </c>
       <c r="H28" t="n">
-        <v>93.41038738502395</v>
+        <v>144.0768784059185</v>
       </c>
       <c r="I28" t="n">
-        <v>93.41038738502395</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="J28" t="n">
         <v>100.8921111249075</v>
@@ -6414,22 +6414,22 @@
         <v>1426.387612084406</v>
       </c>
       <c r="T28" t="n">
-        <v>1202.29999489715</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="U28" t="n">
-        <v>913.1674982131324</v>
+        <v>1137.255115400389</v>
       </c>
       <c r="V28" t="n">
-        <v>658.4830100072455</v>
+        <v>882.570627194502</v>
       </c>
       <c r="W28" t="n">
-        <v>369.0658399702849</v>
+        <v>593.1534571575414</v>
       </c>
       <c r="X28" t="n">
-        <v>141.0762890722676</v>
+        <v>593.1534571575414</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.41038738502395</v>
+        <v>593.1534571575414</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2432.365970547018</v>
+        <v>2371.576636838502</v>
       </c>
       <c r="C29" t="n">
-        <v>2063.403453606606</v>
+        <v>2002.61411989809</v>
       </c>
       <c r="D29" t="n">
-        <v>1705.137754999856</v>
+        <v>1644.34842129134</v>
       </c>
       <c r="E29" t="n">
-        <v>1319.349502401612</v>
+        <v>1258.560168693096</v>
       </c>
       <c r="F29" t="n">
-        <v>908.3635976120042</v>
+        <v>847.5742639034881</v>
       </c>
       <c r="G29" t="n">
-        <v>492.0801468611385</v>
+        <v>431.2908131526224</v>
       </c>
       <c r="H29" t="n">
-        <v>182.0943866175321</v>
+        <v>121.305052909016</v>
       </c>
       <c r="I29" t="n">
         <v>93.41038738502395</v>
       </c>
       <c r="J29" t="n">
-        <v>348.9583705616225</v>
+        <v>348.9583705616232</v>
       </c>
       <c r="K29" t="n">
-        <v>852.7033576102313</v>
+        <v>852.7033576102319</v>
       </c>
       <c r="L29" t="n">
         <v>1529.920185765042</v>
@@ -6481,7 +6481,7 @@
         <v>3748.016444987557</v>
       </c>
       <c r="P29" t="n">
-        <v>4290.693586647547</v>
+        <v>4290.693586647548</v>
       </c>
       <c r="Q29" t="n">
         <v>4620.999759927991</v>
@@ -6490,25 +6490,25 @@
         <v>4670.519369251198</v>
       </c>
       <c r="S29" t="n">
-        <v>4532.633024700083</v>
+        <v>4670.519369251198</v>
       </c>
       <c r="T29" t="n">
-        <v>4321.354121975919</v>
+        <v>4459.240466527033</v>
       </c>
       <c r="U29" t="n">
-        <v>4266.402443461717</v>
+        <v>4205.613109753201</v>
       </c>
       <c r="V29" t="n">
-        <v>3935.339556118146</v>
+        <v>3874.55022240963</v>
       </c>
       <c r="W29" t="n">
-        <v>3582.570900848032</v>
+        <v>3521.781567139516</v>
       </c>
       <c r="X29" t="n">
-        <v>3209.105142586952</v>
+        <v>3148.315808878436</v>
       </c>
       <c r="Y29" t="n">
-        <v>2818.96581061114</v>
+        <v>2758.176476902624</v>
       </c>
     </row>
     <row r="30">
@@ -6542,10 +6542,10 @@
         <v>93.41038738502395</v>
       </c>
       <c r="J30" t="n">
-        <v>127.0895108160521</v>
+        <v>204.9509614282383</v>
       </c>
       <c r="K30" t="n">
-        <v>262.807321816459</v>
+        <v>340.6687724286452</v>
       </c>
       <c r="L30" t="n">
         <v>569.4806590919925</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>843.2141383627343</v>
+        <v>707.2662508055701</v>
       </c>
       <c r="C31" t="n">
-        <v>674.2779554348274</v>
+        <v>538.3300678776632</v>
       </c>
       <c r="D31" t="n">
-        <v>674.2779554348274</v>
+        <v>388.2134284653274</v>
       </c>
       <c r="E31" t="n">
-        <v>526.3648618524343</v>
+        <v>240.3003348829343</v>
       </c>
       <c r="F31" t="n">
-        <v>526.3648618524343</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="G31" t="n">
-        <v>358.1188120500339</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="H31" t="n">
-        <v>207.0719662931398</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="I31" t="n">
         <v>93.41038738502395</v>
@@ -6645,28 +6645,28 @@
         <v>1426.387612084406</v>
       </c>
       <c r="R31" t="n">
-        <v>1333.783916759576</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="S31" t="n">
-        <v>1132.631308399695</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="T31" t="n">
-        <v>1132.631308399695</v>
+        <v>1337.696845677357</v>
       </c>
       <c r="U31" t="n">
-        <v>1132.631308399695</v>
+        <v>1337.696845677357</v>
       </c>
       <c r="V31" t="n">
-        <v>1132.631308399695</v>
+        <v>1337.696845677357</v>
       </c>
       <c r="W31" t="n">
-        <v>843.2141383627343</v>
+        <v>1337.696845677357</v>
       </c>
       <c r="X31" t="n">
-        <v>843.2141383627343</v>
+        <v>1109.70729477934</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.2141383627343</v>
+        <v>888.9147156358098</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2432.365970547018</v>
+        <v>2233.690292287388</v>
       </c>
       <c r="C32" t="n">
-        <v>2063.403453606606</v>
+        <v>1864.727775346976</v>
       </c>
       <c r="D32" t="n">
-        <v>1705.137754999856</v>
+        <v>1506.462076740226</v>
       </c>
       <c r="E32" t="n">
-        <v>1319.349502401612</v>
+        <v>1120.673824141981</v>
       </c>
       <c r="F32" t="n">
-        <v>908.3635976120042</v>
+        <v>709.6879193523739</v>
       </c>
       <c r="G32" t="n">
-        <v>492.0801468611385</v>
+        <v>293.4044686015082</v>
       </c>
       <c r="H32" t="n">
-        <v>182.0943866175321</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="I32" t="n">
         <v>93.41038738502395</v>
@@ -6703,7 +6703,7 @@
         <v>348.9583705616232</v>
       </c>
       <c r="K32" t="n">
-        <v>852.7033576102319</v>
+        <v>852.7033576102313</v>
       </c>
       <c r="L32" t="n">
         <v>1529.920185765042</v>
@@ -6727,25 +6727,25 @@
         <v>4670.519369251198</v>
       </c>
       <c r="S32" t="n">
-        <v>4670.519369251198</v>
+        <v>4532.633024700083</v>
       </c>
       <c r="T32" t="n">
-        <v>4459.240466527033</v>
+        <v>4321.354121975919</v>
       </c>
       <c r="U32" t="n">
-        <v>4205.613109753201</v>
+        <v>4067.726765202086</v>
       </c>
       <c r="V32" t="n">
-        <v>3935.339556118146</v>
+        <v>3736.663877858516</v>
       </c>
       <c r="W32" t="n">
-        <v>3582.570900848032</v>
+        <v>3383.895222588401</v>
       </c>
       <c r="X32" t="n">
-        <v>3209.105142586952</v>
+        <v>3010.429464327322</v>
       </c>
       <c r="Y32" t="n">
-        <v>2818.96581061114</v>
+        <v>2620.29013235151</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>127.0895108160521</v>
       </c>
       <c r="K33" t="n">
-        <v>262.807321816459</v>
+        <v>524.6279064589118</v>
       </c>
       <c r="L33" t="n">
-        <v>858.7511503302308</v>
+        <v>1120.571734972684</v>
       </c>
       <c r="M33" t="n">
-        <v>1401.523474269575</v>
+        <v>1406.941282521611</v>
       </c>
       <c r="N33" t="n">
-        <v>1709.881016538687</v>
+        <v>1715.298824790722</v>
       </c>
       <c r="O33" t="n">
-        <v>2359.671826064447</v>
+        <v>1975.165938232521</v>
       </c>
       <c r="P33" t="n">
-        <v>2548.90502864763</v>
+        <v>2479.677281769241</v>
       </c>
       <c r="Q33" t="n">
         <v>2625.483216770147</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>261.6564371874243</v>
+        <v>433.5038238000112</v>
       </c>
       <c r="C34" t="n">
-        <v>261.6564371874243</v>
+        <v>264.5676408721043</v>
       </c>
       <c r="D34" t="n">
-        <v>261.6564371874243</v>
+        <v>264.5676408721043</v>
       </c>
       <c r="E34" t="n">
-        <v>261.6564371874243</v>
+        <v>240.3003348829343</v>
       </c>
       <c r="F34" t="n">
-        <v>261.6564371874243</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="G34" t="n">
         <v>93.41038738502395</v>
@@ -6882,28 +6882,28 @@
         <v>1426.387612084406</v>
       </c>
       <c r="R34" t="n">
-        <v>1312.132315078005</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="S34" t="n">
-        <v>1110.979706718125</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="T34" t="n">
-        <v>886.8920895308681</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="U34" t="n">
-        <v>710.4385672289718</v>
+        <v>1426.387612084406</v>
       </c>
       <c r="V34" t="n">
-        <v>710.4385672289718</v>
+        <v>1171.703123878519</v>
       </c>
       <c r="W34" t="n">
-        <v>710.4385672289718</v>
+        <v>882.2859538415587</v>
       </c>
       <c r="X34" t="n">
-        <v>482.4490163309545</v>
+        <v>654.2964029435414</v>
       </c>
       <c r="Y34" t="n">
-        <v>261.6564371874243</v>
+        <v>433.5038238000112</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2079.538655493448</v>
+        <v>1959.700254006201</v>
       </c>
       <c r="C35" t="n">
-        <v>1710.576138553036</v>
+        <v>1590.737737065789</v>
       </c>
       <c r="D35" t="n">
-        <v>1352.310439946286</v>
+        <v>1232.472038459039</v>
       </c>
       <c r="E35" t="n">
-        <v>966.5221873480416</v>
+        <v>888.2859303339727</v>
       </c>
       <c r="F35" t="n">
-        <v>555.5362825584341</v>
+        <v>477.3000255443652</v>
       </c>
       <c r="G35" t="n">
-        <v>139.2528318075684</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="H35" t="n">
         <v>61.01657479349947</v>
@@ -6940,25 +6940,25 @@
         <v>316.5645579700987</v>
       </c>
       <c r="K35" t="n">
-        <v>499.4055865732544</v>
+        <v>820.3095450187075</v>
       </c>
       <c r="L35" t="n">
-        <v>763.1378123231189</v>
+        <v>1084.041770768572</v>
       </c>
       <c r="M35" t="n">
-        <v>1490.33594331517</v>
+        <v>1409.164125119037</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.332925642814</v>
+        <v>1744.161107446681</v>
       </c>
       <c r="O35" t="n">
-        <v>2128.325815411334</v>
+        <v>2177.845424734539</v>
       </c>
       <c r="P35" t="n">
-        <v>2671.002957071324</v>
+        <v>2720.522566394529</v>
       </c>
       <c r="Q35" t="n">
-        <v>3001.309130351768</v>
+        <v>3050.828739674973</v>
       </c>
       <c r="R35" t="n">
         <v>3050.828739674973</v>
@@ -6970,19 +6970,19 @@
         <v>3050.828739674973</v>
       </c>
       <c r="U35" t="n">
-        <v>2797.201382901141</v>
+        <v>3050.828739674973</v>
       </c>
       <c r="V35" t="n">
-        <v>2466.13849555757</v>
+        <v>2719.765852331403</v>
       </c>
       <c r="W35" t="n">
-        <v>2466.13849555757</v>
+        <v>2719.765852331403</v>
       </c>
       <c r="X35" t="n">
-        <v>2466.13849555757</v>
+        <v>2346.300094070323</v>
       </c>
       <c r="Y35" t="n">
-        <v>2466.13849555757</v>
+        <v>2346.300094070323</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>94.69569822452763</v>
       </c>
       <c r="K36" t="n">
-        <v>230.4135092249345</v>
+        <v>492.2340938673873</v>
       </c>
       <c r="L36" t="n">
-        <v>459.2253958882818</v>
+        <v>721.0459805307346</v>
       </c>
       <c r="M36" t="n">
-        <v>922.4070908776062</v>
+        <v>1007.415528079662</v>
       </c>
       <c r="N36" t="n">
-        <v>1677.487203947162</v>
+        <v>1752.132759077587</v>
       </c>
       <c r="O36" t="n">
-        <v>2327.278013472923</v>
+        <v>2011.999872519385</v>
       </c>
       <c r="P36" t="n">
         <v>2516.511216056106</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>493.9710492609098</v>
+        <v>111.9775145244695</v>
       </c>
       <c r="C37" t="n">
-        <v>493.9710492609098</v>
+        <v>111.9775145244695</v>
       </c>
       <c r="D37" t="n">
-        <v>493.9710492609098</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="E37" t="n">
-        <v>493.9710492609098</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="F37" t="n">
-        <v>493.9710492609098</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="G37" t="n">
-        <v>325.7249994585094</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="H37" t="n">
-        <v>174.6781537016154</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="I37" t="n">
         <v>61.01657479349947</v>
@@ -7119,28 +7119,28 @@
         <v>1393.993799492882</v>
       </c>
       <c r="R37" t="n">
-        <v>1279.738502486481</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="S37" t="n">
-        <v>1078.5858941266</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="T37" t="n">
-        <v>854.4982769393437</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="U37" t="n">
-        <v>854.4982769393437</v>
+        <v>1104.861302808864</v>
       </c>
       <c r="V37" t="n">
-        <v>783.3882192978704</v>
+        <v>850.1768146029775</v>
       </c>
       <c r="W37" t="n">
-        <v>493.9710492609098</v>
+        <v>560.759644566017</v>
       </c>
       <c r="X37" t="n">
-        <v>493.9710492609098</v>
+        <v>332.7700936679996</v>
       </c>
       <c r="Y37" t="n">
-        <v>493.9710492609098</v>
+        <v>111.9775145244695</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1900.62380937396</v>
+        <v>1673.702946961022</v>
       </c>
       <c r="C38" t="n">
-        <v>1531.661292433548</v>
+        <v>1304.74043002061</v>
       </c>
       <c r="D38" t="n">
-        <v>1173.395593826798</v>
+        <v>946.4747314138594</v>
       </c>
       <c r="E38" t="n">
-        <v>1173.395593826798</v>
+        <v>560.6864788156151</v>
       </c>
       <c r="F38" t="n">
-        <v>762.4096890371904</v>
+        <v>149.7005740260076</v>
       </c>
       <c r="G38" t="n">
-        <v>371.0023350371059</v>
+        <v>149.7005740260076</v>
       </c>
       <c r="H38" t="n">
-        <v>61.01657479349947</v>
+        <v>149.7005740260076</v>
       </c>
       <c r="I38" t="n">
         <v>61.01657479349947</v>
       </c>
       <c r="J38" t="n">
-        <v>149.1589089497457</v>
+        <v>316.5645579700987</v>
       </c>
       <c r="K38" t="n">
-        <v>331.9999375529014</v>
+        <v>499.4055865732544</v>
       </c>
       <c r="L38" t="n">
-        <v>998.4132502678922</v>
+        <v>763.1378123231189</v>
       </c>
       <c r="M38" t="n">
-        <v>1323.535604618357</v>
+        <v>1518.217925392675</v>
       </c>
       <c r="N38" t="n">
-        <v>1658.532586946002</v>
+        <v>2273.298038462231</v>
       </c>
       <c r="O38" t="n">
-        <v>2338.517656164639</v>
+        <v>2706.617986577613</v>
       </c>
       <c r="P38" t="n">
-        <v>2881.194797824629</v>
+        <v>2930.714407147835</v>
       </c>
       <c r="Q38" t="n">
-        <v>3001.309130351768</v>
+        <v>3050.828739674973</v>
       </c>
       <c r="R38" t="n">
         <v>3050.828739674973</v>
       </c>
       <c r="S38" t="n">
-        <v>3050.828739674973</v>
+        <v>2912.942395123859</v>
       </c>
       <c r="T38" t="n">
-        <v>3050.828739674973</v>
+        <v>2912.942395123859</v>
       </c>
       <c r="U38" t="n">
-        <v>3050.828739674973</v>
+        <v>2912.942395123859</v>
       </c>
       <c r="V38" t="n">
-        <v>3050.828739674973</v>
+        <v>2581.879507780288</v>
       </c>
       <c r="W38" t="n">
-        <v>3050.828739674973</v>
+        <v>2450.442119000955</v>
       </c>
       <c r="X38" t="n">
-        <v>2677.362981413894</v>
+        <v>2450.442119000955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2287.223649438082</v>
+        <v>2060.302787025144</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>230.4135092249345</v>
       </c>
       <c r="L39" t="n">
-        <v>459.2253958882818</v>
+        <v>767.4819731755857</v>
       </c>
       <c r="M39" t="n">
-        <v>1206.642956549709</v>
+        <v>1053.851520724513</v>
       </c>
       <c r="N39" t="n">
-        <v>1961.723069619265</v>
+        <v>1362.209062993624</v>
       </c>
       <c r="O39" t="n">
-        <v>2327.278013472923</v>
+        <v>2011.999872519385</v>
       </c>
       <c r="P39" t="n">
         <v>2516.511216056106</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.01657479349947</v>
+        <v>229.2626245958999</v>
       </c>
       <c r="C40" t="n">
-        <v>61.01657479349947</v>
+        <v>229.2626245958999</v>
       </c>
       <c r="D40" t="n">
-        <v>61.01657479349947</v>
+        <v>229.2626245958999</v>
       </c>
       <c r="E40" t="n">
-        <v>61.01657479349947</v>
+        <v>229.2626245958999</v>
       </c>
       <c r="F40" t="n">
-        <v>61.01657479349947</v>
+        <v>229.2626245958999</v>
       </c>
       <c r="G40" t="n">
         <v>61.01657479349947</v>
@@ -7359,25 +7359,25 @@
         <v>1393.993799492882</v>
       </c>
       <c r="S40" t="n">
-        <v>1346.327897805638</v>
+        <v>1192.841191133001</v>
       </c>
       <c r="T40" t="n">
-        <v>1122.240280618382</v>
+        <v>968.7535739457448</v>
       </c>
       <c r="U40" t="n">
-        <v>833.1077839343642</v>
+        <v>968.7535739457448</v>
       </c>
       <c r="V40" t="n">
-        <v>578.4232957284773</v>
+        <v>714.069085739858</v>
       </c>
       <c r="W40" t="n">
-        <v>289.0061256915168</v>
+        <v>424.6519157028974</v>
       </c>
       <c r="X40" t="n">
-        <v>61.01657479349947</v>
+        <v>424.6519157028974</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.01657479349947</v>
+        <v>229.2626245958999</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1198.271690577579</v>
+        <v>1215.41789741114</v>
       </c>
       <c r="C41" t="n">
-        <v>1198.271690577579</v>
+        <v>1215.41789741114</v>
       </c>
       <c r="D41" t="n">
-        <v>1198.271690577579</v>
+        <v>857.1521988043896</v>
       </c>
       <c r="E41" t="n">
-        <v>1198.271690577579</v>
+        <v>560.6864788156151</v>
       </c>
       <c r="F41" t="n">
-        <v>787.2857857879716</v>
+        <v>149.7005740260076</v>
       </c>
       <c r="G41" t="n">
-        <v>371.0023350371059</v>
+        <v>149.7005740260076</v>
       </c>
       <c r="H41" t="n">
-        <v>61.01657479349947</v>
+        <v>149.7005740260076</v>
       </c>
       <c r="I41" t="n">
         <v>61.01657479349947</v>
@@ -7417,19 +7417,19 @@
         <v>331.9999375529014</v>
       </c>
       <c r="L41" t="n">
-        <v>1009.216765707712</v>
+        <v>595.7321633027658</v>
       </c>
       <c r="M41" t="n">
-        <v>1334.339120058177</v>
+        <v>1350.812276372322</v>
       </c>
       <c r="N41" t="n">
-        <v>2026.632917358975</v>
+        <v>2105.892389441878</v>
       </c>
       <c r="O41" t="n">
-        <v>2706.617986577613</v>
+        <v>2408.885279210397</v>
       </c>
       <c r="P41" t="n">
-        <v>2930.714407147835</v>
+        <v>2720.522566394529</v>
       </c>
       <c r="Q41" t="n">
         <v>3050.828739674973</v>
@@ -7438,25 +7438,25 @@
         <v>3050.828739674973</v>
       </c>
       <c r="S41" t="n">
-        <v>3050.828739674973</v>
+        <v>2912.942395123859</v>
       </c>
       <c r="T41" t="n">
-        <v>3050.828739674973</v>
+        <v>2912.942395123859</v>
       </c>
       <c r="U41" t="n">
-        <v>3032.308163492278</v>
+        <v>2659.315038350026</v>
       </c>
       <c r="V41" t="n">
-        <v>2701.245276148707</v>
+        <v>2328.252151006456</v>
       </c>
       <c r="W41" t="n">
-        <v>2348.476620878593</v>
+        <v>1975.483495736342</v>
       </c>
       <c r="X41" t="n">
-        <v>1975.010862617513</v>
+        <v>1602.017737475262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1584.871530641701</v>
+        <v>1602.017737475262</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>61.01657479349947</v>
       </c>
       <c r="J42" t="n">
-        <v>94.69569822452763</v>
+        <v>219.5258232115324</v>
       </c>
       <c r="K42" t="n">
-        <v>230.4135092249345</v>
+        <v>355.2436342119393</v>
       </c>
       <c r="L42" t="n">
-        <v>459.2253958882818</v>
+        <v>584.0555208752866</v>
       </c>
       <c r="M42" t="n">
-        <v>922.4070908776062</v>
+        <v>1098.85800574939</v>
       </c>
       <c r="N42" t="n">
-        <v>1677.487203947162</v>
+        <v>1853.938118818946</v>
       </c>
       <c r="O42" t="n">
-        <v>2327.278013472923</v>
+        <v>2113.805232260745</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.511216056106</v>
+        <v>2303.038434843928</v>
       </c>
       <c r="Q42" t="n">
-        <v>2593.089404178622</v>
+        <v>2587.593137824935</v>
       </c>
       <c r="R42" t="n">
         <v>2593.089404178622</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.01657479349947</v>
+        <v>721.1240522640779</v>
       </c>
       <c r="C43" t="n">
-        <v>61.01657479349947</v>
+        <v>552.187869336171</v>
       </c>
       <c r="D43" t="n">
-        <v>61.01657479349947</v>
+        <v>402.0712299238353</v>
       </c>
       <c r="E43" t="n">
-        <v>61.01657479349947</v>
+        <v>254.1581363414422</v>
       </c>
       <c r="F43" t="n">
-        <v>61.01657479349947</v>
+        <v>254.1581363414422</v>
       </c>
       <c r="G43" t="n">
-        <v>61.01657479349947</v>
+        <v>85.91208653904178</v>
       </c>
       <c r="H43" t="n">
         <v>61.01657479349947</v>
@@ -7593,28 +7593,28 @@
         <v>1393.993799492882</v>
       </c>
       <c r="R43" t="n">
-        <v>1279.738502486481</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="S43" t="n">
-        <v>1078.5858941266</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="T43" t="n">
-        <v>1078.5858941266</v>
+        <v>1169.906182305625</v>
       </c>
       <c r="U43" t="n">
-        <v>789.4533974425826</v>
+        <v>1169.906182305625</v>
       </c>
       <c r="V43" t="n">
-        <v>760.0717605587172</v>
+        <v>1169.906182305625</v>
       </c>
       <c r="W43" t="n">
-        <v>470.6545905217565</v>
+        <v>1169.906182305625</v>
       </c>
       <c r="X43" t="n">
-        <v>242.6650396237392</v>
+        <v>941.9166314076081</v>
       </c>
       <c r="Y43" t="n">
-        <v>242.6650396237392</v>
+        <v>721.1240522640779</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>888.2859303339727</v>
+        <v>1643.036699872629</v>
       </c>
       <c r="C44" t="n">
-        <v>888.2859303339727</v>
+        <v>1274.074182932217</v>
       </c>
       <c r="D44" t="n">
-        <v>888.2859303339727</v>
+        <v>1274.074182932217</v>
       </c>
       <c r="E44" t="n">
         <v>888.2859303339727</v>
@@ -7648,28 +7648,28 @@
         <v>61.01657479349947</v>
       </c>
       <c r="J44" t="n">
-        <v>149.1589089497457</v>
+        <v>316.5645579700987</v>
       </c>
       <c r="K44" t="n">
-        <v>331.9999375529014</v>
+        <v>499.4055865732544</v>
       </c>
       <c r="L44" t="n">
-        <v>595.7321633027658</v>
+        <v>1176.622414728065</v>
       </c>
       <c r="M44" t="n">
-        <v>920.8545176532305</v>
+        <v>1501.74476907853</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.860355515902</v>
+        <v>2035.52476639612</v>
       </c>
       <c r="O44" t="n">
-        <v>2177.845424734539</v>
+        <v>2338.517656164639</v>
       </c>
       <c r="P44" t="n">
-        <v>2720.522566394529</v>
+        <v>2881.194797824629</v>
       </c>
       <c r="Q44" t="n">
-        <v>3050.828739674973</v>
+        <v>3001.309130351768</v>
       </c>
       <c r="R44" t="n">
         <v>3050.828739674973</v>
@@ -7678,22 +7678,22 @@
         <v>3050.828739674973</v>
       </c>
       <c r="T44" t="n">
-        <v>2975.949760022504</v>
+        <v>3050.828739674973</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.322403248671</v>
+        <v>3050.828739674973</v>
       </c>
       <c r="V44" t="n">
-        <v>2391.2595159051</v>
+        <v>2772.544527182677</v>
       </c>
       <c r="W44" t="n">
-        <v>2038.490860634986</v>
+        <v>2419.775871912562</v>
       </c>
       <c r="X44" t="n">
-        <v>1665.025102373906</v>
+        <v>2419.775871912562</v>
       </c>
       <c r="Y44" t="n">
-        <v>1274.885770398095</v>
+        <v>2029.63653993675</v>
       </c>
     </row>
     <row r="45">
@@ -7742,7 +7742,7 @@
         <v>1961.723069619265</v>
       </c>
       <c r="O45" t="n">
-        <v>2327.278013472923</v>
+        <v>2221.590183061064</v>
       </c>
       <c r="P45" t="n">
         <v>2516.511216056106</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>229.9527577214064</v>
+        <v>490.8372970864089</v>
       </c>
       <c r="C46" t="n">
-        <v>61.01657479349947</v>
+        <v>490.8372970864089</v>
       </c>
       <c r="D46" t="n">
-        <v>61.01657479349947</v>
+        <v>490.8372970864089</v>
       </c>
       <c r="E46" t="n">
-        <v>61.01657479349947</v>
+        <v>342.9242035040157</v>
       </c>
       <c r="F46" t="n">
-        <v>61.01657479349947</v>
+        <v>342.9242035040157</v>
       </c>
       <c r="G46" t="n">
-        <v>61.01657479349947</v>
+        <v>174.6781537016154</v>
       </c>
       <c r="H46" t="n">
-        <v>61.01657479349947</v>
+        <v>174.6781537016154</v>
       </c>
       <c r="I46" t="n">
         <v>61.01657479349947</v>
@@ -7839,19 +7839,19 @@
         <v>1279.738502486481</v>
       </c>
       <c r="U46" t="n">
-        <v>1279.738502486481</v>
+        <v>1008.244018021387</v>
       </c>
       <c r="V46" t="n">
-        <v>1149.800522630154</v>
+        <v>1008.244018021387</v>
       </c>
       <c r="W46" t="n">
-        <v>860.3833525931935</v>
+        <v>718.8268479844262</v>
       </c>
       <c r="X46" t="n">
-        <v>632.3938016951762</v>
+        <v>490.8372970864089</v>
       </c>
       <c r="Y46" t="n">
-        <v>411.6012225516461</v>
+        <v>490.8372970864089</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>160.5439011445544</v>
+        <v>265.5728911464668</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>15.69661247580484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>356.6747770303745</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4646813534208</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>332.5559096210579</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>69.92701704887716</v>
       </c>
       <c r="R12" t="n">
-        <v>39.96988561567741</v>
+        <v>39.96988561567738</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>375.2055962041412</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>265.572891146468</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>15.69661247580484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>104.5990392760786</v>
+        <v>99.04725508043595</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>39.96988561567741</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>112.8707981470593</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.06018363297611</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>15.69661247580484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>104.5990392760786</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.92701704887767</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>39.96988561567741</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>357.1207821125137</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>339.8835222631097</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>265.572891146468</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>15.69661247580484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>104.5990392760788</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>334.3922540614562</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>39.96988561567741</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>104.5990392760791</v>
       </c>
       <c r="M24" t="n">
-        <v>150.4906743845696</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>39.96988561567741</v>
@@ -9959,19 +9959,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>78.64792991129917</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>258.9927034246642</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>78.64792991129919</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>78.64792991129923</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571164</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>258.9927034246641</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>69.92701704887767</v>
       </c>
       <c r="R33" t="n">
         <v>39.96988561567741</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>406.1371481228146</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>132.011542948827</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>15.69661247580484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>178.5981287276738</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>451.234920000449</v>
+        <v>440.7673623523368</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>406.7485726920468</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>434.3007663829204</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>424.3263946887993</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>131.6434932796593</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>15.69661247580484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>311.3702800881858</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>451.2349200004491</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>106.7553842544033</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>434.3007663829204</v>
       </c>
       <c r="N41" t="n">
-        <v>360.9058737102566</v>
+        <v>424.3263946887993</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>88.42511779182831</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>15.69661247580484</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>178.5981287276738</v>
+        <v>230.7403407325017</v>
       </c>
       <c r="N42" t="n">
         <v>451.234920000449</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>39.96988561567741</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>244.4533894293202</v>
+        <v>200.7909242322683</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>15.69661247580484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>451.2349200004491</v>
       </c>
       <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>106.7553842544033</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>342.3138658074726</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17.74577483227274</v>
+        <v>87.79715924018299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>136.5074811056033</v>
+        <v>136.5074811056032</v>
       </c>
       <c r="T11" t="n">
         <v>209.166113696923</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S13" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.8467410153839</v>
+        <v>118.3988496341768</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.1114155907204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>103.7506086623999</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I14" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>209.166113696923</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0910832060943</v>
+        <v>124.9183299379895</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115.1114155907203</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>221.8467410153839</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>31.19049187557081</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>177.6605717740132</v>
+        <v>170.0999036922715</v>
       </c>
       <c r="H17" t="n">
         <v>306.8859026411703</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.642737511566</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S19" t="n">
-        <v>199.1410822762817</v>
+        <v>148.6897519426213</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>138.2202594620763</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.120616243357</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.166113696923</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>232.2785829148397</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.5635893043764</v>
@@ -24177,10 +24177,10 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S22" t="n">
-        <v>199.1410822762817</v>
+        <v>84.01349462141415</v>
       </c>
       <c r="T22" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>155.525520633245</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>108.89176223685</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>60.18144037143134</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5635893043764</v>
+        <v>78.7597305613978</v>
       </c>
       <c r="H25" t="n">
         <v>149.5363772993251</v>
@@ -24420,19 +24420,19 @@
         <v>221.8467410153839</v>
       </c>
       <c r="U25" t="n">
-        <v>59.41146951439464</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>108.891762236851</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>196.6889214770331</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.5635893043764</v>
       </c>
       <c r="H28" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.5249631190347</v>
+        <v>62.36513700834917</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>199.1410822762817</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.3954106817236</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>60.1814403714309</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>196.688921477034</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.43508566475458</v>
+        <v>113.1127440363371</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T31" t="n">
-        <v>221.8467410153839</v>
+        <v>134.0428822724054</v>
       </c>
       <c r="U31" t="n">
         <v>286.2411717171773</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>108.891762236851</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>60.18144037143082</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>122.4093297172908</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H34" t="n">
         <v>149.5363772993251</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>113.1127440363371</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U34" t="n">
-        <v>111.5521846382999</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>41.18612302844627</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>229.4320081972421</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I35" t="n">
         <v>87.79715924018303</v>
@@ -25210,7 +25210,7 @@
         <v>209.166113696923</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>98.16414268455202</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>113.1127440363371</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>181.7386862587694</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>24.62733578327328</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I38" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.166113696923</v>
@@ -25450,13 +25450,13 @@
         <v>251.0910832060943</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>219.1179538258733</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>149.5363772993251</v>
@@ -25599,13 +25599,13 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S40" t="n">
-        <v>151.9518396059105</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>25.14925515616727</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>88.42930728337507</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I41" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.166113696923</v>
       </c>
       <c r="U41" t="n">
-        <v>232.7557127852257</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.5363772993251</v>
+        <v>124.8898206712382</v>
       </c>
       <c r="I43" t="n">
         <v>112.5249631190347</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>113.1127440363371</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T43" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V43" t="n">
-        <v>223.0498228088012</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>136.5074811056033</v>
       </c>
       <c r="T44" t="n">
-        <v>135.0359238409779</v>
+        <v>209.166113696923</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>52.25088810276111</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>149.5363772993251</v>
       </c>
       <c r="I46" t="n">
-        <v>112.5249631190347</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>221.8467410153839</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2411717171773</v>
+        <v>17.46163209673443</v>
       </c>
       <c r="V46" t="n">
-        <v>123.4990432660647</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677187.9156609647</v>
+        <v>677187.9156609646</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>887428.2849152476</v>
+        <v>887428.2849152475</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>887428.2849152473</v>
+        <v>887428.2849152476</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>887428.2849152475</v>
+        <v>887428.2849152476</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724245.9037558008</v>
+        <v>724245.9037558009</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724245.9037558008</v>
+        <v>724245.9037558007</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724245.9037558007</v>
+        <v>724245.9037558009</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724245.9037558008</v>
+        <v>724245.9037558009</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>407316.9644420487</v>
+        <v>407316.9644420489</v>
       </c>
       <c r="F2" t="n">
         <v>407316.9644420488</v>
@@ -26334,28 +26334,28 @@
         <v>407316.9644420487</v>
       </c>
       <c r="I2" t="n">
-        <v>516097.9589901277</v>
+        <v>516097.9589901275</v>
       </c>
       <c r="J2" t="n">
         <v>516097.9589901277</v>
       </c>
       <c r="K2" t="n">
-        <v>516097.9589901275</v>
+        <v>516097.9589901277</v>
       </c>
       <c r="L2" t="n">
-        <v>516097.9589901275</v>
+        <v>516097.9589901274</v>
       </c>
       <c r="M2" t="n">
-        <v>431665.3555933054</v>
+        <v>431665.3555933055</v>
       </c>
       <c r="N2" t="n">
-        <v>431665.3555933056</v>
+        <v>431665.3555933055</v>
       </c>
       <c r="O2" t="n">
-        <v>431665.3555933054</v>
+        <v>431665.3555933055</v>
       </c>
       <c r="P2" t="n">
-        <v>431665.3555933055</v>
+        <v>431665.3555933053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>756836.7840068375</v>
+        <v>756836.7840068378</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>138729.0966081412</v>
+        <v>138729.0966081411</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
+        <v>29014.45697837502</v>
+      </c>
+      <c r="F4" t="n">
         <v>29014.45697837505</v>
       </c>
-      <c r="F4" t="n">
-        <v>29014.45697837504</v>
-      </c>
       <c r="G4" t="n">
-        <v>29014.45697837504</v>
+        <v>29014.45697837505</v>
       </c>
       <c r="H4" t="n">
-        <v>29014.45697837504</v>
+        <v>29014.45697837505</v>
       </c>
       <c r="I4" t="n">
         <v>66257.66385467994</v>
@@ -26444,19 +26444,19 @@
         <v>66257.66385467994</v>
       </c>
       <c r="K4" t="n">
+        <v>66257.66385467994</v>
+      </c>
+      <c r="L4" t="n">
         <v>66257.66385467992</v>
       </c>
-      <c r="L4" t="n">
-        <v>66257.66385467994</v>
-      </c>
       <c r="M4" t="n">
+        <v>37350.58382221131</v>
+      </c>
+      <c r="N4" t="n">
         <v>37350.58382221132</v>
       </c>
-      <c r="N4" t="n">
-        <v>37350.5838222113</v>
-      </c>
       <c r="O4" t="n">
-        <v>37350.5838222113</v>
+        <v>37350.58382221131</v>
       </c>
       <c r="P4" t="n">
         <v>37350.58382221131</v>
@@ -26490,10 +26490,10 @@
         <v>56528.81445985464</v>
       </c>
       <c r="I5" t="n">
+        <v>88247.74253915256</v>
+      </c>
+      <c r="J5" t="n">
         <v>88247.74253915258</v>
-      </c>
-      <c r="J5" t="n">
-        <v>88247.74253915256</v>
       </c>
       <c r="K5" t="n">
         <v>88247.74253915256</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70719.22708617261</v>
+        <v>70719.22708617273</v>
       </c>
       <c r="C6" t="n">
-        <v>151488.6586177204</v>
+        <v>151488.6586177203</v>
       </c>
       <c r="D6" t="n">
-        <v>151488.6586177203</v>
+        <v>151488.6586177205</v>
       </c>
       <c r="E6" t="n">
-        <v>-435063.0910030184</v>
+        <v>-440503.321751772</v>
       </c>
       <c r="F6" t="n">
-        <v>321773.6930038191</v>
+        <v>316333.4622550657</v>
       </c>
       <c r="G6" t="n">
-        <v>321773.693003819</v>
+        <v>316333.4622550656</v>
       </c>
       <c r="H6" t="n">
-        <v>321773.6930038191</v>
+        <v>316333.4622550657</v>
       </c>
       <c r="I6" t="n">
-        <v>222863.455988154</v>
+        <v>221452.1509634034</v>
       </c>
       <c r="J6" t="n">
-        <v>298532.609997189</v>
+        <v>297121.3049724384</v>
       </c>
       <c r="K6" t="n">
-        <v>361592.552596295</v>
+        <v>360181.2475715447</v>
       </c>
       <c r="L6" t="n">
-        <v>361592.552596295</v>
+        <v>360181.2475715444</v>
       </c>
       <c r="M6" t="n">
-        <v>330686.3268015001</v>
+        <v>326147.8883176082</v>
       </c>
       <c r="N6" t="n">
-        <v>330686.3268015003</v>
+        <v>326147.8883176082</v>
       </c>
       <c r="O6" t="n">
-        <v>330686.3268015002</v>
+        <v>326147.8883176082</v>
       </c>
       <c r="P6" t="n">
-        <v>330686.3268015002</v>
+        <v>326147.888317608</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>791.5526663547872</v>
+        <v>791.5526663547874</v>
       </c>
       <c r="F3" t="n">
         <v>791.5526663547872</v>
@@ -26810,10 +26810,10 @@
         <v>645.9369462717151</v>
       </c>
       <c r="I4" t="n">
+        <v>1167.629842312799</v>
+      </c>
+      <c r="J4" t="n">
         <v>1167.6298423128</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1167.629842312799</v>
       </c>
       <c r="K4" t="n">
         <v>1167.629842312799</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>791.5526663547872</v>
+        <v>791.5526663547874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>521.6928960410843</v>
+        <v>521.6928960410842</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>289.1830869480649</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>140.6346519250378</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>115.4129376317904</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27511,22 +27511,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>168.1137603163303</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>337.4020434725118</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.97595956220519</v>
+        <v>104.9167571094409</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,13 +27706,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G8" t="n">
-        <v>224.9573404408503</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>23.27802172142894</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,13 +27988,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>158.425855150396</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28031,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>47.2544399028796</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.182121271778036</v>
+        <v>3.182121271778037</v>
       </c>
       <c r="H11" t="n">
-        <v>32.58889947459683</v>
+        <v>32.58889947459684</v>
       </c>
       <c r="I11" t="n">
         <v>122.6787303302229</v>
       </c>
       <c r="J11" t="n">
-        <v>270.0785652905714</v>
+        <v>270.0785652905715</v>
       </c>
       <c r="K11" t="n">
-        <v>404.7777587249358</v>
+        <v>404.7777587249359</v>
       </c>
       <c r="L11" t="n">
-        <v>502.1626025961129</v>
+        <v>502.1626025961131</v>
       </c>
       <c r="M11" t="n">
-        <v>558.7526517630956</v>
+        <v>558.7526517630957</v>
       </c>
       <c r="N11" t="n">
-        <v>567.7938538265349</v>
+        <v>567.7938538265352</v>
       </c>
       <c r="O11" t="n">
-        <v>536.1516354302921</v>
+        <v>536.1516354302922</v>
       </c>
       <c r="P11" t="n">
-        <v>457.5930165332717</v>
+        <v>457.5930165332719</v>
       </c>
       <c r="Q11" t="n">
-        <v>343.6332984877207</v>
+        <v>343.6332984877208</v>
       </c>
       <c r="R11" t="n">
         <v>199.8889253383273</v>
       </c>
       <c r="S11" t="n">
-        <v>72.51258848064208</v>
+        <v>72.51258848064211</v>
       </c>
       <c r="T11" t="n">
-        <v>13.92973586720836</v>
+        <v>13.92973586720837</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2545697017422429</v>
+        <v>0.254569701742243</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>16.44338652182304</v>
       </c>
       <c r="I12" t="n">
-        <v>58.61970217816114</v>
+        <v>58.61970217816116</v>
       </c>
       <c r="J12" t="n">
-        <v>160.8569432636648</v>
+        <v>160.8569432636649</v>
       </c>
       <c r="K12" t="n">
         <v>274.930136954568</v>
       </c>
       <c r="L12" t="n">
-        <v>369.6774976216391</v>
+        <v>369.6774976216392</v>
       </c>
       <c r="M12" t="n">
-        <v>431.396203163359</v>
+        <v>431.3962031633591</v>
       </c>
       <c r="N12" t="n">
-        <v>442.8139770016276</v>
+        <v>442.8139770016278</v>
       </c>
       <c r="O12" t="n">
-        <v>405.0882782240391</v>
+        <v>405.0882782240392</v>
       </c>
       <c r="P12" t="n">
-        <v>325.1190564882522</v>
+        <v>325.1190564882523</v>
       </c>
       <c r="Q12" t="n">
         <v>217.3334792602805</v>
       </c>
       <c r="R12" t="n">
-        <v>105.7096183482865</v>
+        <v>105.7096183482866</v>
       </c>
       <c r="S12" t="n">
-        <v>31.62476926426907</v>
+        <v>31.62476926426908</v>
       </c>
       <c r="T12" t="n">
-        <v>6.862612267736313</v>
+        <v>6.862612267736315</v>
       </c>
       <c r="U12" t="n">
         <v>0.1120121697671869</v>
@@ -31916,43 +31916,43 @@
         <v>12.69079520811447</v>
       </c>
       <c r="I13" t="n">
-        <v>42.92551180822355</v>
+        <v>42.92551180822356</v>
       </c>
       <c r="J13" t="n">
         <v>100.9164768236259</v>
       </c>
       <c r="K13" t="n">
-        <v>165.8367717379373</v>
+        <v>165.8367717379374</v>
       </c>
       <c r="L13" t="n">
         <v>212.2139722223966</v>
       </c>
       <c r="M13" t="n">
-        <v>223.7498791140261</v>
+        <v>223.7498791140262</v>
       </c>
       <c r="N13" t="n">
-        <v>218.4296070942646</v>
+        <v>218.4296070942647</v>
       </c>
       <c r="O13" t="n">
         <v>201.7550960079383</v>
       </c>
       <c r="P13" t="n">
-        <v>172.6363389046571</v>
+        <v>172.6363389046572</v>
       </c>
       <c r="Q13" t="n">
         <v>119.5244526195729</v>
       </c>
       <c r="R13" t="n">
-        <v>64.18064734083239</v>
+        <v>64.18064734083241</v>
       </c>
       <c r="S13" t="n">
         <v>24.8755157606906</v>
       </c>
       <c r="T13" t="n">
-        <v>6.098848412897539</v>
+        <v>6.09884841289754</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07785763931358571</v>
+        <v>0.07785763931358573</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>89.03266076388508</v>
+        <v>258.129275935959</v>
       </c>
       <c r="K11" t="n">
-        <v>508.83332025112</v>
+        <v>184.6879076799553</v>
       </c>
       <c r="L11" t="n">
-        <v>266.3961876261257</v>
+        <v>266.3961876261259</v>
       </c>
       <c r="M11" t="n">
-        <v>328.4064185358229</v>
+        <v>328.406418535823</v>
       </c>
       <c r="N11" t="n">
-        <v>338.380790229944</v>
+        <v>338.3807902299442</v>
       </c>
       <c r="O11" t="n">
-        <v>306.0534240086054</v>
+        <v>306.0534240086055</v>
       </c>
       <c r="P11" t="n">
-        <v>386.9039219225566</v>
+        <v>491.9329119244691</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.6425992731759</v>
+        <v>333.642599273176</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>50.01980739717766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.01931659699815</v>
+        <v>34.01931659699821</v>
       </c>
       <c r="K12" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L12" t="n">
-        <v>231.123117841765</v>
+        <v>601.9634631452242</v>
       </c>
       <c r="M12" t="n">
-        <v>645.9369462717151</v>
+        <v>289.2621692413408</v>
       </c>
       <c r="N12" t="n">
-        <v>645.9369462717151</v>
+        <v>311.4722649182945</v>
       </c>
       <c r="O12" t="n">
-        <v>595.0479434006526</v>
+        <v>262.4920337795947</v>
       </c>
       <c r="P12" t="n">
-        <v>191.1446490739219</v>
+        <v>509.6074177138592</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.35170517425897</v>
+        <v>147.2787222231362</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.55729670695311</v>
+        <v>7.557296706953139</v>
       </c>
       <c r="K13" t="n">
         <v>143.5672799120545</v>
       </c>
       <c r="L13" t="n">
-        <v>239.8039974827127</v>
+        <v>239.8039974827128</v>
       </c>
       <c r="M13" t="n">
         <v>263.3337560758667</v>
       </c>
       <c r="N13" t="n">
-        <v>262.5617794734932</v>
+        <v>262.5617794734933</v>
       </c>
       <c r="O13" t="n">
         <v>226.340223921978</v>
@@ -35588,7 +35588,7 @@
         <v>169.9148981695506</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.36240936787848</v>
+        <v>33.36240936787851</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>89.03266076388508</v>
+        <v>258.1292759359588</v>
       </c>
       <c r="K14" t="n">
         <v>184.6879076799552</v>
       </c>
       <c r="L14" t="n">
-        <v>641.6017838302669</v>
+        <v>266.3961876261257</v>
       </c>
       <c r="M14" t="n">
         <v>328.4064185358229</v>
@@ -35664,13 +35664,13 @@
         <v>306.0534240086054</v>
       </c>
       <c r="P14" t="n">
-        <v>548.1587289494848</v>
+        <v>491.9329119244702</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.3276086132712</v>
+        <v>333.6425992731759</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>50.0198073971776</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O15" t="n">
-        <v>367.0910730556732</v>
+        <v>361.5392888600306</v>
       </c>
       <c r="P15" t="n">
         <v>509.6074177138591</v>
@@ -35749,7 +35749,7 @@
         <v>287.428992910108</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>5.551784195643407</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>89.03266076388508</v>
       </c>
       <c r="K17" t="n">
-        <v>508.83332025112</v>
+        <v>297.5587058270145</v>
       </c>
       <c r="L17" t="n">
         <v>266.3961876261257</v>
@@ -35904,10 +35904,10 @@
         <v>548.1587289494848</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.3877922462473</v>
+        <v>333.6425992731759</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>50.0198073971776</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.01931659699815</v>
+        <v>160.110351937407</v>
       </c>
       <c r="K18" t="n">
         <v>401.5539349927876</v>
       </c>
       <c r="L18" t="n">
-        <v>601.9634631452241</v>
+        <v>231.123117841765</v>
       </c>
       <c r="M18" t="n">
         <v>289.2621692413406</v>
@@ -35977,13 +35977,13 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O18" t="n">
-        <v>262.4920337795946</v>
+        <v>367.0910730556732</v>
       </c>
       <c r="P18" t="n">
         <v>509.6074177138591</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.2787222231366</v>
+        <v>287.428992910108</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.03266076388508</v>
+        <v>258.1292759359588</v>
       </c>
       <c r="K20" t="n">
         <v>184.6879076799552</v>
       </c>
       <c r="L20" t="n">
-        <v>623.5169697386394</v>
+        <v>266.3961876261257</v>
       </c>
       <c r="M20" t="n">
         <v>328.4064185358229</v>
@@ -36135,16 +36135,16 @@
         <v>338.380790229944</v>
       </c>
       <c r="O20" t="n">
-        <v>645.9369462717151</v>
+        <v>306.0534240086054</v>
       </c>
       <c r="P20" t="n">
-        <v>226.3600207780022</v>
+        <v>491.9329119244702</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.3276086132712</v>
+        <v>333.6425992731759</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>50.0198073971776</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.01931659699815</v>
+        <v>160.110351937407</v>
       </c>
       <c r="K21" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L21" t="n">
-        <v>601.9634631452241</v>
+        <v>335.7221571178437</v>
       </c>
       <c r="M21" t="n">
         <v>289.2621692413406</v>
@@ -36214,13 +36214,13 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O21" t="n">
-        <v>596.8842878410509</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P21" t="n">
         <v>509.6074177138591</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.35170517425897</v>
+        <v>287.428992910108</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.01931659699815</v>
+        <v>160.110351937407</v>
       </c>
       <c r="K24" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L24" t="n">
-        <v>231.123117841765</v>
+        <v>335.7221571178441</v>
       </c>
       <c r="M24" t="n">
-        <v>439.7528436259102</v>
+        <v>289.2621692413406</v>
       </c>
       <c r="N24" t="n">
-        <v>790.8146392618478</v>
+        <v>311.4722649182943</v>
       </c>
       <c r="O24" t="n">
-        <v>656.3543530563242</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P24" t="n">
-        <v>191.1446490739219</v>
+        <v>509.6074177138591</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.35170517425897</v>
+        <v>287.428992910108</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>137.088697980209</v>
       </c>
       <c r="L27" t="n">
-        <v>231.123117841765</v>
+        <v>601.9634631452241</v>
       </c>
       <c r="M27" t="n">
-        <v>754.9672329913406</v>
+        <v>289.2621692413406</v>
       </c>
       <c r="N27" t="n">
-        <v>790.8146392618478</v>
+        <v>311.4722649182943</v>
       </c>
       <c r="O27" t="n">
-        <v>341.1399636908938</v>
+        <v>656.3543530563242</v>
       </c>
       <c r="P27" t="n">
-        <v>191.1446490739219</v>
+        <v>450.1373524985861</v>
       </c>
       <c r="Q27" t="n">
         <v>77.35170517425897</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.1292759359581</v>
+        <v>258.1292759359588</v>
       </c>
       <c r="K29" t="n">
         <v>508.83332025112</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.01931659699815</v>
+        <v>112.6672465082973</v>
       </c>
       <c r="K30" t="n">
         <v>137.088697980209</v>
       </c>
       <c r="L30" t="n">
-        <v>309.7710477530642</v>
+        <v>231.123117841765</v>
       </c>
       <c r="M30" t="n">
         <v>754.9672329913406</v>
@@ -37071,7 +37071,7 @@
         <v>258.1292759359588</v>
       </c>
       <c r="K32" t="n">
-        <v>508.83332025112</v>
+        <v>508.8333202511192</v>
       </c>
       <c r="L32" t="n">
         <v>684.0574021765761</v>
@@ -37086,7 +37086,7 @@
         <v>686.8536052713507</v>
       </c>
       <c r="P32" t="n">
-        <v>548.1587289494844</v>
+        <v>548.1587289494848</v>
       </c>
       <c r="Q32" t="n">
         <v>333.6425992731759</v>
@@ -37150,25 +37150,25 @@
         <v>34.01931659699815</v>
       </c>
       <c r="K33" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L33" t="n">
         <v>601.9634631452241</v>
       </c>
       <c r="M33" t="n">
-        <v>548.2548726660048</v>
+        <v>289.2621692413406</v>
       </c>
       <c r="N33" t="n">
         <v>311.4722649182943</v>
       </c>
       <c r="O33" t="n">
-        <v>656.3543530563242</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P33" t="n">
-        <v>191.1446490739219</v>
+        <v>509.6074177138591</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.35170517425897</v>
+        <v>147.2787222231366</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>258.1292759359588</v>
       </c>
       <c r="K35" t="n">
-        <v>184.6879076799552</v>
+        <v>508.83332025112</v>
       </c>
       <c r="L35" t="n">
         <v>266.3961876261257</v>
       </c>
       <c r="M35" t="n">
-        <v>734.5435666586375</v>
+        <v>328.4064185358229</v>
       </c>
       <c r="N35" t="n">
         <v>338.380790229944</v>
       </c>
       <c r="O35" t="n">
-        <v>306.0534240086054</v>
+        <v>438.0649669574323</v>
       </c>
       <c r="P35" t="n">
         <v>548.1587289494848</v>
@@ -37329,7 +37329,7 @@
         <v>333.6425992731759</v>
       </c>
       <c r="R35" t="n">
-        <v>50.0198073971776</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>34.01931659699815</v>
       </c>
       <c r="K36" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L36" t="n">
         <v>231.123117841765</v>
       </c>
       <c r="M36" t="n">
-        <v>467.8602979690145</v>
+        <v>289.2621692413406</v>
       </c>
       <c r="N36" t="n">
-        <v>762.7071849187433</v>
+        <v>752.2396272706311</v>
       </c>
       <c r="O36" t="n">
-        <v>656.3543530563242</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P36" t="n">
-        <v>191.1446490739219</v>
+        <v>509.6074177138591</v>
       </c>
       <c r="Q36" t="n">
         <v>77.35170517425897</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>89.03266076388508</v>
+        <v>258.1292759359588</v>
       </c>
       <c r="K38" t="n">
         <v>184.6879076799552</v>
       </c>
       <c r="L38" t="n">
-        <v>673.1447603181725</v>
+        <v>266.3961876261257</v>
       </c>
       <c r="M38" t="n">
-        <v>328.4064185358229</v>
+        <v>762.7071849187433</v>
       </c>
       <c r="N38" t="n">
-        <v>338.380790229944</v>
+        <v>762.7071849187433</v>
       </c>
       <c r="O38" t="n">
-        <v>686.8536052713507</v>
+        <v>437.6969172882646</v>
       </c>
       <c r="P38" t="n">
-        <v>548.1587289494848</v>
+        <v>226.3600207780022</v>
       </c>
       <c r="Q38" t="n">
         <v>121.3276086132712</v>
       </c>
       <c r="R38" t="n">
-        <v>50.0198073971776</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>137.088697980209</v>
       </c>
       <c r="L39" t="n">
-        <v>231.123117841765</v>
+        <v>542.4933979299508</v>
       </c>
       <c r="M39" t="n">
-        <v>754.9672329913406</v>
+        <v>289.2621692413406</v>
       </c>
       <c r="N39" t="n">
-        <v>762.7071849187433</v>
+        <v>311.4722649182943</v>
       </c>
       <c r="O39" t="n">
-        <v>369.2474180339979</v>
+        <v>656.3543530563242</v>
       </c>
       <c r="P39" t="n">
-        <v>191.1446490739219</v>
+        <v>509.6074177138591</v>
       </c>
       <c r="Q39" t="n">
         <v>77.35170517425897</v>
@@ -37785,22 +37785,22 @@
         <v>184.6879076799552</v>
       </c>
       <c r="L41" t="n">
-        <v>684.0574021765761</v>
+        <v>266.3961876261257</v>
       </c>
       <c r="M41" t="n">
-        <v>328.4064185358229</v>
+        <v>762.7071849187433</v>
       </c>
       <c r="N41" t="n">
-        <v>699.2866639402006</v>
+        <v>762.7071849187433</v>
       </c>
       <c r="O41" t="n">
-        <v>686.8536052713507</v>
+        <v>306.0534240086054</v>
       </c>
       <c r="P41" t="n">
-        <v>226.3600207780022</v>
+        <v>314.7851385698305</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.3276086132712</v>
+        <v>333.6425992731759</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.01931659699815</v>
+        <v>160.110351937407</v>
       </c>
       <c r="K42" t="n">
         <v>137.088697980209</v>
@@ -37867,22 +37867,22 @@
         <v>231.123117841765</v>
       </c>
       <c r="M42" t="n">
-        <v>467.8602979690145</v>
+        <v>520.0025099738424</v>
       </c>
       <c r="N42" t="n">
         <v>762.7071849187433</v>
       </c>
       <c r="O42" t="n">
-        <v>656.3543530563242</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P42" t="n">
         <v>191.1446490739219</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.35170517425897</v>
+        <v>287.428992910108</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>5.551784195643407</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>89.03266076388508</v>
+        <v>258.1292759359588</v>
       </c>
       <c r="K44" t="n">
         <v>184.6879076799552</v>
       </c>
       <c r="L44" t="n">
-        <v>266.3961876261257</v>
+        <v>684.0574021765761</v>
       </c>
       <c r="M44" t="n">
         <v>328.4064185358229</v>
       </c>
       <c r="N44" t="n">
-        <v>582.8341796592642</v>
+        <v>539.1717144622123</v>
       </c>
       <c r="O44" t="n">
-        <v>686.8536052713507</v>
+        <v>306.0534240086054</v>
       </c>
       <c r="P44" t="n">
         <v>548.1587289494848</v>
       </c>
       <c r="Q44" t="n">
-        <v>333.6425992731759</v>
+        <v>121.3276086132712</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>50.0198073971776</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>762.7071849187433</v>
       </c>
       <c r="O45" t="n">
-        <v>369.2474180339979</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P45" t="n">
-        <v>191.1446490739219</v>
+        <v>297.9000333283252</v>
       </c>
       <c r="Q45" t="n">
         <v>77.35170517425897</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1602158.439738307</v>
+        <v>1622249.747728714</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4555989.702958406</v>
+        <v>4555989.702958407</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>88.93311775391584</v>
       </c>
       <c r="H2" t="n">
-        <v>50.29171516770224</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,10 +709,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.12024601807692</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,10 +788,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>154.9931047012513</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>66.75433449706937</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.83589518354175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.6164265404264</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>38.71039032764801</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,13 +1025,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>87.7061602166668</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>93.26912801052356</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>69.80675043588448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>306.8859026411703</v>
+        <v>98.74952380456176</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>136.5074811056032</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.166113696923</v>
       </c>
       <c r="U11" t="n">
         <v>251.0910832060943</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>103.4478913812071</v>
+        <v>89.20400350381829</v>
       </c>
       <c r="U13" t="n">
         <v>286.2411717171773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>320.3410282314432</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>126.1727532681048</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>194.5191635134663</v>
+        <v>46.47317619147201</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>366.0050846052555</v>
       </c>
       <c r="G17" t="n">
-        <v>242.0207125510855</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>122.6020210391861</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.45133033366034</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>227.0526323089313</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.120616243357</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>306.8859026411703</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>88.05228155300928</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.1275876548675</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T22" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2411717171773</v>
+        <v>147.0308442727695</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>306.8859026411703</v>
       </c>
       <c r="I23" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T23" t="n">
-        <v>148.9846733254917</v>
+        <v>100.274351460072</v>
       </c>
       <c r="U23" t="n">
         <v>251.0910832060943</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>87.80385874297856</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>168.1241487024136</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,10 +2572,10 @@
         <v>412.120616243357</v>
       </c>
       <c r="H26" t="n">
-        <v>306.8859026411703</v>
+        <v>197.9941404043203</v>
       </c>
       <c r="I26" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>173.0421792014359</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>50.15982611068556</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>113.1127440363371</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>44.02960445197679</v>
       </c>
       <c r="U28" t="n">
         <v>286.2411717171773</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>412.120616243357</v>
       </c>
       <c r="H29" t="n">
-        <v>306.8859026411703</v>
+        <v>197.9941404043194</v>
       </c>
       <c r="I29" t="n">
-        <v>27.61571886875214</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T29" t="n">
         <v>209.166113696923</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>35.12102572909994</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T31" t="n">
-        <v>87.80385874297858</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,10 +3046,10 @@
         <v>412.120616243357</v>
       </c>
       <c r="H32" t="n">
-        <v>197.9941404043194</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.61571886875214</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.166113696923</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>24.02463292927834</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>10.03316499011436</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>340.7442470438155</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.166113696923</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>130.5460643584775</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.45133033366034</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>152.1815574428989</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>87.79715924018303</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>253.1756978266839</v>
       </c>
       <c r="W38" t="n">
-        <v>130.1230148915398</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.5635893043764</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.4353981959275</v>
+        <v>103.4732377613744</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>89.59662959064381</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>293.5010627888867</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3793,7 +3793,7 @@
         <v>136.5074811056033</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.166113696923</v>
       </c>
       <c r="U41" t="n">
         <v>251.0910832060943</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.64655662808689</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>89.2040035038176</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V44" t="n">
-        <v>275.5013703673738</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>61.930920462152</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5635893043764</v>
+        <v>47.26119090403645</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U46" t="n">
-        <v>268.7795396204428</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5536560184564</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5536560184564</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F2" t="n">
-        <v>97.60815526925295</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G2" t="n">
-        <v>82.15084464790441</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5536560184564</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.5536560184564</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N3" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="X3" t="n">
-        <v>279.432186667424</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.67188790247008</v>
+        <v>706.3289344460964</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4597,19 +4597,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
         <v>509.8046290289238</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370.2385984713777</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C6" t="n">
-        <v>370.2385984713777</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D6" t="n">
-        <v>370.2385984713777</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E6" t="n">
-        <v>370.2385984713777</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>59.13668013436006</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4752,25 +4752,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4843,13 +4843,13 @@
         <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4895,13 +4895,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.3006591534979</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1587.212441067102</v>
+        <v>520.3844663841305</v>
       </c>
       <c r="C11" t="n">
-        <v>1587.212441067102</v>
+        <v>151.4219494437188</v>
       </c>
       <c r="D11" t="n">
-        <v>1228.946742460352</v>
+        <v>151.4219494437188</v>
       </c>
       <c r="E11" t="n">
-        <v>843.1584898621072</v>
+        <v>151.4219494437188</v>
       </c>
       <c r="F11" t="n">
-        <v>432.1725850724997</v>
+        <v>151.4219494437188</v>
       </c>
       <c r="G11" t="n">
-        <v>361.6607159453436</v>
+        <v>151.4219494437188</v>
       </c>
       <c r="H11" t="n">
         <v>51.67495570173721</v>
@@ -5068,25 +5068,25 @@
         <v>2583.74778508686</v>
       </c>
       <c r="S11" t="n">
-        <v>2583.74778508686</v>
+        <v>2445.861440535746</v>
       </c>
       <c r="T11" t="n">
-        <v>2583.74778508686</v>
+        <v>2234.582537811581</v>
       </c>
       <c r="U11" t="n">
-        <v>2330.120428313028</v>
+        <v>1980.955181037749</v>
       </c>
       <c r="V11" t="n">
-        <v>2330.120428313028</v>
+        <v>1649.892293694178</v>
       </c>
       <c r="W11" t="n">
-        <v>1977.351773042914</v>
+        <v>1297.123638424064</v>
       </c>
       <c r="X11" t="n">
-        <v>1977.351773042914</v>
+        <v>1297.123638424064</v>
       </c>
       <c r="Y11" t="n">
-        <v>1587.212441067102</v>
+        <v>906.9843064482523</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>51.67495570173721</v>
       </c>
       <c r="J12" t="n">
-        <v>85.35407913276543</v>
+        <v>210.1842041197702</v>
       </c>
       <c r="K12" t="n">
-        <v>482.8924747756251</v>
+        <v>345.9020151201771</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.836303289397</v>
+        <v>941.845843633949</v>
       </c>
       <c r="M12" t="n">
-        <v>1365.205850838325</v>
+        <v>1228.215391182876</v>
       </c>
       <c r="N12" t="n">
-        <v>1673.563393107436</v>
+        <v>1536.572933451988</v>
       </c>
       <c r="O12" t="n">
-        <v>1933.430506549235</v>
+        <v>1796.440046893787</v>
       </c>
       <c r="P12" t="n">
-        <v>2437.941850085956</v>
+        <v>2300.951390430507</v>
       </c>
       <c r="Q12" t="n">
         <v>2583.74778508686</v>
@@ -5226,25 +5226,25 @@
         <v>1384.65218040112</v>
       </c>
       <c r="S13" t="n">
-        <v>1183.49957204124</v>
+        <v>1384.65218040112</v>
       </c>
       <c r="T13" t="n">
-        <v>1079.006752464263</v>
+        <v>1294.547126356859</v>
       </c>
       <c r="U13" t="n">
-        <v>789.8742557802452</v>
+        <v>1005.414629672842</v>
       </c>
       <c r="V13" t="n">
-        <v>789.8742557802452</v>
+        <v>750.7301414669548</v>
       </c>
       <c r="W13" t="n">
-        <v>500.4570857432847</v>
+        <v>461.3129714299943</v>
       </c>
       <c r="X13" t="n">
-        <v>272.4675348452673</v>
+        <v>233.3234205319769</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.67495570173721</v>
+        <v>233.3234205319769</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1306.095629262509</v>
+        <v>1102.479967442276</v>
       </c>
       <c r="C14" t="n">
-        <v>937.1331123220971</v>
+        <v>733.5174505018647</v>
       </c>
       <c r="D14" t="n">
-        <v>937.1331123220971</v>
+        <v>375.2517518951142</v>
       </c>
       <c r="E14" t="n">
-        <v>551.3448597238529</v>
+        <v>375.2517518951142</v>
       </c>
       <c r="F14" t="n">
-        <v>140.3589549342453</v>
+        <v>375.2517518951142</v>
       </c>
       <c r="G14" t="n">
-        <v>140.3589549342453</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="H14" t="n">
-        <v>140.3589549342453</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="I14" t="n">
         <v>51.67495570173721</v>
@@ -5311,19 +5311,19 @@
         <v>2583.74778508686</v>
       </c>
       <c r="U14" t="n">
-        <v>2456.300559563522</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="V14" t="n">
-        <v>2456.300559563522</v>
+        <v>2252.68489774329</v>
       </c>
       <c r="W14" t="n">
-        <v>2456.300559563522</v>
+        <v>2252.68489774329</v>
       </c>
       <c r="X14" t="n">
-        <v>2082.834801302442</v>
+        <v>1879.21913948221</v>
       </c>
       <c r="Y14" t="n">
-        <v>1692.69546932663</v>
+        <v>1489.079807506398</v>
       </c>
     </row>
     <row r="15">
@@ -5372,13 +5372,13 @@
         <v>1431.261576244016</v>
       </c>
       <c r="O15" t="n">
-        <v>1789.185472215446</v>
+        <v>1794.681738569133</v>
       </c>
       <c r="P15" t="n">
-        <v>2293.696815752166</v>
+        <v>2299.193082105854</v>
       </c>
       <c r="Q15" t="n">
-        <v>2578.251518733173</v>
+        <v>2583.74778508686</v>
       </c>
       <c r="R15" t="n">
         <v>2583.74778508686</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>496.5946361943764</v>
+        <v>220.6111386296441</v>
       </c>
       <c r="C16" t="n">
-        <v>496.5946361943764</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="D16" t="n">
-        <v>346.4779967820407</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="E16" t="n">
-        <v>198.5649031996476</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="F16" t="n">
         <v>51.67495570173721</v>
@@ -5463,25 +5463,25 @@
         <v>1384.65218040112</v>
       </c>
       <c r="S16" t="n">
-        <v>1384.65218040112</v>
+        <v>1183.499572041239</v>
       </c>
       <c r="T16" t="n">
-        <v>1384.65218040112</v>
+        <v>959.4119548539827</v>
       </c>
       <c r="U16" t="n">
-        <v>1095.519683717102</v>
+        <v>959.4119548539827</v>
       </c>
       <c r="V16" t="n">
-        <v>1095.519683717102</v>
+        <v>959.4119548539827</v>
       </c>
       <c r="W16" t="n">
-        <v>1095.519683717102</v>
+        <v>669.994784817022</v>
       </c>
       <c r="X16" t="n">
-        <v>899.0356801681463</v>
+        <v>623.0521826034139</v>
       </c>
       <c r="Y16" t="n">
-        <v>678.2431010246162</v>
+        <v>402.2596034598838</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1820.142694849969</v>
+        <v>1844.379289752624</v>
       </c>
       <c r="C17" t="n">
-        <v>1451.180177909557</v>
+        <v>1475.416772812213</v>
       </c>
       <c r="D17" t="n">
-        <v>1092.914479302807</v>
+        <v>1117.151074205462</v>
       </c>
       <c r="E17" t="n">
-        <v>707.1262267045624</v>
+        <v>731.3628216072179</v>
       </c>
       <c r="F17" t="n">
-        <v>296.1403219149549</v>
+        <v>361.6607159453436</v>
       </c>
       <c r="G17" t="n">
-        <v>51.67495570173721</v>
+        <v>361.6607159453436</v>
       </c>
       <c r="H17" t="n">
         <v>51.67495570173721</v>
@@ -5554,13 +5554,13 @@
         <v>2583.74778508686</v>
       </c>
       <c r="W17" t="n">
-        <v>2583.74778508686</v>
+        <v>2230.979129816746</v>
       </c>
       <c r="X17" t="n">
-        <v>2210.282026825781</v>
+        <v>2230.979129816746</v>
       </c>
       <c r="Y17" t="n">
-        <v>1820.142694849969</v>
+        <v>2230.979129816746</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>607.7225997626298</v>
       </c>
       <c r="L18" t="n">
-        <v>836.5344864259771</v>
+        <v>934.5912689556079</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.904033974904</v>
+        <v>1220.960816504535</v>
       </c>
       <c r="N18" t="n">
-        <v>1431.261576244016</v>
+        <v>1529.318358773646</v>
       </c>
       <c r="O18" t="n">
-        <v>1794.681738569132</v>
+        <v>1789.185472215445</v>
       </c>
       <c r="P18" t="n">
-        <v>2299.193082105853</v>
+        <v>2293.696815752166</v>
       </c>
       <c r="Q18" t="n">
-        <v>2583.747785086859</v>
+        <v>2578.251518733172</v>
       </c>
       <c r="R18" t="n">
         <v>2583.747785086859</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.67495570173721</v>
+        <v>323.4284745762375</v>
       </c>
       <c r="C19" t="n">
-        <v>51.67495570173721</v>
+        <v>323.4284745762375</v>
       </c>
       <c r="D19" t="n">
-        <v>51.67495570173721</v>
+        <v>323.4284745762375</v>
       </c>
       <c r="E19" t="n">
-        <v>51.67495570173721</v>
+        <v>175.5153809938444</v>
       </c>
       <c r="F19" t="n">
         <v>51.67495570173721</v>
@@ -5700,25 +5700,25 @@
         <v>1384.65218040112</v>
       </c>
       <c r="S19" t="n">
-        <v>1333.69124067015</v>
+        <v>1384.65218040112</v>
       </c>
       <c r="T19" t="n">
-        <v>1333.69124067015</v>
+        <v>1384.65218040112</v>
       </c>
       <c r="U19" t="n">
-        <v>1044.558743986132</v>
+        <v>1095.519683717102</v>
       </c>
       <c r="V19" t="n">
-        <v>789.8742557802452</v>
+        <v>840.8351955112154</v>
       </c>
       <c r="W19" t="n">
-        <v>500.4570857432847</v>
+        <v>551.4180254742548</v>
       </c>
       <c r="X19" t="n">
-        <v>272.4675348452673</v>
+        <v>323.4284745762375</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.67495570173721</v>
+        <v>323.4284745762375</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1454.239957776813</v>
+        <v>1206.714811696339</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.893864535468</v>
+        <v>1206.714811696339</v>
       </c>
       <c r="D20" t="n">
-        <v>866.6281659287174</v>
+        <v>848.449113089589</v>
       </c>
       <c r="E20" t="n">
-        <v>866.6281659287174</v>
+        <v>462.6608604913447</v>
       </c>
       <c r="F20" t="n">
-        <v>866.6281659287174</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="G20" t="n">
-        <v>450.3447151778518</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="H20" t="n">
-        <v>140.3589549342453</v>
+        <v>51.67495570173721</v>
       </c>
       <c r="I20" t="n">
         <v>51.67495570173721</v>
@@ -5779,25 +5779,25 @@
         <v>2583.74778508686</v>
       </c>
       <c r="S20" t="n">
-        <v>2583.74778508686</v>
+        <v>2445.861440535746</v>
       </c>
       <c r="T20" t="n">
-        <v>2583.74778508686</v>
+        <v>2445.861440535746</v>
       </c>
       <c r="U20" t="n">
-        <v>2583.74778508686</v>
+        <v>2445.861440535746</v>
       </c>
       <c r="V20" t="n">
-        <v>2583.74778508686</v>
+        <v>2445.861440535746</v>
       </c>
       <c r="W20" t="n">
-        <v>2230.979129816746</v>
+        <v>2356.919741997353</v>
       </c>
       <c r="X20" t="n">
-        <v>2230.979129816746</v>
+        <v>1983.453983736273</v>
       </c>
       <c r="Y20" t="n">
-        <v>1840.839797840934</v>
+        <v>1593.314651760461</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>607.7225997626298</v>
       </c>
       <c r="L21" t="n">
-        <v>940.087535309295</v>
+        <v>836.5344864259771</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.457082858222</v>
+        <v>1122.904033974904</v>
       </c>
       <c r="N21" t="n">
-        <v>1534.814625127334</v>
+        <v>1431.261576244016</v>
       </c>
       <c r="O21" t="n">
         <v>1794.681738569132</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.67495570173721</v>
+        <v>632.5425237515407</v>
       </c>
       <c r="C22" t="n">
-        <v>51.67495570173721</v>
+        <v>632.5425237515407</v>
       </c>
       <c r="D22" t="n">
-        <v>51.67495570173721</v>
+        <v>632.5425237515407</v>
       </c>
       <c r="E22" t="n">
-        <v>51.67495570173721</v>
+        <v>484.6294301691476</v>
       </c>
       <c r="F22" t="n">
-        <v>51.67495570173721</v>
+        <v>484.6294301691476</v>
       </c>
       <c r="G22" t="n">
-        <v>51.67495570173721</v>
+        <v>316.3833803667472</v>
       </c>
       <c r="H22" t="n">
-        <v>51.67495570173721</v>
+        <v>165.3365346098531</v>
       </c>
       <c r="I22" t="n">
         <v>51.67495570173721</v>
@@ -5937,25 +5937,25 @@
         <v>1384.65218040112</v>
       </c>
       <c r="S22" t="n">
-        <v>1268.361687820445</v>
+        <v>1183.499572041239</v>
       </c>
       <c r="T22" t="n">
-        <v>1044.274070633189</v>
+        <v>1183.499572041239</v>
       </c>
       <c r="U22" t="n">
-        <v>755.1415739491715</v>
+        <v>1034.98356772531</v>
       </c>
       <c r="V22" t="n">
-        <v>500.4570857432847</v>
+        <v>1034.98356772531</v>
       </c>
       <c r="W22" t="n">
-        <v>500.4570857432847</v>
+        <v>1034.98356772531</v>
       </c>
       <c r="X22" t="n">
-        <v>272.4675348452673</v>
+        <v>1034.98356772531</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.67495570173721</v>
+        <v>814.1909885817804</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2432.365970547018</v>
+        <v>2343.68197131451</v>
       </c>
       <c r="C23" t="n">
-        <v>2063.403453606606</v>
+        <v>1974.719454374098</v>
       </c>
       <c r="D23" t="n">
-        <v>1705.137754999856</v>
+        <v>1616.453755767348</v>
       </c>
       <c r="E23" t="n">
-        <v>1319.349502401612</v>
+        <v>1230.665503169104</v>
       </c>
       <c r="F23" t="n">
-        <v>908.3635976120042</v>
+        <v>819.6795983794962</v>
       </c>
       <c r="G23" t="n">
-        <v>492.0801468611385</v>
+        <v>403.3961476286304</v>
       </c>
       <c r="H23" t="n">
-        <v>182.0943866175321</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="I23" t="n">
         <v>93.41038738502395</v>
@@ -6016,25 +6016,25 @@
         <v>4670.519369251198</v>
       </c>
       <c r="S23" t="n">
-        <v>4670.519369251198</v>
+        <v>4532.633024700083</v>
       </c>
       <c r="T23" t="n">
-        <v>4520.029800235549</v>
+        <v>4431.345801003041</v>
       </c>
       <c r="U23" t="n">
-        <v>4266.402443461717</v>
+        <v>4177.718444229208</v>
       </c>
       <c r="V23" t="n">
-        <v>3935.339556118146</v>
+        <v>3846.655556885638</v>
       </c>
       <c r="W23" t="n">
-        <v>3582.570900848032</v>
+        <v>3493.886901615524</v>
       </c>
       <c r="X23" t="n">
-        <v>3209.105142586952</v>
+        <v>3120.421143354444</v>
       </c>
       <c r="Y23" t="n">
-        <v>2818.96581061114</v>
+        <v>2730.281811378632</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>795.9570172126191</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="C25" t="n">
-        <v>627.0208342847122</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9041948723765</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="E25" t="n">
-        <v>328.9911012899834</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="F25" t="n">
-        <v>182.101153792073</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="G25" t="n">
         <v>93.41038738502395</v>
@@ -6174,25 +6174,25 @@
         <v>1426.387612084406</v>
       </c>
       <c r="S25" t="n">
-        <v>1426.387612084406</v>
+        <v>1225.235003724526</v>
       </c>
       <c r="T25" t="n">
-        <v>1426.387612084406</v>
+        <v>1001.147386537269</v>
       </c>
       <c r="U25" t="n">
-        <v>1426.387612084406</v>
+        <v>712.0148898532518</v>
       </c>
       <c r="V25" t="n">
-        <v>1426.387612084406</v>
+        <v>712.0148898532518</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.387612084406</v>
+        <v>542.1925174265714</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.398061186389</v>
+        <v>314.202966528554</v>
       </c>
       <c r="Y25" t="n">
-        <v>977.6054820428589</v>
+        <v>93.41038738502395</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2432.365970547018</v>
+        <v>2233.690292287389</v>
       </c>
       <c r="C26" t="n">
-        <v>2063.403453606606</v>
+        <v>1864.727775346977</v>
       </c>
       <c r="D26" t="n">
-        <v>1705.137754999856</v>
+        <v>1506.462076740227</v>
       </c>
       <c r="E26" t="n">
-        <v>1319.349502401612</v>
+        <v>1120.673824141982</v>
       </c>
       <c r="F26" t="n">
-        <v>908.3635976120042</v>
+        <v>709.6879193523748</v>
       </c>
       <c r="G26" t="n">
-        <v>492.0801468611385</v>
+        <v>293.4044686015091</v>
       </c>
       <c r="H26" t="n">
-        <v>182.0943866175321</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="I26" t="n">
         <v>93.41038738502397</v>
@@ -6268,10 +6268,10 @@
         <v>3383.895222588402</v>
       </c>
       <c r="X26" t="n">
-        <v>3209.105142586952</v>
+        <v>3010.429464327322</v>
       </c>
       <c r="Y26" t="n">
-        <v>2818.96581061114</v>
+        <v>2620.290132351511</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.41038738502397</v>
       </c>
       <c r="J27" t="n">
-        <v>127.0895108160521</v>
+        <v>251.9196358030569</v>
       </c>
       <c r="K27" t="n">
-        <v>262.807321816459</v>
+        <v>649.4580314459165</v>
       </c>
       <c r="L27" t="n">
-        <v>858.7511503302308</v>
+        <v>1245.401859959688</v>
       </c>
       <c r="M27" t="n">
-        <v>1145.120697879158</v>
+        <v>1531.771407508616</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.478240148269</v>
+        <v>1840.128949777727</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.26904967403</v>
+        <v>2099.996063219525</v>
       </c>
       <c r="P27" t="n">
-        <v>2548.90502864763</v>
+        <v>2340.92851378914</v>
       </c>
       <c r="Q27" t="n">
         <v>2625.483216770147</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>593.1534571575414</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="C28" t="n">
-        <v>593.1534571575414</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="D28" t="n">
-        <v>443.0368177452057</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="E28" t="n">
-        <v>295.1237241628126</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="F28" t="n">
-        <v>295.1237241628126</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="G28" t="n">
-        <v>295.1237241628126</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="H28" t="n">
-        <v>144.0768784059185</v>
+        <v>93.41038738502397</v>
       </c>
       <c r="I28" t="n">
         <v>93.41038738502397</v>
@@ -6408,28 +6408,28 @@
         <v>1426.387612084406</v>
       </c>
       <c r="R28" t="n">
-        <v>1426.387612084406</v>
+        <v>1312.132315078005</v>
       </c>
       <c r="S28" t="n">
-        <v>1426.387612084406</v>
+        <v>1312.132315078005</v>
       </c>
       <c r="T28" t="n">
-        <v>1426.387612084406</v>
+        <v>1267.657967146715</v>
       </c>
       <c r="U28" t="n">
-        <v>1137.255115400389</v>
+        <v>978.525470462698</v>
       </c>
       <c r="V28" t="n">
-        <v>882.570627194502</v>
+        <v>723.8409822568111</v>
       </c>
       <c r="W28" t="n">
-        <v>593.1534571575414</v>
+        <v>723.8409822568111</v>
       </c>
       <c r="X28" t="n">
-        <v>593.1534571575414</v>
+        <v>495.8514313587938</v>
       </c>
       <c r="Y28" t="n">
-        <v>593.1534571575414</v>
+        <v>275.0588522152636</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2371.576636838502</v>
+        <v>2233.690292287388</v>
       </c>
       <c r="C29" t="n">
-        <v>2002.61411989809</v>
+        <v>1864.727775346976</v>
       </c>
       <c r="D29" t="n">
-        <v>1644.34842129134</v>
+        <v>1506.462076740226</v>
       </c>
       <c r="E29" t="n">
-        <v>1258.560168693096</v>
+        <v>1120.673824141981</v>
       </c>
       <c r="F29" t="n">
-        <v>847.5742639034881</v>
+        <v>709.6879193523739</v>
       </c>
       <c r="G29" t="n">
-        <v>431.2908131526224</v>
+        <v>293.4044686015082</v>
       </c>
       <c r="H29" t="n">
-        <v>121.305052909016</v>
+        <v>93.41038738502395</v>
       </c>
       <c r="I29" t="n">
         <v>93.41038738502395</v>
@@ -6490,25 +6490,25 @@
         <v>4670.519369251198</v>
       </c>
       <c r="S29" t="n">
-        <v>4670.519369251198</v>
+        <v>4532.633024700083</v>
       </c>
       <c r="T29" t="n">
-        <v>4459.240466527033</v>
+        <v>4321.354121975919</v>
       </c>
       <c r="U29" t="n">
-        <v>4205.613109753201</v>
+        <v>4067.726765202086</v>
       </c>
       <c r="V29" t="n">
-        <v>3874.55022240963</v>
+        <v>3736.663877858516</v>
       </c>
       <c r="W29" t="n">
-        <v>3521.781567139516</v>
+        <v>3383.895222588401</v>
       </c>
       <c r="X29" t="n">
-        <v>3148.315808878436</v>
+        <v>3010.429464327322</v>
       </c>
       <c r="Y29" t="n">
-        <v>2758.176476902624</v>
+        <v>2620.29013235151</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.41038738502395</v>
       </c>
       <c r="J30" t="n">
-        <v>204.9509614282383</v>
+        <v>127.0895108160521</v>
       </c>
       <c r="K30" t="n">
-        <v>340.6687724286452</v>
+        <v>524.6279064589118</v>
       </c>
       <c r="L30" t="n">
-        <v>569.4806590919925</v>
+        <v>1120.571734972684</v>
       </c>
       <c r="M30" t="n">
-        <v>1316.89821975342</v>
+        <v>1406.941282521611</v>
       </c>
       <c r="N30" t="n">
-        <v>2099.804712622649</v>
+        <v>1715.298824790722</v>
       </c>
       <c r="O30" t="n">
-        <v>2359.671826064447</v>
+        <v>1975.165938232521</v>
       </c>
       <c r="P30" t="n">
-        <v>2548.90502864763</v>
+        <v>2479.677281769241</v>
       </c>
       <c r="Q30" t="n">
         <v>2625.483216770147</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.2662508055701</v>
+        <v>425.8927578600175</v>
       </c>
       <c r="C31" t="n">
-        <v>538.3300678776632</v>
+        <v>390.4169742952701</v>
       </c>
       <c r="D31" t="n">
-        <v>388.2134284653274</v>
+        <v>240.3003348829343</v>
       </c>
       <c r="E31" t="n">
         <v>240.3003348829343</v>
@@ -6648,25 +6648,25 @@
         <v>1426.387612084406</v>
       </c>
       <c r="S31" t="n">
-        <v>1426.387612084406</v>
+        <v>1225.235003724526</v>
       </c>
       <c r="T31" t="n">
-        <v>1337.696845677357</v>
+        <v>1225.235003724526</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.696845677357</v>
+        <v>936.1025070405083</v>
       </c>
       <c r="V31" t="n">
-        <v>1337.696845677357</v>
+        <v>936.1025070405083</v>
       </c>
       <c r="W31" t="n">
-        <v>1337.696845677357</v>
+        <v>646.6853370035476</v>
       </c>
       <c r="X31" t="n">
-        <v>1109.70729477934</v>
+        <v>646.6853370035476</v>
       </c>
       <c r="Y31" t="n">
-        <v>888.9147156358098</v>
+        <v>425.8927578600175</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2233.690292287388</v>
+        <v>2371.576636838502</v>
       </c>
       <c r="C32" t="n">
-        <v>1864.727775346976</v>
+        <v>2002.61411989809</v>
       </c>
       <c r="D32" t="n">
-        <v>1506.462076740226</v>
+        <v>1644.34842129134</v>
       </c>
       <c r="E32" t="n">
-        <v>1120.673824141981</v>
+        <v>1258.560168693096</v>
       </c>
       <c r="F32" t="n">
-        <v>709.6879193523739</v>
+        <v>847.5742639034881</v>
       </c>
       <c r="G32" t="n">
-        <v>293.4044686015082</v>
+        <v>431.2908131526224</v>
       </c>
       <c r="H32" t="n">
-        <v>93.41038738502395</v>
+        <v>121.305052909016</v>
       </c>
       <c r="I32" t="n">
         <v>93.41038738502395</v>
@@ -6703,7 +6703,7 @@
         <v>348.9583705616232</v>
       </c>
       <c r="K32" t="n">
-        <v>852.7033576102313</v>
+        <v>852.7033576102319</v>
       </c>
       <c r="L32" t="n">
         <v>1529.920185765042</v>
@@ -6727,25 +6727,25 @@
         <v>4670.519369251198</v>
       </c>
       <c r="S32" t="n">
-        <v>4532.633024700083</v>
+        <v>4670.519369251198</v>
       </c>
       <c r="T32" t="n">
-        <v>4321.354121975919</v>
+        <v>4459.240466527033</v>
       </c>
       <c r="U32" t="n">
-        <v>4067.726765202086</v>
+        <v>4205.613109753201</v>
       </c>
       <c r="V32" t="n">
-        <v>3736.663877858516</v>
+        <v>3874.55022240963</v>
       </c>
       <c r="W32" t="n">
-        <v>3383.895222588401</v>
+        <v>3521.781567139516</v>
       </c>
       <c r="X32" t="n">
-        <v>3010.429464327322</v>
+        <v>3148.315808878436</v>
       </c>
       <c r="Y32" t="n">
-        <v>2620.29013235151</v>
+        <v>2758.176476902624</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.41038738502395</v>
       </c>
       <c r="J33" t="n">
-        <v>127.0895108160521</v>
+        <v>196.3172576944414</v>
       </c>
       <c r="K33" t="n">
-        <v>524.6279064589118</v>
+        <v>593.8556533373011</v>
       </c>
       <c r="L33" t="n">
-        <v>1120.571734972684</v>
+        <v>1189.799481851073</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.941282521611</v>
+        <v>1476.1690294</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.298824790722</v>
+        <v>1784.526571669111</v>
       </c>
       <c r="O33" t="n">
-        <v>1975.165938232521</v>
+        <v>2044.39368511091</v>
       </c>
       <c r="P33" t="n">
-        <v>2479.677281769241</v>
+        <v>2548.90502864763</v>
       </c>
       <c r="Q33" t="n">
         <v>2625.483216770147</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>433.5038238000112</v>
+        <v>422.5977198162912</v>
       </c>
       <c r="C34" t="n">
-        <v>264.5676408721043</v>
+        <v>253.6615368883843</v>
       </c>
       <c r="D34" t="n">
-        <v>264.5676408721043</v>
+        <v>103.5448974760486</v>
       </c>
       <c r="E34" t="n">
-        <v>240.3003348829343</v>
+        <v>103.5448974760486</v>
       </c>
       <c r="F34" t="n">
-        <v>93.41038738502395</v>
+        <v>103.5448974760486</v>
       </c>
       <c r="G34" t="n">
         <v>93.41038738502395</v>
@@ -6885,25 +6885,25 @@
         <v>1426.387612084406</v>
       </c>
       <c r="S34" t="n">
-        <v>1426.387612084406</v>
+        <v>1225.235003724526</v>
       </c>
       <c r="T34" t="n">
-        <v>1426.387612084406</v>
+        <v>1001.147386537269</v>
       </c>
       <c r="U34" t="n">
-        <v>1426.387612084406</v>
+        <v>712.0148898532518</v>
       </c>
       <c r="V34" t="n">
-        <v>1171.703123878519</v>
+        <v>712.0148898532518</v>
       </c>
       <c r="W34" t="n">
-        <v>882.2859538415587</v>
+        <v>422.5977198162912</v>
       </c>
       <c r="X34" t="n">
-        <v>654.2964029435414</v>
+        <v>422.5977198162912</v>
       </c>
       <c r="Y34" t="n">
-        <v>433.5038238000112</v>
+        <v>422.5977198162912</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1959.700254006201</v>
+        <v>1632.339881538967</v>
       </c>
       <c r="C35" t="n">
-        <v>1590.737737065789</v>
+        <v>1632.339881538967</v>
       </c>
       <c r="D35" t="n">
-        <v>1232.472038459039</v>
+        <v>1274.074182932217</v>
       </c>
       <c r="E35" t="n">
         <v>888.2859303339727</v>
@@ -6937,22 +6937,22 @@
         <v>61.01657479349947</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5645579700987</v>
+        <v>149.1589089497457</v>
       </c>
       <c r="K35" t="n">
-        <v>820.3095450187075</v>
+        <v>331.9999375529014</v>
       </c>
       <c r="L35" t="n">
-        <v>1084.041770768572</v>
+        <v>683.273029916676</v>
       </c>
       <c r="M35" t="n">
-        <v>1409.164125119037</v>
+        <v>1438.353142986232</v>
       </c>
       <c r="N35" t="n">
-        <v>1744.161107446681</v>
+        <v>2193.433256055788</v>
       </c>
       <c r="O35" t="n">
-        <v>2177.845424734539</v>
+        <v>2496.426145824307</v>
       </c>
       <c r="P35" t="n">
         <v>2720.522566394529</v>
@@ -6964,25 +6964,25 @@
         <v>3050.828739674973</v>
       </c>
       <c r="S35" t="n">
-        <v>3050.828739674973</v>
+        <v>2912.942395123859</v>
       </c>
       <c r="T35" t="n">
-        <v>3050.828739674973</v>
+        <v>2701.663492399694</v>
       </c>
       <c r="U35" t="n">
-        <v>3050.828739674973</v>
+        <v>2448.036135625862</v>
       </c>
       <c r="V35" t="n">
-        <v>2719.765852331403</v>
+        <v>2116.973248282291</v>
       </c>
       <c r="W35" t="n">
-        <v>2719.765852331403</v>
+        <v>1764.204593012177</v>
       </c>
       <c r="X35" t="n">
-        <v>2346.300094070323</v>
+        <v>1632.339881538967</v>
       </c>
       <c r="Y35" t="n">
-        <v>2346.300094070323</v>
+        <v>1632.339881538967</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>492.2340938673873</v>
       </c>
       <c r="L36" t="n">
-        <v>721.0459805307346</v>
+        <v>1088.177922381159</v>
       </c>
       <c r="M36" t="n">
-        <v>1007.415528079662</v>
+        <v>1374.547469930086</v>
       </c>
       <c r="N36" t="n">
-        <v>1752.132759077587</v>
+        <v>1682.905012199197</v>
       </c>
       <c r="O36" t="n">
-        <v>2011.999872519385</v>
+        <v>1942.772125640996</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.511216056106</v>
+        <v>2447.283469177717</v>
       </c>
       <c r="Q36" t="n">
         <v>2593.089404178622</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.9775145244695</v>
+        <v>528.9126970606935</v>
       </c>
       <c r="C37" t="n">
-        <v>111.9775145244695</v>
+        <v>359.9765141327866</v>
       </c>
       <c r="D37" t="n">
-        <v>61.01657479349947</v>
+        <v>359.9765141327866</v>
       </c>
       <c r="E37" t="n">
-        <v>61.01657479349947</v>
+        <v>212.0634205503935</v>
       </c>
       <c r="F37" t="n">
-        <v>61.01657479349947</v>
+        <v>212.0634205503935</v>
       </c>
       <c r="G37" t="n">
-        <v>61.01657479349947</v>
+        <v>212.0634205503935</v>
       </c>
       <c r="H37" t="n">
         <v>61.01657479349947</v>
@@ -7122,25 +7122,25 @@
         <v>1393.993799492882</v>
       </c>
       <c r="S37" t="n">
-        <v>1393.993799492882</v>
+        <v>1192.841191133001</v>
       </c>
       <c r="T37" t="n">
-        <v>1393.993799492882</v>
+        <v>1039.122446241184</v>
       </c>
       <c r="U37" t="n">
-        <v>1104.861302808864</v>
+        <v>1039.122446241184</v>
       </c>
       <c r="V37" t="n">
-        <v>850.1768146029775</v>
+        <v>1039.122446241184</v>
       </c>
       <c r="W37" t="n">
-        <v>560.759644566017</v>
+        <v>749.7052762042237</v>
       </c>
       <c r="X37" t="n">
-        <v>332.7700936679996</v>
+        <v>749.7052762042237</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.9775145244695</v>
+        <v>528.9126970606935</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1673.702946961022</v>
+        <v>1274.074182932217</v>
       </c>
       <c r="C38" t="n">
-        <v>1304.74043002061</v>
+        <v>1274.074182932217</v>
       </c>
       <c r="D38" t="n">
-        <v>946.4747314138594</v>
+        <v>1274.074182932217</v>
       </c>
       <c r="E38" t="n">
-        <v>560.6864788156151</v>
+        <v>888.2859303339727</v>
       </c>
       <c r="F38" t="n">
-        <v>149.7005740260076</v>
+        <v>477.3000255443652</v>
       </c>
       <c r="G38" t="n">
-        <v>149.7005740260076</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7005740260076</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="I38" t="n">
         <v>61.01657479349947</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5645579700987</v>
+        <v>149.1589089497457</v>
       </c>
       <c r="K38" t="n">
-        <v>499.4055865732544</v>
+        <v>331.9999375529014</v>
       </c>
       <c r="L38" t="n">
-        <v>763.1378123231189</v>
+        <v>595.7321633027658</v>
       </c>
       <c r="M38" t="n">
-        <v>1518.217925392675</v>
+        <v>1350.812276372322</v>
       </c>
       <c r="N38" t="n">
-        <v>2273.298038462231</v>
+        <v>2105.892389441878</v>
       </c>
       <c r="O38" t="n">
-        <v>2706.617986577613</v>
+        <v>2408.885279210397</v>
       </c>
       <c r="P38" t="n">
-        <v>2930.714407147835</v>
+        <v>2720.522566394529</v>
       </c>
       <c r="Q38" t="n">
         <v>3050.828739674973</v>
@@ -7207,19 +7207,19 @@
         <v>2912.942395123859</v>
       </c>
       <c r="U38" t="n">
-        <v>2912.942395123859</v>
+        <v>2659.315038350026</v>
       </c>
       <c r="V38" t="n">
-        <v>2581.879507780288</v>
+        <v>2403.582010242265</v>
       </c>
       <c r="W38" t="n">
-        <v>2450.442119000955</v>
+        <v>2050.813354972151</v>
       </c>
       <c r="X38" t="n">
-        <v>2450.442119000955</v>
+        <v>2050.813354972151</v>
       </c>
       <c r="Y38" t="n">
-        <v>2060.302787025144</v>
+        <v>1660.674022996339</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>61.01657479349947</v>
       </c>
       <c r="J39" t="n">
-        <v>94.69569822452763</v>
+        <v>163.9234451029167</v>
       </c>
       <c r="K39" t="n">
-        <v>230.4135092249345</v>
+        <v>561.4618407457764</v>
       </c>
       <c r="L39" t="n">
-        <v>767.4819731755857</v>
+        <v>1157.405669259548</v>
       </c>
       <c r="M39" t="n">
-        <v>1053.851520724513</v>
+        <v>1443.775216808475</v>
       </c>
       <c r="N39" t="n">
-        <v>1362.209062993624</v>
+        <v>1752.132759077587</v>
       </c>
       <c r="O39" t="n">
         <v>2011.999872519385</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>229.2626245958999</v>
+        <v>1107.826912681456</v>
       </c>
       <c r="C40" t="n">
-        <v>229.2626245958999</v>
+        <v>938.8907297535491</v>
       </c>
       <c r="D40" t="n">
-        <v>229.2626245958999</v>
+        <v>788.7740903412133</v>
       </c>
       <c r="E40" t="n">
-        <v>229.2626245958999</v>
+        <v>640.8609967588202</v>
       </c>
       <c r="F40" t="n">
-        <v>229.2626245958999</v>
+        <v>493.9710492609098</v>
       </c>
       <c r="G40" t="n">
-        <v>61.01657479349947</v>
+        <v>325.7249994585094</v>
       </c>
       <c r="H40" t="n">
-        <v>61.01657479349947</v>
+        <v>174.6781537016154</v>
       </c>
       <c r="I40" t="n">
         <v>61.01657479349947</v>
@@ -7359,25 +7359,25 @@
         <v>1393.993799492882</v>
       </c>
       <c r="S40" t="n">
-        <v>1192.841191133001</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="T40" t="n">
-        <v>968.7535739457448</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="U40" t="n">
-        <v>968.7535739457448</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="V40" t="n">
-        <v>714.069085739858</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="W40" t="n">
-        <v>424.6519157028974</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="X40" t="n">
-        <v>424.6519157028974</v>
+        <v>1393.993799492882</v>
       </c>
       <c r="Y40" t="n">
-        <v>229.2626245958999</v>
+        <v>1289.475377511696</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1215.41789741114</v>
+        <v>1673.702946961022</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.41789741114</v>
+        <v>1304.74043002061</v>
       </c>
       <c r="D41" t="n">
-        <v>857.1521988043896</v>
+        <v>946.4747314138594</v>
       </c>
       <c r="E41" t="n">
         <v>560.6864788156151</v>
@@ -7420,13 +7420,13 @@
         <v>595.7321633027658</v>
       </c>
       <c r="M41" t="n">
-        <v>1350.812276372322</v>
+        <v>920.8545176532305</v>
       </c>
       <c r="N41" t="n">
-        <v>2105.892389441878</v>
+        <v>1675.934630722786</v>
       </c>
       <c r="O41" t="n">
-        <v>2408.885279210397</v>
+        <v>2177.845424734539</v>
       </c>
       <c r="P41" t="n">
         <v>2720.522566394529</v>
@@ -7441,22 +7441,22 @@
         <v>2912.942395123859</v>
       </c>
       <c r="T41" t="n">
-        <v>2912.942395123859</v>
+        <v>2701.663492399694</v>
       </c>
       <c r="U41" t="n">
-        <v>2659.315038350026</v>
+        <v>2448.036135625862</v>
       </c>
       <c r="V41" t="n">
-        <v>2328.252151006456</v>
+        <v>2116.973248282291</v>
       </c>
       <c r="W41" t="n">
-        <v>1975.483495736342</v>
+        <v>1764.204593012177</v>
       </c>
       <c r="X41" t="n">
-        <v>1602.017737475262</v>
+        <v>1764.204593012177</v>
       </c>
       <c r="Y41" t="n">
-        <v>1602.017737475262</v>
+        <v>1764.204593012177</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>219.5258232115324</v>
       </c>
       <c r="K42" t="n">
-        <v>355.2436342119393</v>
+        <v>617.064218854392</v>
       </c>
       <c r="L42" t="n">
-        <v>584.0555208752866</v>
+        <v>845.8761055177393</v>
       </c>
       <c r="M42" t="n">
-        <v>1098.85800574939</v>
+        <v>1132.245653066667</v>
       </c>
       <c r="N42" t="n">
-        <v>1853.938118818946</v>
+        <v>1544.156244219096</v>
       </c>
       <c r="O42" t="n">
-        <v>2113.805232260745</v>
+        <v>1804.023357660895</v>
       </c>
       <c r="P42" t="n">
-        <v>2303.038434843928</v>
+        <v>2308.534701197615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2587.593137824935</v>
+        <v>2593.089404178622</v>
       </c>
       <c r="R42" t="n">
         <v>2593.089404178622</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.1240522640779</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="C43" t="n">
-        <v>552.187869336171</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="D43" t="n">
-        <v>402.0712299238353</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="E43" t="n">
-        <v>254.1581363414422</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="F43" t="n">
-        <v>254.1581363414422</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="G43" t="n">
-        <v>85.91208653904178</v>
+        <v>61.01657479349947</v>
       </c>
       <c r="H43" t="n">
         <v>61.01657479349947</v>
@@ -7593,28 +7593,28 @@
         <v>1393.993799492882</v>
       </c>
       <c r="R43" t="n">
-        <v>1393.993799492882</v>
+        <v>1303.888745448622</v>
       </c>
       <c r="S43" t="n">
-        <v>1393.993799492882</v>
+        <v>1303.888745448622</v>
       </c>
       <c r="T43" t="n">
-        <v>1169.906182305625</v>
+        <v>1303.888745448622</v>
       </c>
       <c r="U43" t="n">
-        <v>1169.906182305625</v>
+        <v>1014.756248764604</v>
       </c>
       <c r="V43" t="n">
-        <v>1169.906182305625</v>
+        <v>760.0717605587172</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.906182305625</v>
+        <v>470.6545905217565</v>
       </c>
       <c r="X43" t="n">
-        <v>941.9166314076081</v>
+        <v>242.6650396237392</v>
       </c>
       <c r="Y43" t="n">
-        <v>721.1240522640779</v>
+        <v>242.6650396237392</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1643.036699872629</v>
+        <v>1274.074182932217</v>
       </c>
       <c r="C44" t="n">
         <v>1274.074182932217</v>
@@ -7648,19 +7648,19 @@
         <v>61.01657479349947</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5645579700987</v>
+        <v>149.1589089497457</v>
       </c>
       <c r="K44" t="n">
-        <v>499.4055865732544</v>
+        <v>652.9038959983545</v>
       </c>
       <c r="L44" t="n">
-        <v>1176.622414728065</v>
+        <v>916.636121748219</v>
       </c>
       <c r="M44" t="n">
-        <v>1501.74476907853</v>
+        <v>1241.758476098684</v>
       </c>
       <c r="N44" t="n">
-        <v>2035.52476639612</v>
+        <v>1658.532586946002</v>
       </c>
       <c r="O44" t="n">
         <v>2338.517656164639</v>
@@ -7681,19 +7681,19 @@
         <v>3050.828739674973</v>
       </c>
       <c r="U44" t="n">
-        <v>3050.828739674973</v>
+        <v>2797.201382901141</v>
       </c>
       <c r="V44" t="n">
-        <v>2772.544527182677</v>
+        <v>2466.13849555757</v>
       </c>
       <c r="W44" t="n">
-        <v>2419.775871912562</v>
+        <v>2113.369840287456</v>
       </c>
       <c r="X44" t="n">
-        <v>2419.775871912562</v>
+        <v>2050.813354972151</v>
       </c>
       <c r="Y44" t="n">
-        <v>2029.63653993675</v>
+        <v>1660.674022996339</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>61.01657479349947</v>
       </c>
       <c r="J45" t="n">
-        <v>94.69569822452763</v>
+        <v>219.5258232115324</v>
       </c>
       <c r="K45" t="n">
-        <v>230.4135092249345</v>
+        <v>617.064218854392</v>
       </c>
       <c r="L45" t="n">
-        <v>459.2253958882818</v>
+        <v>845.8761055177393</v>
       </c>
       <c r="M45" t="n">
-        <v>1206.642956549709</v>
+        <v>1306.834520607881</v>
       </c>
       <c r="N45" t="n">
-        <v>1961.723069619265</v>
+        <v>2061.914633677437</v>
       </c>
       <c r="O45" t="n">
-        <v>2221.590183061064</v>
+        <v>2321.781747119236</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.511216056106</v>
+        <v>2511.014949702419</v>
       </c>
       <c r="Q45" t="n">
-        <v>2593.089404178622</v>
+        <v>2587.593137824935</v>
       </c>
       <c r="R45" t="n">
         <v>2593.089404178622</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.8372970864089</v>
+        <v>222.4167303723593</v>
       </c>
       <c r="C46" t="n">
-        <v>490.8372970864089</v>
+        <v>222.4167303723593</v>
       </c>
       <c r="D46" t="n">
-        <v>490.8372970864089</v>
+        <v>222.4167303723593</v>
       </c>
       <c r="E46" t="n">
-        <v>342.9242035040157</v>
+        <v>222.4167303723593</v>
       </c>
       <c r="F46" t="n">
-        <v>342.9242035040157</v>
+        <v>222.4167303723593</v>
       </c>
       <c r="G46" t="n">
         <v>174.6781537016154</v>
@@ -7836,22 +7836,22 @@
         <v>1279.738502486481</v>
       </c>
       <c r="T46" t="n">
-        <v>1279.738502486481</v>
+        <v>1055.650885299224</v>
       </c>
       <c r="U46" t="n">
-        <v>1008.244018021387</v>
+        <v>766.5183886152067</v>
       </c>
       <c r="V46" t="n">
-        <v>1008.244018021387</v>
+        <v>511.8339004093199</v>
       </c>
       <c r="W46" t="n">
-        <v>718.8268479844262</v>
+        <v>222.4167303723593</v>
       </c>
       <c r="X46" t="n">
-        <v>490.8372970864089</v>
+        <v>222.4167303723593</v>
       </c>
       <c r="Y46" t="n">
-        <v>490.8372970864089</v>
+        <v>222.4167303723593</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.92701704887716</v>
+        <v>208.3012187210472</v>
       </c>
       <c r="R12" t="n">
         <v>39.96988561567738</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>99.04725508043595</v>
+        <v>104.5990392760795</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>39.96988561567741</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>99.04725508043521</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>104.5990392760786</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>39.96988561567741</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>104.5990392760788</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>104.5990392760786</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>258.9927034246642</v>
+        <v>52.22146261255736</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>39.96988561567741</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>78.64792991129919</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>69.92701704887767</v>
       </c>
       <c r="R30" t="n">
         <v>39.96988561567741</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298278</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>69.92701704887808</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.92701704887767</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>39.96988561567741</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>88.42511779182848</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>434.3007663829204</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>424.3263946887993</v>
       </c>
       <c r="O35" t="n">
-        <v>132.011542948827</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>440.7673623523368</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>69.92701704887767</v>
       </c>
       <c r="R36" t="n">
         <v>39.96988561567741</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>424.3263946887993</v>
       </c>
       <c r="O38" t="n">
-        <v>131.6434932796593</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>88.42511779182831</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>15.69661247580484</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>69.92701704887787</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>311.3702800881858</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>434.3007663829204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>424.3263946887993</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>200.9271760032664</v>
       </c>
       <c r="P41" t="n">
-        <v>88.42511779182831</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>230.7403407325017</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>451.234920000449</v>
+        <v>104.5990392760788</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>39.96988561567741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>200.7909242322683</v>
+        <v>82.60316012088208</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>176.3523914557722</v>
       </c>
       <c r="N45" t="n">
-        <v>451.2349200004491</v>
+        <v>451.234920000449</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>106.7553842544033</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.96988561567741</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3138658074726</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>208.1363788366086</v>
       </c>
       <c r="I11" t="n">
         <v>87.79715924018299</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>136.5074811056032</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.166113696923</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,16 +23466,16 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T13" t="n">
-        <v>118.3988496341768</v>
+        <v>132.6427375115657</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.120616243357</v>
+        <v>91.7795880119138</v>
       </c>
       <c r="H14" t="n">
         <v>306.8859026411703</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>209.166113696923</v>
       </c>
       <c r="U14" t="n">
-        <v>124.9183299379895</v>
+        <v>251.0910832060943</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.5635893043764</v>
@@ -23703,22 +23703,22 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S16" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>31.19049187557081</v>
+        <v>179.2364791975651</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>40.87096113645589</v>
       </c>
       <c r="G17" t="n">
-        <v>170.0999036922715</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H17" t="n">
-        <v>306.8859026411703</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>87.79715924018303</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>22.81902698374519</v>
       </c>
       <c r="G19" t="n">
         <v>166.5635893043764</v>
@@ -23940,7 +23940,7 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S19" t="n">
-        <v>148.6897519426213</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T19" t="n">
         <v>221.8467410153839</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>138.2202594620763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.120616243357</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>306.8859026411703</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.166113696923</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>261.1886871644037</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5635893043764</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>112.5249631190347</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S22" t="n">
-        <v>84.01349462141415</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>139.2103274444078</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>60.18144037143134</v>
+        <v>108.891762236851</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>78.7597305613978</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H25" t="n">
         <v>149.5363772993251</v>
@@ -24414,19 +24414,19 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S25" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>118.3988496341774</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>108.89176223685</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>196.6889214770331</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.5635893043764</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I28" t="n">
-        <v>62.36513700834917</v>
+        <v>112.5249631190347</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>113.1127440363371</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>199.1410822762817</v>
       </c>
       <c r="T28" t="n">
-        <v>221.8467410153839</v>
+        <v>177.8171365634072</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>108.891762236851</v>
       </c>
       <c r="I29" t="n">
-        <v>60.1814403714309</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>132.1257953695279</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S31" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>134.0428822724054</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>108.891762236851</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>87.79715924018303</v>
+        <v>60.1814403714309</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>136.5074811056033</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.4093297172908</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5635893043764</v>
+        <v>156.530424314262</v>
       </c>
       <c r="H34" t="n">
         <v>149.5363772993251</v>
@@ -25125,25 +25125,25 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S34" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>41.18612302844627</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>136.5074811056033</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.166113696923</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0910832060943</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>239.1850363199916</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>98.16414268455202</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.5635893043764</v>
       </c>
       <c r="H37" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>112.5249631190347</v>
@@ -25362,22 +25362,22 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S37" t="n">
-        <v>199.1410822762817</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.8467410153839</v>
+        <v>69.66518357248503</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2411717171773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.120616243357</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>306.8859026411703</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>87.79715924018303</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>209.166113696923</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0910832060943</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>74.57656064345096</v>
       </c>
       <c r="W38" t="n">
-        <v>219.1179538258733</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>149.5363772993251</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>112.5249631190347</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>113.1127440363371</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>199.1410822762817</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U40" t="n">
         <v>286.2411717171773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.14925515616727</v>
+        <v>115.1114155907204</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>293.1372120728367</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>88.42930728337507</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.166113696923</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5635893043764</v>
       </c>
       <c r="H43" t="n">
-        <v>124.8898206712382</v>
+        <v>149.5363772993251</v>
       </c>
       <c r="I43" t="n">
         <v>112.5249631190347</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>113.1127440363371</v>
+        <v>23.90874053251949</v>
       </c>
       <c r="S43" t="n">
         <v>199.1410822762817</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.8467410153839</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2411717171773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25921,16 +25921,16 @@
         <v>209.166113696923</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0910832060943</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>52.25088810276111</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>307.800180216317</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>119.3023984003399</v>
       </c>
       <c r="H46" t="n">
         <v>149.5363772993251</v>
@@ -26076,19 +26076,19 @@
         <v>199.1410822762817</v>
       </c>
       <c r="T46" t="n">
-        <v>221.8467410153839</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>17.46163209673443</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677187.9156609646</v>
+        <v>677187.9156609644</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>887428.2849152476</v>
+        <v>887428.2849152475</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724245.9037558009</v>
+        <v>724245.9037558007</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724245.9037558007</v>
+        <v>724245.9037558009</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724245.9037558009</v>
+        <v>724245.9037558008</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724245.9037558009</v>
+        <v>724245.9037558008</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>407316.9644420489</v>
       </c>
       <c r="F2" t="n">
-        <v>407316.9644420488</v>
+        <v>407316.9644420487</v>
       </c>
       <c r="G2" t="n">
         <v>407316.9644420487</v>
@@ -26334,19 +26334,19 @@
         <v>407316.9644420487</v>
       </c>
       <c r="I2" t="n">
+        <v>516097.9589901277</v>
+      </c>
+      <c r="J2" t="n">
         <v>516097.9589901275</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>516097.9589901275</v>
+      </c>
+      <c r="L2" t="n">
         <v>516097.9589901277</v>
       </c>
-      <c r="K2" t="n">
-        <v>516097.9589901277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>516097.9589901274</v>
-      </c>
       <c r="M2" t="n">
-        <v>431665.3555933055</v>
+        <v>431665.3555933054</v>
       </c>
       <c r="N2" t="n">
         <v>431665.3555933055</v>
@@ -26355,7 +26355,7 @@
         <v>431665.3555933055</v>
       </c>
       <c r="P2" t="n">
-        <v>431665.3555933053</v>
+        <v>431665.3555933055</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>29014.45697837502</v>
       </c>
       <c r="F4" t="n">
-        <v>29014.45697837505</v>
+        <v>29014.45697837506</v>
       </c>
       <c r="G4" t="n">
         <v>29014.45697837505</v>
@@ -26447,19 +26447,19 @@
         <v>66257.66385467994</v>
       </c>
       <c r="L4" t="n">
-        <v>66257.66385467992</v>
+        <v>66257.66385467994</v>
       </c>
       <c r="M4" t="n">
+        <v>37350.58382221132</v>
+      </c>
+      <c r="N4" t="n">
         <v>37350.58382221131</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37350.58382221132</v>
       </c>
-      <c r="O4" t="n">
-        <v>37350.58382221131</v>
-      </c>
       <c r="P4" t="n">
-        <v>37350.58382221131</v>
+        <v>37350.5838222113</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70719.22708617273</v>
+        <v>70719.22708617267</v>
       </c>
       <c r="C6" t="n">
-        <v>151488.6586177203</v>
+        <v>151488.6586177204</v>
       </c>
       <c r="D6" t="n">
-        <v>151488.6586177205</v>
+        <v>151488.6586177204</v>
       </c>
       <c r="E6" t="n">
-        <v>-440503.321751772</v>
+        <v>-435607.1140778938</v>
       </c>
       <c r="F6" t="n">
-        <v>316333.4622550657</v>
+        <v>321229.6699289437</v>
       </c>
       <c r="G6" t="n">
-        <v>316333.4622550656</v>
+        <v>321229.6699289437</v>
       </c>
       <c r="H6" t="n">
-        <v>316333.4622550657</v>
+        <v>321229.6699289437</v>
       </c>
       <c r="I6" t="n">
-        <v>221452.1509634034</v>
+        <v>222722.3254856791</v>
       </c>
       <c r="J6" t="n">
-        <v>297121.3049724384</v>
+        <v>298391.4794947138</v>
       </c>
       <c r="K6" t="n">
-        <v>360181.2475715447</v>
+        <v>361451.42209382</v>
       </c>
       <c r="L6" t="n">
-        <v>360181.2475715444</v>
+        <v>361451.4220938201</v>
       </c>
       <c r="M6" t="n">
-        <v>326147.8883176082</v>
+        <v>330232.4829531109</v>
       </c>
       <c r="N6" t="n">
-        <v>326147.8883176082</v>
+        <v>330232.482953111</v>
       </c>
       <c r="O6" t="n">
-        <v>326147.8883176082</v>
+        <v>330232.482953111</v>
       </c>
       <c r="P6" t="n">
-        <v>326147.888317608</v>
+        <v>330232.482953111</v>
       </c>
     </row>
   </sheetData>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>326.3696197612192</v>
       </c>
       <c r="H2" t="n">
-        <v>289.1830869480649</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.4129376317904</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>16.69006640258652</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>302.9767661813997</v>
       </c>
       <c r="Y5" t="n">
-        <v>337.4020434725118</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.9167571094409</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>73.52505390884846</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>115.8205630125936</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9462234883513</v>
       </c>
     </row>
     <row r="9">
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>158.425855150396</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>217.7067518141195</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.01931659699821</v>
+        <v>160.110351937407</v>
       </c>
       <c r="K12" t="n">
-        <v>401.5539349927876</v>
+        <v>137.088697980209</v>
       </c>
       <c r="L12" t="n">
         <v>601.9634631452242</v>
@@ -35509,7 +35509,7 @@
         <v>509.6074177138592</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.2787222231362</v>
+        <v>285.6529238953062</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O15" t="n">
-        <v>361.5392888600306</v>
+        <v>367.0910730556741</v>
       </c>
       <c r="P15" t="n">
         <v>509.6074177138591</v>
@@ -35749,7 +35749,7 @@
         <v>287.428992910108</v>
       </c>
       <c r="R15" t="n">
-        <v>5.551784195643407</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>401.5539349927876</v>
       </c>
       <c r="L18" t="n">
-        <v>231.123117841765</v>
+        <v>330.1703729222002</v>
       </c>
       <c r="M18" t="n">
         <v>289.2621692413406</v>
@@ -35977,7 +35977,7 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O18" t="n">
-        <v>367.0910730556732</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P18" t="n">
         <v>509.6074177138591</v>
@@ -35986,7 +35986,7 @@
         <v>287.428992910108</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.551784195643407</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>401.5539349927876</v>
       </c>
       <c r="L21" t="n">
-        <v>335.7221571178437</v>
+        <v>231.123117841765</v>
       </c>
       <c r="M21" t="n">
         <v>289.2621692413406</v>
@@ -36214,7 +36214,7 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O21" t="n">
-        <v>262.4920337795946</v>
+        <v>367.0910730556732</v>
       </c>
       <c r="P21" t="n">
         <v>509.6074177138591</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.01931659699815</v>
+        <v>160.110351937407</v>
       </c>
       <c r="K27" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L27" t="n">
         <v>601.9634631452241</v>
@@ -36688,13 +36688,13 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O27" t="n">
-        <v>656.3543530563242</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P27" t="n">
-        <v>450.1373524985861</v>
+        <v>243.3661116864793</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.35170517425897</v>
+        <v>287.428992910108</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>112.6672465082973</v>
+        <v>34.01931659699815</v>
       </c>
       <c r="K30" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L30" t="n">
-        <v>231.123117841765</v>
+        <v>601.9634631452241</v>
       </c>
       <c r="M30" t="n">
-        <v>754.9672329913406</v>
+        <v>289.2621692413406</v>
       </c>
       <c r="N30" t="n">
-        <v>790.8146392618478</v>
+        <v>311.4722649182943</v>
       </c>
       <c r="O30" t="n">
         <v>262.4920337795946</v>
       </c>
       <c r="P30" t="n">
-        <v>191.1446490739219</v>
+        <v>509.6074177138591</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.35170517425897</v>
+        <v>147.2787222231366</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>258.1292759359588</v>
       </c>
       <c r="K32" t="n">
-        <v>508.8333202511192</v>
+        <v>508.83332025112</v>
       </c>
       <c r="L32" t="n">
         <v>684.0574021765761</v>
@@ -37092,7 +37092,7 @@
         <v>333.6425992731759</v>
       </c>
       <c r="R32" t="n">
-        <v>50.0198073971776</v>
+        <v>50.01980739717795</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.01931659699815</v>
+        <v>103.9463336458762</v>
       </c>
       <c r="K33" t="n">
         <v>401.5539349927876</v>
@@ -37168,7 +37168,7 @@
         <v>509.6074177138591</v>
       </c>
       <c r="Q33" t="n">
-        <v>147.2787222231366</v>
+        <v>77.35170517425897</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>258.1292759359588</v>
+        <v>89.03266076388508</v>
       </c>
       <c r="K35" t="n">
-        <v>508.83332025112</v>
+        <v>184.6879076799552</v>
       </c>
       <c r="L35" t="n">
-        <v>266.3961876261257</v>
+        <v>354.8213054179542</v>
       </c>
       <c r="M35" t="n">
-        <v>328.4064185358229</v>
+        <v>762.7071849187433</v>
       </c>
       <c r="N35" t="n">
-        <v>338.380790229944</v>
+        <v>762.7071849187433</v>
       </c>
       <c r="O35" t="n">
-        <v>438.0649669574323</v>
+        <v>306.0534240086054</v>
       </c>
       <c r="P35" t="n">
-        <v>548.1587289494848</v>
+        <v>226.3600207780022</v>
       </c>
       <c r="Q35" t="n">
         <v>333.6425992731759</v>
@@ -37390,13 +37390,13 @@
         <v>401.5539349927876</v>
       </c>
       <c r="L36" t="n">
-        <v>231.123117841765</v>
+        <v>601.9634631452241</v>
       </c>
       <c r="M36" t="n">
         <v>289.2621692413406</v>
       </c>
       <c r="N36" t="n">
-        <v>752.2396272706311</v>
+        <v>311.4722649182943</v>
       </c>
       <c r="O36" t="n">
         <v>262.4920337795946</v>
@@ -37405,7 +37405,7 @@
         <v>509.6074177138591</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.35170517425897</v>
+        <v>147.2787222231366</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>258.1292759359588</v>
+        <v>89.03266076388508</v>
       </c>
       <c r="K38" t="n">
         <v>184.6879076799552</v>
@@ -37557,13 +37557,13 @@
         <v>762.7071849187433</v>
       </c>
       <c r="O38" t="n">
-        <v>437.6969172882646</v>
+        <v>306.0534240086054</v>
       </c>
       <c r="P38" t="n">
-        <v>226.3600207780022</v>
+        <v>314.7851385698305</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.3276086132712</v>
+        <v>333.6425992731759</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.01931659699815</v>
+        <v>103.946333645876</v>
       </c>
       <c r="K39" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L39" t="n">
-        <v>542.4933979299508</v>
+        <v>601.9634631452241</v>
       </c>
       <c r="M39" t="n">
         <v>289.2621692413406</v>
@@ -37636,7 +37636,7 @@
         <v>311.4722649182943</v>
       </c>
       <c r="O39" t="n">
-        <v>656.3543530563242</v>
+        <v>262.4920337795946</v>
       </c>
       <c r="P39" t="n">
         <v>509.6074177138591</v>
@@ -37788,16 +37788,16 @@
         <v>266.3961876261257</v>
       </c>
       <c r="M41" t="n">
-        <v>762.7071849187433</v>
+        <v>328.4064185358229</v>
       </c>
       <c r="N41" t="n">
         <v>762.7071849187433</v>
       </c>
       <c r="O41" t="n">
-        <v>306.0534240086054</v>
+        <v>506.9806000118718</v>
       </c>
       <c r="P41" t="n">
-        <v>314.7851385698305</v>
+        <v>548.1587289494848</v>
       </c>
       <c r="Q41" t="n">
         <v>333.6425992731759</v>
@@ -37861,28 +37861,28 @@
         <v>160.110351937407</v>
       </c>
       <c r="K42" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L42" t="n">
         <v>231.123117841765</v>
       </c>
       <c r="M42" t="n">
-        <v>520.0025099738424</v>
+        <v>289.2621692413406</v>
       </c>
       <c r="N42" t="n">
-        <v>762.7071849187433</v>
+        <v>416.0713041943731</v>
       </c>
       <c r="O42" t="n">
         <v>262.4920337795946</v>
       </c>
       <c r="P42" t="n">
-        <v>191.1446490739219</v>
+        <v>509.6074177138591</v>
       </c>
       <c r="Q42" t="n">
         <v>287.428992910108</v>
       </c>
       <c r="R42" t="n">
-        <v>5.551784195643407</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>258.1292759359588</v>
+        <v>89.03266076388508</v>
       </c>
       <c r="K44" t="n">
-        <v>184.6879076799552</v>
+        <v>508.83332025112</v>
       </c>
       <c r="L44" t="n">
-        <v>684.0574021765761</v>
+        <v>266.3961876261257</v>
       </c>
       <c r="M44" t="n">
         <v>328.4064185358229</v>
       </c>
       <c r="N44" t="n">
-        <v>539.1717144622123</v>
+        <v>420.9839503508261</v>
       </c>
       <c r="O44" t="n">
-        <v>306.0534240086054</v>
+        <v>686.8536052713507</v>
       </c>
       <c r="P44" t="n">
         <v>548.1587289494848</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.01931659699815</v>
+        <v>160.110351937407</v>
       </c>
       <c r="K45" t="n">
-        <v>137.088697980209</v>
+        <v>401.5539349927876</v>
       </c>
       <c r="L45" t="n">
         <v>231.123117841765</v>
       </c>
       <c r="M45" t="n">
-        <v>754.9672329913406</v>
+        <v>465.6145606971129</v>
       </c>
       <c r="N45" t="n">
         <v>762.7071849187433</v>
@@ -38113,13 +38113,13 @@
         <v>262.4920337795946</v>
       </c>
       <c r="P45" t="n">
-        <v>297.9000333283252</v>
+        <v>191.1446490739219</v>
       </c>
       <c r="Q45" t="n">
         <v>77.35170517425897</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>5.551784195643407</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
